--- a/test-inscription_spreadsheet.xlsx
+++ b/test-inscription_spreadsheet.xlsx
@@ -1,36 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ewan Coopey\OneDrive - Macquarie University\MRes\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ewan Coopey\Documents\GitHub\BromansCoopey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="902" documentId="114_{5AD584BA-E659-4196-B527-A69A79C33733}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{94E9983A-A812-410C-B73D-806E87E13100}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37C9D7F1-8BD8-45E7-9774-82FA37A81220}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="240" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="240" windowWidth="23040" windowHeight="12120"/>
   </bookViews>
   <sheets>
     <sheet name="test-inscription_spreadsheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="513">
   <si>
     <t>MonumentID</t>
   </si>
@@ -38,12 +28,60 @@
     <t>CIL</t>
   </si>
   <si>
+    <t>Tončinić</t>
+  </si>
+  <si>
+    <t>Betz</t>
+  </si>
+  <si>
+    <t>ILJug</t>
+  </si>
+  <si>
     <t>Other-DB</t>
   </si>
   <si>
     <t>FindspotId</t>
   </si>
   <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>Settlment</t>
+  </si>
+  <si>
+    <t>SpecificLocation</t>
+  </si>
+  <si>
+    <t>LAT</t>
+  </si>
+  <si>
+    <t>LONG</t>
+  </si>
+  <si>
+    <t>FirstPublicationCitation</t>
+  </si>
+  <si>
+    <t>DateFound</t>
+  </si>
+  <si>
+    <t>DateFoundPrecisionNote</t>
+  </si>
+  <si>
+    <t>MonumentType</t>
+  </si>
+  <si>
+    <t>MilitaryStatus</t>
+  </si>
+  <si>
+    <t>OfficeType</t>
+  </si>
+  <si>
+    <t>MemberSeventhLegion</t>
+  </si>
+  <si>
+    <t>CPFTitle</t>
+  </si>
+  <si>
     <t>fratres</t>
   </si>
   <si>
@@ -53,15 +91,57 @@
     <t>Translation</t>
   </si>
   <si>
+    <t>DoorMotifPresent</t>
+  </si>
+  <si>
+    <t>PortraitPresent</t>
+  </si>
+  <si>
+    <t>WeaponsPresent</t>
+  </si>
+  <si>
+    <t>DateFrom</t>
+  </si>
+  <si>
+    <t>DateTo</t>
+  </si>
+  <si>
+    <t>DateNote</t>
+  </si>
+  <si>
+    <t>StelaeType</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
     <t>B1</t>
   </si>
   <si>
+    <t>03, 02908</t>
+  </si>
+  <si>
+    <t>1 i 84</t>
+  </si>
+  <si>
     <t>Dalmatia</t>
   </si>
   <si>
     <t>Iader</t>
   </si>
   <si>
+    <t>construction dedication</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>Ti(berius) Caesar divi Aug(usti) f(ilius) / Augustus imp(erator) pontif(ex) max(imus) / trib(unicia) potest(ate) XX co(n)s(ul) III / leg(io) VII leg(io) XI / P(ublio) Cornelio Dolabella / leg(ato) pr(o) pr(aetore)</t>
   </si>
   <si>
@@ -74,7 +154,7 @@
     <t>B2</t>
   </si>
   <si>
-    <t>S2</t>
+    <t>03, 02733</t>
   </si>
   <si>
     <t>Aequum</t>
@@ -86,31 +166,46 @@
     <t>veteran</t>
   </si>
   <si>
+    <t>cpf</t>
+  </si>
+  <si>
     <t>Sex(tus) Iu[lius Sex(ti) f(ilius)] / Ani(ensi) Silva[nus Foro Iulii] / summus c[urat(or) c(ivium) R(omanorum) prov(inciae) Dalm(atiae)] / suffragio [eorum factus vet(eranus?)] / leg(ionis) VII C(laudiae) P(iae) F(idelis) aed[ilis col(oniae) Claudiae Aequi ab] / ordine primus [post col(oniam) ded(uctam) creatus] / IIIIvir i(ure) d(icundo) pont(ifex) [in col(onia?) Salona(?) 3] / in ag[ro] p(edes) [3] / h(oc) s(epulcrum) h(eredem) [n(on) s(equetur)]</t>
   </si>
   <si>
+    <t>Check inconsistencies in Tončinić2011</t>
+  </si>
+  <si>
     <t>B3</t>
   </si>
   <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>Solin</t>
+    <t>03, 03198a</t>
+  </si>
+  <si>
+    <t>01, 262</t>
+  </si>
+  <si>
+    <t>SanaderTončinić2013; EDCS-54900234; CIL 03, 03200 = CIL 03, 10156 = CIL 03, 10158 = CIL 17-04, p 130 = D 02478 = D 05829 = ILJug-01, 00262 = Legio-VII 00091 = AE 1961, 00304 = AE 2006, +01004</t>
+  </si>
+  <si>
+    <t>Salona</t>
   </si>
   <si>
     <t>Grad-Diokletianpalast-Mausoleum</t>
   </si>
   <si>
+    <t>boundary stone</t>
+  </si>
+  <si>
     <t>[Ti(berius) C]aesar divi Augusti f(ilius) / [Aug]ustus Imp(erator) pont(ifex) max(imus) / [trib(unicia)] potest(ate) XIIX co(n)s(ul) II / [viam] a colonia Salonitan(a) / [ad f]in[e]s provinciae Illyrici // [------ ------] / cuius viai(!) millia passus(!) sunt / CLXVII munit per vexillarios / leg(ionum) VII et XI / item viam Gabinianam / ab Salonis Andetrium aperuit / et munit per leg(ionem) VII</t>
   </si>
   <si>
+    <t>Shows Legio VII vexilations working on demarcations/splitting up of the land in the hinterland of Dal. - e.g., peacetime activities</t>
+  </si>
+  <si>
     <t>B4</t>
   </si>
   <si>
     <t>Demicheli2011.no.1, MCK-AZ-228</t>
-  </si>
-  <si>
-    <t>S4</t>
   </si>
   <si>
     <t>Majstorovici</t>
@@ -130,1038 +225,1065 @@
     <t>portrait</t>
   </si>
   <si>
+    <t>A3c</t>
+  </si>
+  <si>
     <t>cetina krajina museum</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
+    <t>Sanader2000</t>
+  </si>
+  <si>
     <t>Tilurium</t>
   </si>
   <si>
+    <t>Vojnić</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>frater fratri posuit</t>
+  </si>
+  <si>
+    <t>L(ucijus) Ancharenus Q(uinti) f(ilius)/ Ser(gia triba) (domo) Laranda mil(es)/ leg(ionis) VII(septima) ann(orum) XL(quadraginta) stip(endiorum) XXI(vigintiunorum)/ h(ic) s(itus) e(st)5 Q(uintus) Ancharenus haec tan[...?]/ posuit tibi dona frater quia/ longe a patria te cecidisse dolet/ optaram vivo potius dare vi[na]/ [...]non obito care ferenda/ 10 tuo si quicquam sentire potes/ [..]mpore nostro damus haec/ [...] sit tibi terra levis frater/ fratri posuit.</t>
+  </si>
+  <si>
+    <t>Rc</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>03, 02709</t>
+  </si>
+  <si>
+    <t>D 02252; EDCS-28300035; Hofmann1905, pp. 54-55, no. 42.</t>
+  </si>
+  <si>
     <t>T(itus) Ancharenus / T(iti) f(ilius) Ser(gia) / dom(o) Laranda / mil(es) leg(ionis) VII an(norum) / XLIV stip(endiorum) XXIII / h(ic) s(itus) e(st)</t>
   </si>
   <si>
-    <t>B6</t>
+    <t>A1a</t>
+  </si>
+  <si>
+    <t>Arheološki muzej u Splitu</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
+    <t>03, 03162a</t>
+  </si>
+  <si>
+    <t>Hofmann1905, pp. 49-49, no. 37; EDCS-28600125</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Hofmann1905</t>
+  </si>
+  <si>
+    <t>eques</t>
+  </si>
+  <si>
+    <t>M(arco) Antonio Celeri / eq(uiti) leg(ionis) VII C(laudiae) P(iae) F(idelis) Iulia / Maxsima(!) heres fecit / sibi et coniugi caro suo st(ipendiorum) XXX / [in] f(ronte) p(edes) XII in ag(ro) (!) XVII</t>
+  </si>
+  <si>
+    <t>A3b</t>
+  </si>
+  <si>
+    <t>lost</t>
+  </si>
+  <si>
     <t>B8</t>
   </si>
   <si>
+    <t>BD-VAHD_37-1914</t>
+  </si>
+  <si>
+    <t>NthNecropolis</t>
+  </si>
+  <si>
     <t>B9</t>
   </si>
   <si>
+    <t>03, 08723</t>
+  </si>
+  <si>
+    <t>BD-VAHD_11-1888</t>
+  </si>
+  <si>
+    <t>EastNecropolis</t>
+  </si>
+  <si>
     <t>B10</t>
   </si>
   <si>
+    <t>Fadić1995</t>
+  </si>
+  <si>
     <t>B11</t>
   </si>
   <si>
+    <t>03, 02913</t>
+  </si>
+  <si>
+    <t>Filippi-house</t>
+  </si>
+  <si>
+    <t>Arheološki muzej u Zadru</t>
+  </si>
+  <si>
     <t>B12</t>
   </si>
   <si>
+    <t>03, 09733</t>
+  </si>
+  <si>
+    <t>BD-VAHD_1-1878-no.24</t>
+  </si>
+  <si>
+    <t>BD-VAHD_1-1878</t>
+  </si>
+  <si>
+    <t>frater fratri</t>
+  </si>
+  <si>
+    <t>Q(uintus) Baebius Q(uinti) f(ilius) Serg(ia) Conan(is) / miles leg(ionis) VII ann(orum) XXXXV / stip(endiorum) XX h(ic) s(itus) e(st) / quamvis lasse viator rogo ne graveris et / tumulum contempla meum lege et moraris iam / aliquid resciveris dum vixi hilaris iucundus amicis / nunc to[rpen]s iaceo hic o[ssa req]u[ies]cunt mea natus / sum Canonis conditu(s) in Illurico (!) vale et bene / facito vitae dum fatum venit / frater fratri</t>
+  </si>
+  <si>
+    <t>doors</t>
+  </si>
+  <si>
+    <t>Ra</t>
+  </si>
+  <si>
     <t>B13</t>
   </si>
   <si>
+    <t>03, 08735</t>
+  </si>
+  <si>
+    <t>BD-VAHD_5-1882-no.11</t>
+  </si>
+  <si>
+    <t>imaginifer</t>
+  </si>
+  <si>
+    <t>C(aius) Bitt[ius- - -]/ Tro(mentina) Gem[ellus()] / imagini[fer] / leg(ionis) VII Cl(audiae) [P(iae) F(idelis)] / t(estamento) f(ieri) [i(ussit)]</t>
+  </si>
+  <si>
     <t>B14</t>
   </si>
   <si>
+    <t>03, 02014</t>
+  </si>
+  <si>
+    <t>Hofmann1905, pp.57, no.46</t>
+  </si>
+  <si>
+    <t>L(ucius) Caesius L(uci) f(ilius) / Cam(ilia) Bassus / domo Pisauri / vet(eranus) leg(ionis) VII C(laudiae) P(iae) F(idelis) / an(norum) LIII stip(endiorum) XXXIII / h(ic) s(itus) e(st) t(estamento) f(ieri) i(ussit) h(eres) p(osuit) / in f(ronte) p(edes) VI in a(gro) p(edes) X</t>
+  </si>
+  <si>
+    <t>A3a</t>
+  </si>
+  <si>
     <t>B15</t>
   </si>
   <si>
+    <t>03, 08487</t>
+  </si>
+  <si>
+    <t>52-53</t>
+  </si>
+  <si>
+    <t>Bigeste-Ljubuški</t>
+  </si>
+  <si>
+    <t>Filovača</t>
+  </si>
+  <si>
+    <t>Hoernes1880-Bulić1885</t>
+  </si>
+  <si>
+    <t>L(ucius) Domitius L(uci) f(ilius) A&lt;n=II&gt;(iensi) / Aquila vet(eranus) leg(ionis) VII / domo Myliada(!) / stip(endiorum) XXXIII vi(vus) fe[c(it)] sib(i) / et C(aio) Domitio [L(uci) f(ilio)] A[n(iensi)] / [A]qui[l]ino mil(iti) [le]g(ionis) V[II] / stip(endiorum) XX h(onesta) m(issione) [m(isso) ---] / [------] / [------] / [---]A[---] / [---]V[---] fecit</t>
+  </si>
+  <si>
+    <t>tituli</t>
+  </si>
+  <si>
     <t>B16</t>
   </si>
   <si>
+    <t>03, 02710-09726</t>
+  </si>
+  <si>
+    <t>Hofman1905, pp.56, no.45</t>
+  </si>
+  <si>
+    <t>Gardun_house</t>
+  </si>
+  <si>
+    <t>Cn(aeus) Domiti/us Cn(aei) f(ilius) Vel(ina) / Pessinunte / an(norum) XLIV stip(endiorum) / XXV veteran(us) / ex leg(ione) VII h(ic) s(itus) e(st) / testamento / fieri iussit</t>
+  </si>
+  <si>
     <t>B17</t>
   </si>
   <si>
+    <t>03, 02914</t>
+  </si>
+  <si>
+    <t>Church of st Michael</t>
+  </si>
+  <si>
+    <t>centurio</t>
+  </si>
+  <si>
+    <t>T(ito) Elvio Sca(ptia) Marino / IIIIvir(o) Altini / T(itus) Elvius T(iti) f(ilius) Salinator / |(centurio) leg(ionis) VII patri / in fronte p(edes) XXX in agro p(edes) XXX / h(oc) m(onumentum) h(eredem) n(on) s(equetur)</t>
+  </si>
+  <si>
     <t>B18</t>
   </si>
   <si>
+    <t>BD-VAHD_26-1903, p.130,no.3321č Hofmann1905,p.87</t>
+  </si>
+  <si>
+    <t>Bulić1903</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
     <t>B19</t>
   </si>
   <si>
+    <t>03, 02022</t>
+  </si>
+  <si>
+    <t>Betz1938</t>
+  </si>
+  <si>
+    <t>L(ucius) Fabius L(uci) f(ilius) Satur/ninus vet(eranus) leg(ionis) VII C(laudiae) P(iae) F(idelis) / v(ivus) f(ecit) sibi et Claudiae Ti(beri) / Claudi Alypi l(iberti) Caesaris / libertae Euche h(ic) s(iti) s(unt) / loc(um) don(avit) C(aius) Titius / Restitutus amicus / h(oc) m(onumentum) h(eredem) n(on) s(equetur)</t>
+  </si>
+  <si>
     <t>B20</t>
   </si>
   <si>
+    <t>03, 01813</t>
+  </si>
+  <si>
+    <t>Marin.et.al.1999,no.32</t>
+  </si>
+  <si>
+    <t>Narona</t>
+  </si>
+  <si>
+    <t>Vid-Metković</t>
+  </si>
+  <si>
+    <t>M(arcus) Heredius M(arci) f(ilius) Pal(atina) / veteranus leg(ionis) VII / h(ic) s(itus) est fecit / Faustus l(ibertus)</t>
+  </si>
+  <si>
+    <t>Vid - Secondary Use</t>
+  </si>
+  <si>
     <t>B21</t>
   </si>
   <si>
+    <t>03, 06364-08488</t>
+  </si>
+  <si>
+    <t>BD-VAHD_6-1883,p.82,no.31</t>
+  </si>
+  <si>
+    <t>Alačević1883no.31</t>
+  </si>
+  <si>
+    <t>L(ucius) Herenni/us L(uci) f(ilius) Pap(iria) / Muliade / vet(eranus) leg(ionis) VII / an(norum) LX sti(pendiorum) / XXX h(ic) s(itus) e(st)</t>
+  </si>
+  <si>
+    <t>National BH musej</t>
+  </si>
+  <si>
     <t>B22</t>
   </si>
   <si>
-    <t>M(arco) Antonio Celeri / eq(uiti) leg(ionis) VII C(laudiae) P(iae) F(idelis) Iulia / Maxsima(!) heres fecit / sibi et coniugi caro suo st(ipendiorum) XXX / [in] f(ronte) p(edes) XII in ag(ro) (!) XVII</t>
+    <t>03, 02033</t>
+  </si>
+  <si>
+    <t>Solin</t>
+  </si>
+  <si>
+    <t>Q(uinto) Hortensio / Q(uinti) f(ilio) vet(erano) leg(ionis) / VII h(ic) s(itus) e(st) / Hortensia / Q(uinti) f(ilia) Quarta et / L(ucius) Corellius I[u]c/undus patri posuere</t>
+  </si>
+  <si>
+    <t>B23</t>
+  </si>
+  <si>
+    <t>03, 07386</t>
+  </si>
+  <si>
+    <t>EDCS-28500234; IK-19, 00043</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>Thracia</t>
+  </si>
+  <si>
+    <t>Lysimachia</t>
+  </si>
+  <si>
+    <t>Leg(io) VII Maced(onica) / |(centuria) M(arci) Caecili / c(o)ho(rs) X</t>
+  </si>
+  <si>
+    <t>maybe -30 6</t>
+  </si>
+  <si>
+    <t>ascribed to Legio VII because of location and eastern origin by Betz and Wilkes</t>
+  </si>
+  <si>
+    <t>B24</t>
+  </si>
+  <si>
+    <t>BD-VAHD_37-1914,p.65no.4656A</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>B25</t>
+  </si>
+  <si>
+    <t>BD-VAHD_31-1908,p.79no.3959A</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>Bulić1908</t>
+  </si>
+  <si>
+    <t>B26</t>
+  </si>
+  <si>
+    <t>Cambi1994</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t>Dugopolje</t>
+  </si>
+  <si>
+    <t>Near Tilurium and Solin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Found as part of a 4th cent. LA tomb </t>
+  </si>
+  <si>
+    <t>B27</t>
+  </si>
+  <si>
+    <t>03, 02714-09736</t>
+  </si>
+  <si>
+    <t>BD-1-1878</t>
+  </si>
+  <si>
+    <t>C(aius) Iulius C(ai) f(ilius) / V(o)ltinia Clistin/na mil(es) leg(ionis) VII / ann(orum) XL stip(endiorum) XIIX / h(ic) s(itus) e(st)</t>
+  </si>
+  <si>
+    <t>B28</t>
+  </si>
+  <si>
+    <t>03, 02885</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>Karin-Corinium</t>
+  </si>
+  <si>
+    <t>Near Iader</t>
+  </si>
+  <si>
+    <t>C(aio) Iulio C(ai) f(ilio) / [Se]r(gia) [Agr]ippae / [3] leg(ionis) VII (!) P(iae) F(idelis) / |(centuria) Agrip[p]ae p(---) / Avita mari/to Agrippi[na] / patri</t>
+  </si>
+  <si>
+    <t>B29</t>
+  </si>
+  <si>
+    <t>03, 02715</t>
+  </si>
+  <si>
+    <t>Fadić1994no.4</t>
+  </si>
+  <si>
+    <t>Košute</t>
+  </si>
+  <si>
+    <t>M(arcus) Iulius M(arci) f(ilius) / Trernahensis / miles leg(ionis) VII C(laudiae) P(iae) F(idelis) / an(norum) XXXXV stip(endiorum) XX / M(arcus) A[rr]untius frater [et] / [he]r[es] po[s]uit / h(ic) s(itus) e(st)</t>
+  </si>
+  <si>
+    <t>B30</t>
+  </si>
+  <si>
+    <t>03, 13976</t>
+  </si>
+  <si>
+    <t>BD-VAHD_17-1894,p.4no.2; Patsch1897no.10; AE2007-01104</t>
+  </si>
+  <si>
+    <t>Bulić1894</t>
+  </si>
+  <si>
+    <t>Sex(tus) Clodius / C(ai) f(ilius) Pub(lilia) Verona / mil(es) l[eg(ionis)</t>
+  </si>
+  <si>
+    <t>Fragmentary, no explicit mention of Legio VII extant, but CPF and location + probably Legio VII. Has been used secondarily</t>
+  </si>
+  <si>
+    <t>B31</t>
+  </si>
+  <si>
+    <t>03, 09734</t>
+  </si>
+  <si>
+    <t>01, 146</t>
+  </si>
+  <si>
+    <t>BD-VAHD_11-1888,p.99no.55</t>
+  </si>
+  <si>
+    <t>Gardun</t>
+  </si>
+  <si>
+    <t>Bulić1888</t>
+  </si>
+  <si>
+    <t>L(ucius) Cornelius L(uci) f(ilius) / Fab(ia) Heraclea / mil(es) leg(ionis) VII ann(orum) / XXXIII stip(endiorum) XII t(estamento) f(ieri) i(ussit) / Secundus h(eres) p(osuit) / h(ic) s(itus) e(st)</t>
+  </si>
+  <si>
+    <t>A1b</t>
+  </si>
+  <si>
+    <t>B32</t>
+  </si>
+  <si>
+    <t>03, 02019</t>
+  </si>
+  <si>
+    <t>scriba</t>
+  </si>
+  <si>
+    <t>C(aius) Curiatius T(iti) f(ilius) Serg(ia) / Secundus dom(o) Augusta / Troade vet(eranus) leg(ionis) VII C(laudiae) P(iae) F(idelis) / scrib[a] Salonis annor(um) LXV h(ic) s(itus) e(st) / [in fr(onte) p(edes) --- in agr(o)] p(edes) XX</t>
+  </si>
+  <si>
+    <t>B33</t>
+  </si>
+  <si>
+    <t>11, 00021 (p 1227) = 03, 14244,1</t>
+  </si>
+  <si>
+    <t>T(itus) Curtiacus / T(iti) f(ilius) Lem(onia) Bon(onia) / vet(eranus) leg(ionis) VII C(laudiae) P(iae) F(idelis) / h(ic) s(itus) e(st) t(estamento) f(ieri) i(ussit)</t>
+  </si>
+  <si>
+    <t>B34</t>
+  </si>
+  <si>
+    <t>03, 14931</t>
+  </si>
+  <si>
+    <t>BD-VAHD_20-1897,p.130no.2368č AE1897</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>Dicmo</t>
+  </si>
+  <si>
+    <t>Near Tilurium</t>
+  </si>
+  <si>
+    <t>Bulić1897</t>
+  </si>
+  <si>
+    <t>C(aius) Lartinius / C(ai) f(ilius) Pol(lia) domo / Foro Corneli / miles leg(ionis) VII / ann(orum) XXXIV / stip(endiorum) XVI h(ic) s(itus) e(st) / heredes posuer(unt)</t>
+  </si>
+  <si>
+    <t>B35</t>
+  </si>
+  <si>
+    <t>03, 01814</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>P(ublius) Lastus A(uli) f(ilius) Scaeva / domo Florentia / eques vet(eranus) leg(ionis) VII C(laudiae) P(iae) F(idelis) / annor(um) LX stip(endiorum) XXX et Lastae / P(ubli) l(ibertae) Apiculae P(ublio) Lasto Felici / P(ublio) Lasto Diodoro lib(erto) t(estamento) f(ieri) i(ussit)</t>
+  </si>
+  <si>
+    <t>B36</t>
+  </si>
+  <si>
+    <t>17-04, 00363</t>
+  </si>
+  <si>
+    <t>03, 2974</t>
+  </si>
+  <si>
+    <t>EDCS-10101980</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>Prud</t>
+  </si>
+  <si>
+    <t>SanaderTončinić2013p.414</t>
+  </si>
+  <si>
+    <t>milestone</t>
+  </si>
+  <si>
+    <t>Imp(erator) T(itus) / Caesa[r Aug(usti) f(ilius)] / a Til[urio] / Sco[dram] / LX[VIII]</t>
+  </si>
+  <si>
+    <t>B37</t>
+  </si>
+  <si>
+    <t>17-04, 00342</t>
+  </si>
+  <si>
+    <t>03, 2982</t>
+  </si>
+  <si>
+    <t>EDCS-10101988</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imotski </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runovići </t>
+  </si>
+  <si>
+    <t>Impp(eratoribus) dd(ominis) nn(ostris) P(ublio) [Lic(inio)] / Valeriano et P(ublio) [Lic(inio)] / Gallieno Piis [Fe]/licibus Augg(ustis) [pp(ontificibus)] / mm(aximis) tri(bunicia) pot(estate) / a Tilur(io) m(ilia) p(assuum) / [</t>
+  </si>
+  <si>
+    <t>B38</t>
+  </si>
+  <si>
+    <t>03, 03202 (p 1651)%</t>
+  </si>
+  <si>
+    <t>CIL 17-04, 00323a = D 00393; EDCS-28600193; SanaderTončinić2013</t>
+  </si>
+  <si>
+    <t>Cetina River</t>
+  </si>
+  <si>
+    <t>Imp(erator) Caes(ar) / M(arcus) Aurelius / [[Commodus]] / Antoninus / Aug(ustus) Pius Sarm(aticus) / Germ(anicus) maximus / Brittannicus / pont(ifex) max(imus) trib(unicia) / pot(estate) VIIII imp(erator) VI / co(n)s(ul) IIII p(ater) p(atriae) / pontem Hippi flumi/nis vetustate cor/ruptum restituit / sumptum et operas / subministrantibus / Novensibus Delmi/nensibus Riditis cu/rante et dedicante / L(ucio) Iunio Rufino Procu/liano leg(ato) pr(o) pr(aetore)</t>
+  </si>
+  <si>
+    <t>Evidence for bridge construction near Tilurium, some finds also relaed to bridges were nearby - SanaderTončinić2013</t>
+  </si>
+  <si>
+    <t>B39</t>
+  </si>
+  <si>
+    <t>03, 14514</t>
+  </si>
+  <si>
+    <t>AE 1901, 0127(B); AE 1902, 0025; IMS 2, 101; SanaderTončinić2013</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>MoesiaS</t>
+  </si>
+  <si>
+    <t>Viminacium</t>
+  </si>
+  <si>
+    <t>Gradac</t>
+  </si>
+  <si>
+    <t>primus pilus; praefectus castorum</t>
+  </si>
+  <si>
+    <t>L(ucius) Oppius T(iti) f(ilius) / Cla(udia) Secun/dus Varvar(ia) / p(rimus) p(ilus) leg(ionis) VII C(laudiae) / praef(ectus) k(astrorum) le[g(ionis)] / VII C(laudiae) p(iae) f(idelis)</t>
+  </si>
+  <si>
+    <t>LegioVII member from Bribir, after move to Vimanicium</t>
+  </si>
+  <si>
+    <t>B40</t>
+  </si>
+  <si>
+    <t>AE 2000, 01174; Paškvalin1985</t>
   </si>
   <si>
     <t>S6</t>
   </si>
   <si>
-    <t>eques</t>
-  </si>
-  <si>
-    <t>Hofmann1905</t>
-  </si>
-  <si>
-    <t>lost</t>
-  </si>
-  <si>
-    <t>Betz</t>
-  </si>
-  <si>
-    <t>ILJug</t>
-  </si>
-  <si>
-    <t>1 i 84</t>
-  </si>
-  <si>
-    <t>D 02252; EDCS-28300035; Hofmann1905, pp. 54-55, no. 42.</t>
-  </si>
-  <si>
-    <t>Hofmann1905, pp. 49-49, no. 37; EDCS-28600125</t>
-  </si>
-  <si>
-    <t>03, 02908</t>
-  </si>
-  <si>
-    <t>03, 02733</t>
-  </si>
-  <si>
-    <t>03, 03198a</t>
-  </si>
-  <si>
-    <t>03, 02709</t>
-  </si>
-  <si>
-    <t>03, 3162a</t>
-  </si>
-  <si>
-    <t>03, 08723</t>
-  </si>
-  <si>
-    <t>BD-VAHD_11-1888</t>
-  </si>
-  <si>
-    <t>BD-VAHD_37-1914</t>
-  </si>
-  <si>
-    <t>Fadić1995</t>
-  </si>
-  <si>
-    <t>03, 02913</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>NthNecropolis</t>
-  </si>
-  <si>
-    <t>EastNecropolis</t>
-  </si>
-  <si>
-    <t>Sanader2000</t>
-  </si>
-  <si>
-    <t>frater fratri posuit</t>
-  </si>
-  <si>
-    <t>L(ucijus) Ancharenus Q(uinti) f(ilius)/ Ser(gia triba) (domo) Laranda mil(es)/ leg(ionis) VII(septima) ann(orum) XL(quadraginta) stip(endiorum) XXI(vigintiunorum)/ h(ic) s(itus) e(st)5 Q(uintus) Ancharenus haec tan[...?]/ posuit tibi dona frater quia/ longe a patria te cecidisse dolet/ optaram vivo potius dare vi[na]/ [...]non obito care ferenda/ 10 tuo si quicquam sentire potes/ [..]mpore nostro damus haec/ [...] sit tibi terra levis frater/ fratri posuit.</t>
-  </si>
-  <si>
-    <t>Filippi-house</t>
-  </si>
-  <si>
-    <t>Arheološki muzej u Zadru</t>
-  </si>
-  <si>
-    <t>BD-VAHD_1-1878</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>03, 09733</t>
-  </si>
-  <si>
-    <t>BD-VAHD_1-1878-no.24</t>
-  </si>
-  <si>
-    <t>frater fratri</t>
-  </si>
-  <si>
-    <t>Arheološki muzej u Splitu</t>
-  </si>
-  <si>
-    <t>Q(uintus) Baebius Q(uinti) f(ilius) Serg(ia) Conan(is) / miles leg(ionis) VII ann(orum) XXXXV / stip(endiorum) XX h(ic) s(itus) e(st) / quamvis lasse viator rogo ne graveris et / tumulum contempla meum lege et moraris iam / aliquid resciveris dum vixi hilaris iucundus amicis / nunc to[rpen]s iaceo hic o[ssa req]u[ies]cunt mea natus / sum Canonis conditu(s) in Illurico (!) vale et bene / facito vitae dum fatum venit / frater fratri</t>
-  </si>
-  <si>
-    <t>03, 08735</t>
-  </si>
-  <si>
-    <t>imaginifer</t>
-  </si>
-  <si>
-    <t>BD-VAHD_5-1882-no.11</t>
-  </si>
-  <si>
-    <t>C(aius) Bitt[ius- - -]/ Tro(mentina) Gem[ellus()] / imagini[fer] / leg(ionis) VII Cl(audiae) [P(iae) F(idelis)] / t(estamento) f(ieri) [i(ussit)]</t>
-  </si>
-  <si>
-    <t>doors</t>
-  </si>
-  <si>
-    <t>Hofmann1905, pp.57, no.46</t>
-  </si>
-  <si>
-    <t>L(ucius) Caesius L(uci) f(ilius) / Cam(ilia) Bassus / domo Pisauri / vet(eranus) leg(ionis) VII C(laudiae) P(iae) F(idelis) / an(norum) LIII stip(endiorum) XXXIII / h(ic) s(itus) e(st) t(estamento) f(ieri) i(ussit) h(eres) p(osuit) / in f(ronte) p(edes) VI in a(gro) p(edes) X</t>
-  </si>
-  <si>
-    <t>03, 08487</t>
-  </si>
-  <si>
-    <t>03, 02014</t>
-  </si>
-  <si>
-    <t>L(ucius) Domitius L(uci) f(ilius) A&lt;n=II&gt;(iensi) / Aquila vet(eranus) leg(ionis) VII / domo Myliada(!) / stip(endiorum) XXXIII vi(vus) fe[c(it)] sib(i) / et C(aio) Domitio [L(uci) f(ilio)] A[n(iensi)] / [A]qui[l]ino mil(iti) [le]g(ionis) V[II] / stip(endiorum) XX h(onesta) m(issione) [m(isso) ---] / [------] / [------] / [---]A[---] / [---]V[---] fecit</t>
-  </si>
-  <si>
-    <t>Bigeste-Ljubuški</t>
-  </si>
-  <si>
-    <t>Filovača</t>
-  </si>
-  <si>
-    <t>52-53</t>
-  </si>
-  <si>
-    <t>Hoernes1880-Bulić1885</t>
-  </si>
-  <si>
-    <t>Hofman1905, pp.56, no.45</t>
-  </si>
-  <si>
-    <t>Gardun_house</t>
-  </si>
-  <si>
-    <t>03, 02710-09726</t>
-  </si>
-  <si>
-    <t>Cn(aeus) Domiti/us Cn(aei) f(ilius) Vel(ina) / Pessinunte / an(norum) XLIV stip(endiorum) / XXV veteran(us) / ex leg(ione) VII h(ic) s(itus) e(st) / testamento / fieri iussit</t>
-  </si>
-  <si>
-    <t>03, 02914</t>
-  </si>
-  <si>
-    <t>Church of st Michael</t>
-  </si>
-  <si>
-    <t>T(ito) Elvio Sca(ptia) Marino / IIIIvir(o) Altini / T(itus) Elvius T(iti) f(ilius) Salinator / |(centurio) leg(ionis) VII patri / in fronte p(edes) XXX in agro p(edes) XXX / h(oc) m(onumentum) h(eredem) n(on) s(equetur)</t>
-  </si>
-  <si>
-    <t>B23</t>
-  </si>
-  <si>
-    <t>B24</t>
-  </si>
-  <si>
-    <t>B25</t>
-  </si>
-  <si>
-    <t>B26</t>
-  </si>
-  <si>
-    <t>B27</t>
-  </si>
-  <si>
-    <t>B28</t>
-  </si>
-  <si>
-    <t>B29</t>
-  </si>
-  <si>
-    <t>B30</t>
-  </si>
-  <si>
-    <t>B31</t>
-  </si>
-  <si>
-    <t>B32</t>
-  </si>
-  <si>
-    <t>B33</t>
-  </si>
-  <si>
-    <t>B34</t>
-  </si>
-  <si>
-    <t>B35</t>
-  </si>
-  <si>
-    <t>B36</t>
-  </si>
-  <si>
-    <t>B37</t>
-  </si>
-  <si>
-    <t>B38</t>
-  </si>
-  <si>
-    <t>B39</t>
-  </si>
-  <si>
-    <t>B40</t>
+    <t>Hardomilje</t>
+  </si>
+  <si>
+    <t>1927 - Unsure</t>
+  </si>
+  <si>
+    <t>C(aius) Licinius C(ai) f(ilius) / Fab(ia) dom(o) Sinope / vete(ranus) leg(ionis) VII an(norum) L / stip(endiorum) XXVII / h(ic) s(itus) e(st) / heredes posuer(unt)</t>
+  </si>
+  <si>
+    <t>Museum of Fransiscan monestary at Humac</t>
   </si>
   <si>
     <t>B41</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>Bulić1903</t>
-  </si>
-  <si>
-    <t>BD-VAHD_26-1903, p.130,no.3321č Hofmann1905,p.87</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>03, 02022</t>
-  </si>
-  <si>
-    <t>Betz1938</t>
-  </si>
-  <si>
-    <t>L(ucius) Fabius L(uci) f(ilius) Satur/ninus vet(eranus) leg(ionis) VII C(laudiae) P(iae) F(idelis) / v(ivus) f(ecit) sibi et Claudiae Ti(beri) / Claudi Alypi l(iberti) Caesaris / libertae Euche h(ic) s(iti) s(unt) / loc(um) don(avit) C(aius) Titius / Restitutus amicus / h(oc) m(onumentum) h(eredem) n(on) s(equetur)</t>
-  </si>
-  <si>
-    <t>03, 01813</t>
-  </si>
-  <si>
-    <t>Marin.et.al.1999,no.32</t>
-  </si>
-  <si>
-    <t>S7</t>
-  </si>
-  <si>
-    <t>Vid - Secondary Use</t>
-  </si>
-  <si>
-    <t>Narona</t>
-  </si>
-  <si>
-    <t>Vid-Metković</t>
-  </si>
-  <si>
-    <t>M(arcus) Heredius M(arci) f(ilius) Pal(atina) / veteranus leg(ionis) VII / h(ic) s(itus) est fecit / Faustus l(ibertus)</t>
-  </si>
-  <si>
-    <t>03, 06364-08488</t>
-  </si>
-  <si>
-    <t>BD-VAHD_6-1883,p.82,no.31</t>
-  </si>
-  <si>
-    <t>National BH musej</t>
-  </si>
-  <si>
-    <t>Alačević1883no.31</t>
-  </si>
-  <si>
-    <t>L(ucius) Herenni/us L(uci) f(ilius) Pap(iria) / Muliade / vet(eranus) leg(ionis) VII / an(norum) LX sti(pendiorum) / XXX h(ic) s(itus) e(st)</t>
-  </si>
-  <si>
-    <t>03, 02033</t>
-  </si>
-  <si>
-    <t>Q(uinto) Hortensio / Q(uinti) f(ilio) vet(erano) leg(ionis) / VII h(ic) s(itus) e(st) / Hortensia / Q(uinti) f(ilia) Quarta et / L(ucius) Corellius I[u]c/undus patri posuere</t>
-  </si>
-  <si>
-    <t>03, 07386</t>
-  </si>
-  <si>
-    <t>EDCS-28500234; IK-19, 00043</t>
-  </si>
-  <si>
-    <t>S8</t>
-  </si>
-  <si>
-    <t>Thracia</t>
-  </si>
-  <si>
-    <t>Lysimachia</t>
-  </si>
-  <si>
-    <t>Leg(io) VII Maced(onica) / |(centuria) M(arci) Caecili / c(o)ho(rs) X</t>
-  </si>
-  <si>
-    <t>BD-VAHD_37-1914,p.65no.4656A</t>
-  </si>
-  <si>
-    <t>ascribed to Legio VII because of location and eastern origin by Betz and Wilkes</t>
-  </si>
-  <si>
-    <t>Vojnić</t>
-  </si>
-  <si>
-    <t>BD-VAHD_31-1908,p.79no.3959A</t>
-  </si>
-  <si>
-    <t>Bulić1908</t>
-  </si>
-  <si>
-    <t>Cambi1994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Found as part of a 4th cent. LA tomb </t>
-  </si>
-  <si>
-    <t>S9</t>
-  </si>
-  <si>
-    <t>Dugopolje</t>
-  </si>
-  <si>
-    <t>03, 02714-09736</t>
-  </si>
-  <si>
-    <t>BD-1-1878</t>
-  </si>
-  <si>
-    <t>C(aius) Iulius C(ai) f(ilius) / V(o)ltinia Clistin/na mil(es) leg(ionis) VII / ann(orum) XL stip(endiorum) XIIX / h(ic) s(itus) e(st)</t>
-  </si>
-  <si>
-    <t>03, 02885</t>
-  </si>
-  <si>
-    <t>Near Iader</t>
-  </si>
-  <si>
-    <t>S10</t>
-  </si>
-  <si>
-    <t>Karin-Corinium</t>
-  </si>
-  <si>
-    <t>C(aio) Iulio C(ai) f(ilio) / [Se]r(gia) [Agr]ippae / [3] leg(ionis) VII (!) P(iae) F(idelis) / |(centuria) Agrip[p]ae p(---) / Avita mari/to Agrippi[na] / patri</t>
-  </si>
-  <si>
-    <t>Košute</t>
-  </si>
-  <si>
-    <t>03, 02715</t>
-  </si>
-  <si>
-    <t>Fadić1994no.4</t>
-  </si>
-  <si>
-    <t>M(arcus) Iulius M(arci) f(ilius) / Trernahensis / miles leg(ionis) VII C(laudiae) P(iae) F(idelis) / an(norum) XXXXV stip(endiorum) XX / M(arcus) A[rr]untius frater [et] / [he]r[es] po[s]uit / h(ic) s(itus) e(st)</t>
-  </si>
-  <si>
-    <t>03, 13976</t>
-  </si>
-  <si>
-    <t>Bulić1894</t>
-  </si>
-  <si>
-    <t>Fragmentary, no explicit mention of Legio VII extant, but CPF and location + probably Legio VII. Has been used secondarily</t>
-  </si>
-  <si>
-    <t>Sex(tus) Clodius / C(ai) f(ilius) Pub(lilia) Verona / mil(es) l[eg(ionis)</t>
-  </si>
-  <si>
-    <t>BD-VAHD_17-1894,p.4no.2; Patsch1897no.10; AE2007-01104</t>
-  </si>
-  <si>
-    <t>BD-VAHD_11-1888,p.99no.55</t>
-  </si>
-  <si>
-    <t>Gardun</t>
-  </si>
-  <si>
-    <t>Bulić1888</t>
-  </si>
-  <si>
-    <t>03, 09734</t>
-  </si>
-  <si>
-    <t>L(ucius) Cornelius L(uci) f(ilius) / Fab(ia) Heraclea / mil(es) leg(ionis) VII ann(orum) / XXXIII stip(endiorum) XII t(estamento) f(ieri) i(ussit) / Secundus h(eres) p(osuit) / h(ic) s(itus) e(st)</t>
-  </si>
-  <si>
-    <t>03, 02019</t>
-  </si>
-  <si>
-    <t>C(aius) Curiatius T(iti) f(ilius) Serg(ia) / Secundus dom(o) Augusta / Troade vet(eranus) leg(ionis) VII C(laudiae) P(iae) F(idelis) / scrib[a] Salonis annor(um) LXV h(ic) s(itus) e(st) / [in fr(onte) p(edes) --- in agr(o)] p(edes) XX</t>
-  </si>
-  <si>
-    <t>T(itus) Curtiacus / T(iti) f(ilius) Lem(onia) Bon(onia) / vet(eranus) leg(ionis) VII C(laudiae) P(iae) F(idelis) / h(ic) s(itus) e(st) t(estamento) f(ieri) i(ussit)</t>
-  </si>
-  <si>
-    <t>03, 14931</t>
-  </si>
-  <si>
-    <t>S11</t>
-  </si>
-  <si>
-    <t>Dicmo</t>
-  </si>
-  <si>
-    <t>Bulić1897</t>
-  </si>
-  <si>
-    <t>C(aius) Lartinius / C(ai) f(ilius) Pol(lia) domo / Foro Corneli / miles leg(ionis) VII / ann(orum) XXXIV / stip(endiorum) XVI h(ic) s(itus) e(st) / heredes posuer(unt)</t>
-  </si>
-  <si>
-    <t>BD-VAHD_20-1897,p.130no.2368č AE1897</t>
-  </si>
-  <si>
-    <t>Near Tilurium</t>
-  </si>
-  <si>
-    <t>Near Tilurium and Solin</t>
-  </si>
-  <si>
-    <t>03, 01814</t>
-  </si>
-  <si>
-    <t>P(ublius) Lastus A(uli) f(ilius) Scaeva / domo Florentia / eques vet(eranus) leg(ionis) VII C(laudiae) P(iae) F(idelis) / annor(um) LX stip(endiorum) XXX et Lastae / P(ubli) l(ibertae) Apiculae P(ublio) Lasto Felici / P(ublio) Lasto Diodoro lib(erto) t(estamento) f(ieri) i(ussit)</t>
-  </si>
-  <si>
-    <t>Salona</t>
-  </si>
-  <si>
-    <t>17-04, 00363</t>
-  </si>
-  <si>
-    <t>17-04, 00342</t>
-  </si>
-  <si>
-    <t>EDCS-10101988</t>
-  </si>
-  <si>
-    <t>Prud</t>
-  </si>
-  <si>
-    <t>S12</t>
-  </si>
-  <si>
-    <t>S13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Runovići </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imotski </t>
-  </si>
-  <si>
-    <t>SanaderTončinić2013p.414</t>
-  </si>
-  <si>
-    <t>milestone</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Impp(eratoribus) dd(ominis) nn(ostris) P(ublio) [Lic(inio)] / Valeriano et P(ublio) [Lic(inio)] / Gallieno Piis [Fe]/licibus Augg(ustis) [pp(ontificibus)] / mm(aximis) tri(bunicia) pot(estate) / a Tilur(io) m(ilia) p(assuum) / [</t>
-  </si>
-  <si>
-    <t>01, 146</t>
-  </si>
-  <si>
-    <t>EDCS-10101980</t>
-  </si>
-  <si>
-    <t>Imp(erator) T(itus) / Caesa[r Aug(usti) f(ilius)] / a Til[urio] / Sco[dram] / LX[VIII]</t>
-  </si>
-  <si>
-    <t>Shows Legio VII vexilations working on demarcations/splitting up of the land in the hinterland of Dal. - e.g., peacetime activities</t>
-  </si>
-  <si>
-    <t>boundarystone</t>
-  </si>
-  <si>
-    <t>01, 262</t>
-  </si>
-  <si>
-    <t>03, 2974</t>
-  </si>
-  <si>
-    <t>03, 2982</t>
-  </si>
-  <si>
-    <t>03, 03202 (p 1651)%</t>
-  </si>
-  <si>
-    <t>CIL 17-04, 00323a = D 00393; EDCS-28600193; SanaderTončinić2013</t>
-  </si>
-  <si>
-    <t>SanaderTončinić2013; EDCS-54900234; CIL 03, 03200 = CIL 03, 10156 = CIL 03, 10158 = CIL 17-04, p 130 = D 02478 = D 05829 = ILJug-01, 00262 = Legio-VII 00091 = AE 1961, 00304 = AE 2006, +01004</t>
-  </si>
-  <si>
-    <t>Imp(erator) Caes(ar) / M(arcus) Aurelius / [[Commodus]] / Antoninus / Aug(ustus) Pius Sarm(aticus) / Germ(anicus) maximus / Brittannicus / pont(ifex) max(imus) trib(unicia) / pot(estate) VIIII imp(erator) VI / co(n)s(ul) IIII p(ater) p(atriae) / pontem Hippi flumi/nis vetustate cor/ruptum restituit / sumptum et operas / subministrantibus / Novensibus Delmi/nensibus Riditis cu/rante et dedicante / L(ucio) Iunio Rufino Procu/liano leg(ato) pr(o) pr(aetore)</t>
-  </si>
-  <si>
-    <t>buildinginscription</t>
-  </si>
-  <si>
-    <t>Cetina River</t>
-  </si>
-  <si>
-    <t>Evidence for bridge construction near Tilurium, some finds also relaed to bridges were nearby - SanaderTončinić2013</t>
-  </si>
-  <si>
-    <t>L(ucius) Oppius T(iti) f(ilius) / Cla(udia) Secun/dus Varvar(ia) / p(rimus) p(ilus) leg(ionis) VII C(laudiae) / praef(ectus) k(astrorum) le[g(ionis)] / VII C(laudiae) p(iae) f(idelis)</t>
-  </si>
-  <si>
-    <t>primus pilus; praefectus castorum</t>
-  </si>
-  <si>
-    <t>Viminacium</t>
-  </si>
-  <si>
-    <t>Gradac</t>
-  </si>
-  <si>
-    <t>S14</t>
-  </si>
-  <si>
-    <t>03, 14514</t>
-  </si>
-  <si>
-    <t>AE 1901, 0127(B); AE 1902, 0025; IMS 2, 101; SanaderTončinić2013</t>
-  </si>
-  <si>
-    <t>LegioVII member from Bribir, after move to Vimanicium</t>
-  </si>
-  <si>
-    <t>MoesiaS</t>
-  </si>
-  <si>
-    <t>11, 00021 (p 1227) = 03, 14244,1</t>
+    <t>Patsch1912; 1914; Dodig 2005</t>
+  </si>
+  <si>
+    <t>Patsch1912</t>
+  </si>
+  <si>
+    <t>M(arcus) Livius M(arci) / f(ilius) Pal(atina) dom(o) / Aloro ve/teranus / leg(ionis) VII an(norum) / L stip(endiorum) XXVI / h(ic) s(itus) e(st) t(estamento) f(ieri) i(ussit)</t>
   </si>
   <si>
     <t>B42</t>
   </si>
   <si>
+    <t>Maršić1997pp.112-113no.9; AE 1996, 01215; Maršić, Matijević2000no.17</t>
+  </si>
+  <si>
+    <t>Maršić1997</t>
+  </si>
+  <si>
+    <t>C(aius) Lollius C(ai) f(ilius) Pap(iria) Valens / veter(anus) leg(ionis) VII C(laudiae) P(iae) F(idelis) v(ivus) f(ecit) / sibi et Hostiliae P(ubli) f(iliae) Secu[ndae] / coniugi sanctissi[mae]</t>
+  </si>
+  <si>
+    <t>Marko Matijević Archaeological collection in Solin</t>
+  </si>
+  <si>
+    <t>Found in 1996 in construction work in Marka Marulića st.</t>
+  </si>
+  <si>
     <t>B43</t>
   </si>
   <si>
+    <t>03, 09737</t>
+  </si>
+  <si>
+    <t>BD-VAHD_1-1878-p.18; Hofmann1905no.45</t>
+  </si>
+  <si>
+    <t>C(aius) Longinus C(ai) f(ilius) / Cor(nelia) Amblada / mil(es) leg(ionis) VII an(norum) XL / stip(endiorum) XXI h(ic) s(itus) e(st) / frater fratri</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>Bust is fragentary-split</t>
+  </si>
+  <si>
     <t>B44</t>
   </si>
   <si>
+    <t>03, 02040</t>
+  </si>
+  <si>
+    <t>Maršić2010pp.65-67; AE 2010, +01166</t>
+  </si>
+  <si>
+    <t>signifer</t>
+  </si>
+  <si>
+    <t>frater</t>
+  </si>
+  <si>
+    <t>C(aius) Lucretius / signif(er) leg(ionis) VII / C(laudiae) P(iae) F(idelis) dom(o) Verona / an(norum) XLV stip(endiorum) XXVI / de suo peculio f(aciendum) i(ussit) sibi / et Primo suo curam / egerunt frater et / Chrestus lib(ertus) / in fr(onte) p(edes) X in agr(o) p(edes) XX</t>
+  </si>
+  <si>
+    <t>Bust is split in half(or even thirds) onlz right-most piece survives. CPF is reconstructed off of the drawings in the CIL and Maršić</t>
+  </si>
+  <si>
     <t>B45</t>
   </si>
   <si>
+    <t>03, 02041</t>
+  </si>
+  <si>
+    <t>Wilkes1966p.461</t>
+  </si>
+  <si>
+    <t>C(aius) Lucretius / vet(eranus) leg(ionis) VII C(laudiae) P(iae) F(idelis) / domo Verona v(ivus) f(ecit) / sibi et Provinciali f(ilio) et / Firmillae et Tyche lib(ertabus) / suisque omnibus / in fr(onte) p(edes) X in agr(o) p(edes) XX</t>
+  </si>
+  <si>
+    <t>Betz claims it is from same findspot(grave) as B44</t>
+  </si>
+  <si>
     <t>B46</t>
   </si>
   <si>
+    <t>03, 09939</t>
+  </si>
+  <si>
+    <t>BD-VAHD_13-1890,p.5no.3</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>Asseria</t>
+  </si>
+  <si>
+    <t>Podgrađe</t>
+  </si>
+  <si>
+    <t>Glavinić1890a(VAHD)</t>
+  </si>
+  <si>
+    <t>Pre1890</t>
+  </si>
+  <si>
+    <t>Q(uintus) Magius / C(ai) f(ilius) Publ(ilia) dom(o) / Verona vetera(nus) / leg(ionis) VII annoru(m) / L stipend(iorum) XXV / t(estamento) f(ieri) i(ussit) h(ic) [s(itus)] e(st)</t>
+  </si>
+  <si>
     <t>B47</t>
   </si>
   <si>
+    <t>BD-VAHD_26-1903, p.193no.3150; AE 1904, 00172</t>
+  </si>
+  <si>
+    <t>C(aius) Manticus / C(ai) f(ilius) Scap(tia) mil(es) / leg(ionis) VII C(laudiae) P(iae) F(idelis) / stip(endiorum) XXIIII / C(aius) Avinnius / [Post]umius / [3]s / [</t>
+  </si>
+  <si>
     <t>B48</t>
   </si>
   <si>
+    <t>03, 14932 = 09737</t>
+  </si>
+  <si>
+    <t>BD-VAHD_23-p.7no.2459; AE 1900, 0046</t>
+  </si>
+  <si>
+    <t>Bulić1900(VAHD)</t>
+  </si>
+  <si>
+    <t>Q(uintus) Marcius / Q(uinti) f(ilius) Cor(nelia) Bassus / dom(o) Benevento / [m]il(es) leg(ionis) VII an(norum) / [3] stip(endiorum) XVII / [h(ic) s(itus)] e(st) t(estamento) f(ieri) i(ussit) / [ex arb]itratu / [M]aximi</t>
+  </si>
+  <si>
+    <t>Rb</t>
+  </si>
+  <si>
     <t>B49</t>
   </si>
   <si>
+    <t>Truhelka1893p.673; Bojanovski1985no.3; Dodig2003no.4; Dodig2005a,no.10; Dodig2005b,pl.1</t>
+  </si>
+  <si>
+    <t>Veljaci</t>
+  </si>
+  <si>
+    <t>Truhelka1893</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>L(ucius) Marcilius / C(ai) [f(ilius) do]mo Pe/[ssin(unte?) 3 leg(ionis) V]II / C[l(audiae) P(iae) F(idelis) 3] / [6] / C(aius) M[arcilius(?)</t>
+  </si>
+  <si>
+    <t>Chapel of st. Elias</t>
+  </si>
+  <si>
+    <t>Definitely Legio VII, but unsure about CPF or not. Dodig 2003 thinks CPF, but no other stelae from region is CPF.</t>
+  </si>
+  <si>
     <t>B50</t>
   </si>
   <si>
+    <t>Cambi1991; AE 1991, 01291; Miletić 1992</t>
+  </si>
+  <si>
+    <t>Porta Andetria (EastNecropolis OG?)</t>
+  </si>
+  <si>
+    <t>Cambi1986</t>
+  </si>
+  <si>
+    <t>Q(uintus) Mettius Q(uinti) f(ilius) / Volt(inia) Valens / mil(es) leg(ionis) VII C(laudiae) P(iae) F(idelis) / an(norum) XXXVIII stip(endiorum) XIIX / t(estamento) f(ieri) i(ussit)</t>
+  </si>
+  <si>
     <t>B51</t>
   </si>
   <si>
+    <t>Fadić1995; Fadić1997no.8; AE 1995, 01232</t>
+  </si>
+  <si>
+    <t>L(ucius) Mummius L(uci) / f(ilius) Fab(ia) Ancyra / miles leg(ionis) VII / ann(orum) XXXVI / stipend(iorum) XVI / h(ic) s(itus) e(st) // Arma bis octonis felicia qui tulit annis / hic situs est fato Mummius ipse suo / si sapiunt obiti data munera percipis am(pla) / et recipis nostrae pignus amicitiae / hoc tibi cum titulo posuit / Cornelius Chrestus / et dixit lachrymans sit tibi ter(r)a levis // M(arcus) Cornelius M(arci) l(ibertus) / Chrestus posuit</t>
+  </si>
+  <si>
     <t>B52</t>
   </si>
   <si>
+    <t>03, 09738 = 08781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BD-VAHD_1-1878p.19no.23; 1903p.134no.3244 </t>
+  </si>
+  <si>
+    <t>BD_VAHD-1-1878</t>
+  </si>
+  <si>
+    <t>Q(uintus) Murrius / Q(uinti) f(ilius) Ser(gia) Augusta / mil(es) leg(ionis) [3 an]n(orum) XXXV / stip(endiorum) VI[3 h(ic) s(itus)] e(st)</t>
+  </si>
+  <si>
+    <t>No mention of VII, but assigned on acount of findsite. Made upnof three frgaments</t>
+  </si>
+  <si>
     <t>B53</t>
   </si>
   <si>
+    <t>03, 14946</t>
+  </si>
+  <si>
+    <t>BD-VAHD_23-1900p.118 (sketch in here); AE 1900, 0139</t>
+  </si>
+  <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>Glavice</t>
+  </si>
+  <si>
+    <t>Near Sinj</t>
+  </si>
+  <si>
+    <t>BD-VAHD:23-1900</t>
+  </si>
+  <si>
+    <t>C(aius) Octavius / C(ai) f(ilius) Fabia Vital[i]s / domo Brixiae / vet(eranus) leg(ionis) VII C(laudiae) P(iae) F(idelis) / h(ic) s(itus) e(st) / testamento f(ieri) i(ussit) / arbitratu Octavi/ae Secundaes(!) lib(ertae) / suae</t>
+  </si>
+  <si>
+    <t>Fransiscan monastery collection in Sinj</t>
+  </si>
+  <si>
+    <t>5km from Ćitluk; now fragmentary, but Bulić saw full inscription.</t>
+  </si>
+  <si>
     <t>B54</t>
   </si>
   <si>
+    <t>03, 1916</t>
+  </si>
+  <si>
+    <t>EDCS-10100861; Atanacković-Salčić1981no.4; Dodig2005a,no.5</t>
+  </si>
+  <si>
+    <t>Hardomilje (then Humac)</t>
+  </si>
+  <si>
+    <t>Q(uintus) Pius L(uci) [f(ilius)] / Ser(gia) Signinus do/mo Con(s)tan(ti)a vet(eranus) / leg(ionis) VII annor(um) LXXI / h(ic) s(itus) e(st)</t>
+  </si>
+  <si>
     <t>B55</t>
   </si>
   <si>
+    <t>03, 02716</t>
+  </si>
+  <si>
+    <t>Hofmann1905pp.59-60no.47; Fadić1997p.81</t>
+  </si>
+  <si>
+    <t>Q(uintus) Oppius Q(uinti) f(ilius) / Pol(lia) Foro Corne(lii) / signifer leg(ionis) VII / ann(orum) XXX stip(endiorum) VIII / h(ic) s(itus) e(st) heres pos(ui)t</t>
+  </si>
+  <si>
+    <t>weapons</t>
+  </si>
+  <si>
     <t>B56</t>
   </si>
   <si>
+    <t>BD-VAHD_17-1894p.5no.3(1984)</t>
+  </si>
+  <si>
+    <t>BD-VAHD_17-1894</t>
+  </si>
+  <si>
+    <t>C(aius) Parp[---] Fab(ia) / [-]ARE[--]C[-]X / annorum XLV / stipendior(um) XVI / N[---</t>
+  </si>
+  <si>
+    <t>No explicit mention of Legio VII, but it was at tilurium, and the individual is possibly from the same tribe as B31, and it is military</t>
+  </si>
+  <si>
     <t>B57</t>
   </si>
   <si>
+    <t>03, 14933</t>
+  </si>
+  <si>
+    <t>BD-VAHD_1(1878)p.19no.27; Hofmann1905p.50no.38; Wilkes1969p.462; Fadić1997no.19</t>
+  </si>
+  <si>
+    <t>Trilj</t>
+  </si>
+  <si>
+    <t>M(arcus) Percenni[us---] / Voltinia Ph[ilippis] / [--- l]eg(ionis) [</t>
+  </si>
+  <si>
+    <t>portrait_equestrian</t>
+  </si>
+  <si>
+    <t>Not explicitally Legio VII, but ascribed to it by Hofmann, Betz, Wilkes and Fadić on account of find site, and of reconstructed voting tribe location at Phillipi</t>
+  </si>
+  <si>
     <t>B58</t>
   </si>
   <si>
-    <t>Hardomilje</t>
-  </si>
-  <si>
-    <t>C(aius) Licinius C(ai) f(ilius) / Fab(ia) dom(o) Sinope / vete(ranus) leg(ionis) VII an(norum) L / stip(endiorum) XXVII / h(ic) s(itus) e(st) / heredes posuer(unt)</t>
-  </si>
-  <si>
-    <t>M(arcus) Livius M(arci) / f(ilius) Pal(atina) dom(o) / Aloro ve/teranus / leg(ionis) VII an(norum) / L stip(endiorum) XXVI / h(ic) s(itus) e(st) t(estamento) f(ieri) i(ussit)</t>
-  </si>
-  <si>
-    <t>AE 2000, 01174; Paškvalin1985</t>
-  </si>
-  <si>
-    <t>Patsch1912</t>
-  </si>
-  <si>
-    <t>Patsch1912; 1914; Dodig 2005</t>
-  </si>
-  <si>
-    <t>Maršić1997</t>
-  </si>
-  <si>
-    <t>Marko Matijević Archaeological collection in Solin</t>
-  </si>
-  <si>
-    <t>Found in 1996 in construction work in Marka Marulića st.</t>
-  </si>
-  <si>
-    <t>C(aius) Lollius C(ai) f(ilius) Pap(iria) Valens / veter(anus) leg(ionis) VII C(laudiae) P(iae) F(idelis) v(ivus) f(ecit) / sibi et Hostiliae P(ubli) f(iliae) Secu[ndae] / coniugi sanctissi[mae]</t>
-  </si>
-  <si>
-    <t>Maršić1997pp.112-113no.9; AE 1996, 01215; Maršić, Matijević2000no.17</t>
-  </si>
-  <si>
-    <t>C(aius) Longinus C(ai) f(ilius) / Cor(nelia) Amblada / mil(es) leg(ionis) VII an(norum) XL / stip(endiorum) XXI h(ic) s(itus) e(st) / frater fratri</t>
-  </si>
-  <si>
-    <t>Bust is fragentary-split</t>
-  </si>
-  <si>
-    <t>03, 09737</t>
-  </si>
-  <si>
-    <t>BD-VAHD_1-1878-p.18; Hofmann1905no.45</t>
-  </si>
-  <si>
-    <t>03, 02040</t>
-  </si>
-  <si>
-    <t>signifer</t>
-  </si>
-  <si>
-    <t>frater</t>
-  </si>
-  <si>
-    <t>C(aius) Lucretius / signif(er) leg(ionis) VII / C(laudiae) P(iae) F(idelis) dom(o) Verona / an(norum) XLV stip(endiorum) XXVI / de suo peculio f(aciendum) i(ussit) sibi / et Primo suo curam / egerunt frater et / Chrestus lib(ertus) / in fr(onte) p(edes) X in agr(o) p(edes) XX</t>
-  </si>
-  <si>
-    <t>Maršić2010pp.65-67; AE 2010, +01166</t>
-  </si>
-  <si>
-    <t>Bust is split in half(or even thirds) onlz right-most piece survives. CPF is reconstructed off of the drawings in the CIL and Maršić</t>
-  </si>
-  <si>
-    <t>03, 02041</t>
-  </si>
-  <si>
-    <t>Wilkes1966p.461</t>
-  </si>
-  <si>
-    <t>C(aius) Lucretius / vet(eranus) leg(ionis) VII C(laudiae) P(iae) F(idelis) / domo Verona v(ivus) f(ecit) / sibi et Provinciali f(ilio) et / Firmillae et Tyche lib(ertabus) / suisque omnibus / in fr(onte) p(edes) X in agr(o) p(edes) XX</t>
-  </si>
-  <si>
-    <t>Betz claims it is from same findspot(grave) as B44</t>
-  </si>
-  <si>
-    <t>03, 09939</t>
-  </si>
-  <si>
-    <t>BD-VAHD_13-1890,p.5no.3</t>
-  </si>
-  <si>
-    <t>Asseria</t>
-  </si>
-  <si>
-    <t>S15</t>
-  </si>
-  <si>
-    <t>Q(uintus) Magius / C(ai) f(ilius) Publ(ilia) dom(o) / Verona vetera(nus) / leg(ionis) VII annoru(m) / L stipend(iorum) XXV / t(estamento) f(ieri) i(ussit) h(ic) [s(itus)] e(st)</t>
-  </si>
-  <si>
-    <t>Glavinić1890a(VAHD)</t>
-  </si>
-  <si>
-    <t>Podgrađe</t>
-  </si>
-  <si>
-    <t>C(aius) Manticus / C(ai) f(ilius) Scap(tia) mil(es) / leg(ionis) VII C(laudiae) P(iae) F(idelis) / stip(endiorum) XXIIII / C(aius) Avinnius / [Post]umius / [3]s / [</t>
-  </si>
-  <si>
-    <t>BD-VAHD_26-1903, p.193no.3150; AE 1904, 00172</t>
-  </si>
-  <si>
-    <t>Q(uintus) Marcius / Q(uinti) f(ilius) Cor(nelia) Bassus / dom(o) Benevento / [m]il(es) leg(ionis) VII an(norum) / [3] stip(endiorum) XVII / [h(ic) s(itus)] e(st) t(estamento) f(ieri) i(ussit) / [ex arb]itratu / [M]aximi</t>
-  </si>
-  <si>
-    <t>03, 14932 = 09737</t>
-  </si>
-  <si>
-    <t>BD-VAHD_23-p.7no.2459; AE 1900, 0046</t>
-  </si>
-  <si>
-    <t>Bulić1900(VAHD)</t>
-  </si>
-  <si>
-    <t>Veljaci</t>
-  </si>
-  <si>
-    <t>Chapel of st. Elias</t>
-  </si>
-  <si>
-    <t>Definitely Legio VII, but unsure about CPF or not. Dodig 2003 thinks CPF, but no other stelae from region is CPF.</t>
-  </si>
-  <si>
-    <t>L(ucius) Marcilius / C(ai) [f(ilius) do]mo Pe/[ssin(unte?) 3 leg(ionis) V]II / C[l(audiae) P(iae) F(idelis) 3] / [6] / C(aius) M[arcilius(?)</t>
-  </si>
-  <si>
-    <t>Truhelka1893</t>
-  </si>
-  <si>
-    <t>Truhelka1893p.673; Bojanovski1985no.3; Dodig2003no.4; Dodig2005a,no.10; Dodig2005b,pl.1</t>
-  </si>
-  <si>
-    <t>Porta Andetria (EastNecropolis OG?)</t>
-  </si>
-  <si>
-    <t>Cambi1986</t>
-  </si>
-  <si>
-    <t>Cambi1991; AE 1991, 01291; Miletić 1992</t>
-  </si>
-  <si>
-    <t>Q(uintus) Mettius Q(uinti) f(ilius) / Volt(inia) Valens / mil(es) leg(ionis) VII C(laudiae) P(iae) F(idelis) / an(norum) XXXVIII stip(endiorum) XIIX / t(estamento) f(ieri) i(ussit)</t>
-  </si>
-  <si>
-    <t>L(ucius) Mummius L(uci) / f(ilius) Fab(ia) Ancyra / miles leg(ionis) VII / ann(orum) XXXVI / stipend(iorum) XVI / h(ic) s(itus) e(st) // Arma bis octonis felicia qui tulit annis / hic situs est fato Mummius ipse suo / si sapiunt obiti data munera percipis am(pla) / et recipis nostrae pignus amicitiae / hoc tibi cum titulo posuit / Cornelius Chrestus / et dixit lachrymans sit tibi ter(r)a levis // M(arcus) Cornelius M(arci) l(ibertus) / Chrestus posuit</t>
-  </si>
-  <si>
-    <t>Fadić1995; Fadić1997no.8; AE 1995, 01232</t>
-  </si>
-  <si>
-    <t>Q(uintus) Murrius / Q(uinti) f(ilius) Ser(gia) Augusta / mil(es) leg(ionis) [3 an]n(orum) XXXV / stip(endiorum) VI[3 h(ic) s(itus)] e(st)</t>
-  </si>
-  <si>
-    <t>BD_VAHD-1-1878</t>
-  </si>
-  <si>
-    <t>03, 09738 = 08781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BD-VAHD_1-1878p.19no.23; 1903p.134no.3244 </t>
-  </si>
-  <si>
-    <t>No mention of VII, but assigned on acount of findsite. Made upnof three frgaments</t>
-  </si>
-  <si>
-    <t>03, 14946</t>
-  </si>
-  <si>
-    <t>S16</t>
-  </si>
-  <si>
-    <t>Glavice</t>
-  </si>
-  <si>
-    <t>Near Sinj</t>
-  </si>
-  <si>
-    <t>Fransiscan monastery collection in Sinj</t>
-  </si>
-  <si>
-    <t>5km from Ćitluk; now fragmentary, but Bulić saw full inscription.</t>
-  </si>
-  <si>
-    <t>C(aius) Octavius / C(ai) f(ilius) Fabia Vital[i]s / domo Brixiae / vet(eranus) leg(ionis) VII C(laudiae) P(iae) F(idelis) / h(ic) s(itus) e(st) / testamento f(ieri) i(ussit) / arbitratu Octavi/ae Secundaes(!) lib(ertae) / suae</t>
-  </si>
-  <si>
-    <t>BD-VAHD_23-1900p.118 (sketch in here); AE 1900, 0139</t>
-  </si>
-  <si>
-    <t>BD-VAHD:23-1900</t>
-  </si>
-  <si>
-    <t>Q(uintus) Pius L(uci) [f(ilius)] / Ser(gia) Signinus do/mo Con(s)tan(ti)a vet(eranus) / leg(ionis) VII annor(um) LXXI / h(ic) s(itus) e(st)</t>
-  </si>
-  <si>
-    <t>03, 1916</t>
-  </si>
-  <si>
-    <t>EDCS-10100861; Atanacković-Salčić1981no.4; Dodig2005a,no.5</t>
-  </si>
-  <si>
-    <t>Museum of Fransiscan monestary at Humac</t>
-  </si>
-  <si>
-    <t>Hardomilje (then Humac)</t>
+    <t>03, 02772</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>Danilo Gornje</t>
+  </si>
+  <si>
+    <t>Near Šibenik</t>
+  </si>
+  <si>
+    <t>Q(uinto) Petro/nio Vale/nti militiav(it) / leg(ione) VII G[=C](laudia) P(ia) F(ideli) / h(ic) s(itus) e(st)</t>
+  </si>
+  <si>
+    <t>The 'G' has been interpreted by Betz as a 'C' (tzpological error). Unit used to be attributed to Legio VII Gemina *But also, why not Gemina, the unit was in Pannonia?*</t>
   </si>
   <si>
     <t>B59</t>
   </si>
   <si>
+    <t>03, 2280</t>
+  </si>
+  <si>
+    <t>BD-VAHD_27-1904p.157no.3164</t>
+  </si>
+  <si>
+    <t>Before 1904</t>
+  </si>
+  <si>
+    <t>Pinaria C(ai) lib(erta) / [------] / patrono suo / C(aio) Pinario Scarpo / [ve]t(erano) leg(ionis) VII et filio / [</t>
+  </si>
+  <si>
+    <t>Found in Ćabo, Salona, probablz in Situ in NthNecropolis near Manstirine</t>
+  </si>
+  <si>
     <t>B60</t>
   </si>
   <si>
+    <t>03, 02601</t>
+  </si>
+  <si>
+    <t>BD-VAHD_50-1928-1929p.13</t>
+  </si>
+  <si>
+    <t>NthNecropolis-Kapljuč</t>
+  </si>
+  <si>
+    <t>Primigeniu[s] / P(ubli) Ploti |(centurionis) leg(ionis) / VII C(laudiae) P(iae) F(idelis) lib(ertus) an[n(orum)] / XX[---] h(ic) s(itus) e(st) / pat[ronus</t>
+  </si>
+  <si>
     <t>B61</t>
   </si>
   <si>
+    <t>03, 01818</t>
+  </si>
+  <si>
+    <t>Wilkes1966p.463; Bojanovski1988nos.5, 52.</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>Čitluk</t>
+  </si>
+  <si>
+    <t>L(ucius) Riccius L(uci) f(ilius) Vel(ina) / Pessinunte ann(orum) LX vet(eranus) / Marcia Maxima uxor / L(ucius) Riccius L(uci) f(ilius) Valens / L(ucius) Riccius L(uci) f(ilius) Gallus / Riccia L(uci) [f(ilia)] Bulla / h(ic) s(iti) s(unt) / L(ucius) Atilius L(uci) f(ilius) Vel(ina) veter(anus) leg(ionis) VII / avunculo suo posuit et sibi</t>
+  </si>
+  <si>
+    <t>It is very likely that this stelae inclused reference to two soldiers of Legio VII (Lucius Atilius [definitely] and Lucius Riccius [likely]) for they are of the same family, tribe and likley of the same origin. Tonč2011p.82. EDCS also says Vid-Narona as location (likley based of BH Čitluk) with Tonč2011 claiming it is Čitluk Sinj (Aequum)</t>
+  </si>
+  <si>
     <t>B62</t>
   </si>
   <si>
+    <t>03, 02048</t>
+  </si>
+  <si>
+    <t>Lanza1856pp.78-80no50; Wilkes 1969p.462</t>
+  </si>
+  <si>
+    <t>Lanza1856</t>
+  </si>
+  <si>
+    <t>T(itus) Sabinius T(iti) f(ilius) / Fab(ia) domo / Sebaste vete(ranus) / leg(ionis) VII ann(orum) LVI / sti(pendiorum) XXXII / h(ic) s(itus) e(st)</t>
+  </si>
+  <si>
     <t>B63</t>
   </si>
   <si>
+    <t>03, 1968</t>
+  </si>
+  <si>
+    <t>BD-VAHD_51-1930-1934p.230; Abramić1940pl.36.1; AE 1940, 00177; AE 1941, 00055</t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>Andetrium</t>
+  </si>
+  <si>
+    <t>Gornji Muć</t>
+  </si>
+  <si>
+    <t>altar</t>
+  </si>
+  <si>
+    <t>exacto consularis</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>D(is) M(anibus) / L(ucio) Septimio / Gratiano / mil(iti) leg(ionis) / VII Cl(audiae) exac/to co(n)s(ularis) v[i]/xit ann(os) XXII[II] / d(ies) XI Genia/lis Aug(usti) n(ostri) lib(ertus) / et Apuleia / Salvia filio / karissimo / pos(uerunt)</t>
+  </si>
+  <si>
+    <t>no_weapons</t>
+  </si>
+  <si>
+    <t>Soldier was working under a legate in Dalmatia when the legio had moved to Viminacium</t>
+  </si>
+  <si>
     <t>B64</t>
   </si>
   <si>
-    <t>03, 02716</t>
-  </si>
-  <si>
-    <t>weapons</t>
-  </si>
-  <si>
-    <t>Hofmann1905pp.59-60no.47; Fadić1997p.81</t>
-  </si>
-  <si>
-    <t>Q(uintus) Oppius Q(uinti) f(ilius) / Pol(lia) Foro Corne(lii) / signifer leg(ionis) VII / ann(orum) XXX stip(endiorum) VIII / h(ic) s(itus) e(st) heres pos(ui)t</t>
-  </si>
-  <si>
-    <t>BD-VAHD_17-1894p.5no.3(1984)</t>
-  </si>
-  <si>
-    <t>BD-VAHD_17-1894</t>
-  </si>
-  <si>
-    <t>C(aius) Parp[---] Fab(ia) / [-]ARE[--]C[-]X / annorum XLV / stipendior(um) XVI / N[---</t>
-  </si>
-  <si>
-    <t>No explicit mention of Legio VII, but it was at tilurium, and the individual is possibly from the same tribe as B31, and it is military</t>
-  </si>
-  <si>
-    <t>03, 14933</t>
-  </si>
-  <si>
-    <t>Trilj</t>
-  </si>
-  <si>
-    <t>portrait_equestrian</t>
-  </si>
-  <si>
-    <t>Not explicitally Legio VII, but ascribed to it by Hofmann, Betz, Wilkes and Fadić on account of find site, and of reconstructed voting tribe location at Phillipi</t>
-  </si>
-  <si>
-    <t>M(arcus) Percenni[us---] / Voltinia Ph[ilippis] / [--- l]eg(ionis) [</t>
-  </si>
-  <si>
-    <t>BD-VAHD_1(1878)p.19no.27; Hofmann1905p.50no.38; Wilkes1969p.462; Fadić1997no.19</t>
-  </si>
-  <si>
-    <t>S17</t>
-  </si>
-  <si>
-    <t>Danilo Gornje</t>
-  </si>
-  <si>
-    <t>03, 02772</t>
-  </si>
-  <si>
-    <t>Q(uinto) Petro/nio Vale/nti militiav(it) / leg(ione) VII G[=C](laudia) P(ia) F(ideli) / h(ic) s(itus) e(st)</t>
-  </si>
-  <si>
-    <t>The 'G' has been interpreted by Betz as a 'C' (tzpological error). Unit used to be attributed to Legio VII Gemina *But also, why not Gemina, the unit was in Pannonia?*</t>
-  </si>
-  <si>
-    <t>Near Šibenik</t>
-  </si>
-  <si>
-    <t>BD-VAHD_27-1904p.157no.3164</t>
-  </si>
-  <si>
-    <t>03, 2280</t>
-  </si>
-  <si>
-    <t>Pinaria C(ai) lib(erta) / [------] / patrono suo / C(aio) Pinario Scarpo / [ve]t(erano) leg(ionis) VII et filio / [</t>
-  </si>
-  <si>
-    <t>Found in Ćabo, Salona, probablz in Situ in NthNecropolis near Manstirine</t>
-  </si>
-  <si>
-    <t>03, 02601</t>
-  </si>
-  <si>
-    <t>BD-VAHD_50-1928-1929p.13</t>
-  </si>
-  <si>
-    <t>NthNecropolis-Kapljuč</t>
-  </si>
-  <si>
-    <t>Primigeniu[s] / P(ubli) Ploti |(centurionis) leg(ionis) / VII C(laudiae) P(iae) F(idelis) lib(ertus) an[n(orum)] / XX[---] h(ic) s(itus) e(st) / pat[ronus</t>
-  </si>
-  <si>
-    <t>03, 01818</t>
-  </si>
-  <si>
-    <t>centurio</t>
-  </si>
-  <si>
-    <t>Wilkes1966p.463; Bojanovski1988nos.5, 52.</t>
-  </si>
-  <si>
-    <t>Čitluk</t>
-  </si>
-  <si>
-    <t>L(ucius) Riccius L(uci) f(ilius) Vel(ina) / Pessinunte ann(orum) LX vet(eranus) / Marcia Maxima uxor / L(ucius) Riccius L(uci) f(ilius) Valens / L(ucius) Riccius L(uci) f(ilius) Gallus / Riccia L(uci) [f(ilia)] Bulla / h(ic) s(iti) s(unt) / L(ucius) Atilius L(uci) f(ilius) Vel(ina) veter(anus) leg(ionis) VII / avunculo suo posuit et sibi</t>
-  </si>
-  <si>
-    <t>It is very likely that this stelae inclused reference to two soldiers of Legio VII (Lucius Atilius [definitely] and Lucius Riccius [likely]) for they are of the same family, tribe and likley of the same origin. Tonč2011p.82. EDCS also says Vid-Narona as location (likley based of BH Čitluk) with Tonč2011 claiming it is Čitluk Sinj (Aequum)</t>
-  </si>
-  <si>
-    <t>03, 02048</t>
-  </si>
-  <si>
-    <t>Lanza1856</t>
-  </si>
-  <si>
-    <t>Lanza1856pp.78-80no50; Wilkes 1969p.462</t>
-  </si>
-  <si>
-    <t>03, 1968</t>
-  </si>
-  <si>
-    <t>S18</t>
-  </si>
-  <si>
-    <t>T(itus) Sabinius T(iti) f(ilius) / Fab(ia) domo / Sebaste vete(ranus) / leg(ionis) VII ann(orum) LVI / sti(pendiorum) XXXII / h(ic) s(itus) e(st)</t>
-  </si>
-  <si>
-    <t>D(is) M(anibus) / L(ucio) Septimio / Gratiano / mil(iti) leg(ionis) / VII Cl(audiae) exac/to co(n)s(ularis) v[i]/xit ann(os) XXII[II] / d(ies) XI Genia/lis Aug(usti) n(ostri) lib(ertus) / et Apuleia / Salvia filio / karissimo / pos(uerunt)</t>
-  </si>
-  <si>
-    <t>no_weapons</t>
-  </si>
-  <si>
-    <t>exacto consularis</t>
-  </si>
-  <si>
-    <t>Andetrium</t>
-  </si>
-  <si>
-    <t>Gornji Muć</t>
-  </si>
-  <si>
-    <t>BD-VAHD_51-1930-1934p.230; Abramić1940pl.36.1; AE 1940, 00177; AE 1941, 00055</t>
-  </si>
-  <si>
     <t>03, 08493</t>
   </si>
   <si>
@@ -1180,48 +1302,24 @@
     <t>Legio VII was included on the original record of the inscription (1880) but the relevant line has since been lost. The Eastern origin of Marcus supports the argument for Legio VII</t>
   </si>
   <si>
-    <t>Soldier was working under a legate in Dalmatia when the legio had moved to Viminacium</t>
-  </si>
-  <si>
-    <t>A1a</t>
-  </si>
-  <si>
-    <t>A1b</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3a</t>
-  </si>
-  <si>
-    <t>A3b</t>
-  </si>
-  <si>
-    <t>A3c</t>
-  </si>
-  <si>
-    <t>Ra</t>
-  </si>
-  <si>
-    <t>Rb</t>
-  </si>
-  <si>
-    <t>Rc</t>
-  </si>
-  <si>
-    <t>altar</t>
-  </si>
-  <si>
-    <t>tituli</t>
-  </si>
-  <si>
-    <t>constructiondedication</t>
-  </si>
-  <si>
     <t>B65</t>
   </si>
   <si>
+    <t>03, 2090</t>
+  </si>
+  <si>
+    <t>BD-VAHD_36-1913pp.14,105no.4407a</t>
+  </si>
+  <si>
+    <t>BD-VAHD_36-1913</t>
+  </si>
+  <si>
+    <t>M(arcus) Titius M(arci) f(ilius) S[er]/gia domo Isinda / eques leg(ionis) VII anno[r(um)] / XXXV stipend(iorum) X[3] / ex testament(o) fi[eri] / iussit arbitr[atu] / L(uci) Gelli M(arci) f(ilii) Serg[ia]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Found in gradina, but may have been from East Necrop. </t>
+  </si>
+  <si>
     <t>B66</t>
   </si>
   <si>
@@ -1231,9 +1329,33 @@
     <t>B68</t>
   </si>
   <si>
+    <t>Cambi1986; AE 1991, 01290; Cambi1991pp.61-72; Miletic1992pp.28,33.</t>
+  </si>
+  <si>
+    <t>Q(uintus) Valerius / Q(uinti) f(ilius) Corn(elia) / Edessa mil(es) / leg(ionis) VII ann(orum) / XXXV stip(endiorum) XII / t(estamento) f(ieri) i(ussit) L(ucius) Valerius / h(eres) p(osuit) et Valeria / Quinta l(iberta) h(ic) s(itus) e(st)</t>
+  </si>
+  <si>
+    <t>Found near Porta Andetria, probably from East Necrop</t>
+  </si>
+  <si>
     <t>B69</t>
   </si>
   <si>
+    <t>Dodig2002; AE 2003, 01330; Dodig2005a,no.11</t>
+  </si>
+  <si>
+    <t>Dodig2002</t>
+  </si>
+  <si>
+    <t>Q(uintus) Valerius / Q(uinti) f(ilius) Qui(rina) dom(o) / Icon(io) vet(eranus) leg(ionis) / VII an(norum) LV stip(endiorum) / XXVIII h(ic) s(itus) e(st) / Q(uintus) Portorius et Q(uintus) Va/lerius Anteros posuer(unt)</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>EDCS says dated between 21-30 CE... Why?</t>
+  </si>
+  <si>
     <t>B70</t>
   </si>
   <si>
@@ -1243,24 +1365,135 @@
     <t>B72</t>
   </si>
   <si>
+    <t>03, 1921</t>
+  </si>
+  <si>
+    <t>Patsch1908p.110no.30; Patsch1914p.167no34; Dodig2005a,no.7</t>
+  </si>
+  <si>
+    <t>Patsch1908</t>
+  </si>
+  <si>
+    <t>T(itus) Varius T(iti) f(ilius) / Vel(ina) domo / Pessinunte / vet(eranus) leg(ionis) VII / an(norum) L sti(pendiorum) XXIX / h(ic) s(itus) e(st) her(es) pos(uit)</t>
+  </si>
+  <si>
+    <t>Not far from Humac and Trebižat, in secondarz use (with other stelae)</t>
+  </si>
+  <si>
     <t>B73</t>
   </si>
   <si>
+    <t>03, 08764</t>
+  </si>
+  <si>
+    <t>BD-VAHD_4-1881p.33no.7</t>
+  </si>
+  <si>
+    <t>BD-VAHD_1881</t>
+  </si>
+  <si>
+    <t>C(aius) Vatinius / Sex(ti) f(ilius) Capito / vet(eranus) leg(ionis) VII / C(laudiae) P(iae) F(idelis) dom(o) Arreti(o) / v(ivus) f(ecit) sibi et / Vatiniae Feli/culae libert(ae)</t>
+  </si>
+  <si>
     <t>B74</t>
   </si>
   <si>
+    <t>03, 09712</t>
+  </si>
+  <si>
+    <t>BD-VAHD_9-1886p.6no.2</t>
+  </si>
+  <si>
+    <t>S19</t>
+  </si>
+  <si>
+    <t>Bijaći</t>
+  </si>
+  <si>
+    <t>Siculi-Tragurium</t>
+  </si>
+  <si>
+    <t>BD-VAHD-9_1886</t>
+  </si>
+  <si>
+    <t>L(ucius) Vegnonius / L(uci) f(ilius) vet(eranus) leg(ionis) V[II] / [d]om(o) Florent[ia] / [Tr]opaena F[a]/[br]icia se vi[va] / [si]bi et vir[o] / e{=f}(ecit) / hic s(itus) est</t>
+  </si>
+  <si>
+    <t>Legio number is cut out, but VII is likley as a V is visible, and there is no space for a title in the lower line (thus not legio V macedonicae, also other monuments for legio VII found neaby).</t>
+  </si>
+  <si>
     <t>B75</t>
   </si>
   <si>
+    <t>03, 02678=09699</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>Tragurium</t>
+  </si>
+  <si>
+    <t>[Dis Manibus] / sa]crum] / C(aius) V[(ibius) C(ai) f(ilius) Pompt(ina)] / Pedes [dom(o) Arret(io)] / |(centurio) leg(ionis) V[II C(laudiae) P(iae) F(idelis) vivos fec(it)] / sibi et I[uliae C(ai) f(iliae) Pollae] / uxori</t>
+  </si>
+  <si>
+    <t>Muzej grada Trogira</t>
+  </si>
+  <si>
+    <t>Found in Trogir field in church of st. Stephen</t>
+  </si>
+  <si>
     <t>B76</t>
   </si>
   <si>
+    <t>03, 09741</t>
+  </si>
+  <si>
+    <t>BD-VAHD_1-1878p.34no32; Fadić1997no.14</t>
+  </si>
+  <si>
+    <t>M(arcus) Vibius M(arci) f(ilius) / Aem(ilia) Durra(chio) / mil(es) leg(ionis) VII / ann(orum) XXX stip(endiorum) VII / h(ic) s(itus) e(st) / [---]lius h(eres) p(osuit)</t>
+  </si>
+  <si>
     <t>B77</t>
   </si>
   <si>
+    <t>03, 2093</t>
+  </si>
+  <si>
+    <t>BD-VAHD_37-1914p.55no.4576a; Miletić1992fig1</t>
+  </si>
+  <si>
+    <t>Near Porta Caesarea</t>
+  </si>
+  <si>
+    <t>] / signifer / leg(ionis) VII C(laudiae) P(iae) F(idelis) / C(aius) Clodius Felix / lib(ertus) / IIIIIIvir Aug(ustalis)</t>
+  </si>
+  <si>
+    <t>Found near ćFive bridgedć near Porta Caesarea, unsure if from EastNecrop.</t>
+  </si>
+  <si>
     <t>B78</t>
   </si>
   <si>
+    <t>03, 2600</t>
+  </si>
+  <si>
+    <t>Brønsted1928p.157-8no.4</t>
+  </si>
+  <si>
+    <t>Kapljuč</t>
+  </si>
+  <si>
+    <t>Brønsted1928</t>
+  </si>
+  <si>
+    <t>] / vet(erano) leg(ionis) VII C(laudiae) P(iae) F(idelis) / Neria Pieris / coniugi suo / et sibi</t>
+  </si>
+  <si>
+    <t>Found in secondary use at Kapljuč</t>
+  </si>
+  <si>
     <t>B79</t>
   </si>
   <si>
@@ -1270,156 +1503,24 @@
     <t>B81</t>
   </si>
   <si>
+    <t>Atanacković-Salšić1981p.273,no14; Bojanovski1988no77; Škegro1997b.no1; AE 2000, 01176; Dodig2005a.no9</t>
+  </si>
+  <si>
+    <t>Vitaljina</t>
+  </si>
+  <si>
+    <t>Atanacković-Salšić1981</t>
+  </si>
+  <si>
+    <t>[---][---]elius Ma[---] / [---]p domo R[---] / [--- ve]t(eranus) leg(ionis) VII / [--- st]ip(endiorum) XXVIIII / [an]n(orum) LXII fili[o] / [eius e]t patrono v(otum) / [p]osuit [et] matri</t>
+  </si>
+  <si>
+    <t>In secondary use in Vitaljina, near Ljubuški - too damaged to discern if cpf or not</t>
+  </si>
+  <si>
     <t>B82</t>
   </si>
   <si>
-    <t>03, 2090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Found in gradina, but may have been from East Necrop. </t>
-  </si>
-  <si>
-    <t>BD-VAHD_36-1913pp.14,105no.4407a</t>
-  </si>
-  <si>
-    <t>BD-VAHD_36-1913</t>
-  </si>
-  <si>
-    <t>Found near Porta Andetria, probably from East Necrop</t>
-  </si>
-  <si>
-    <t>Q(uintus) Valerius / Q(uinti) f(ilius) Corn(elia) / Edessa mil(es) / leg(ionis) VII ann(orum) / XXXV stip(endiorum) XII / t(estamento) f(ieri) i(ussit) L(ucius) Valerius / h(eres) p(osuit) et Valeria / Quinta l(iberta) h(ic) s(itus) e(st)</t>
-  </si>
-  <si>
-    <t>M(arcus) Titius M(arci) f(ilius) S[er]/gia domo Isinda / eques leg(ionis) VII anno[r(um)] / XXXV stipend(iorum) X[3] / ex testament(o) fi[eri] / iussit arbitr[atu] / L(uci) Gelli M(arci) f(ilii) Serg[ia]</t>
-  </si>
-  <si>
-    <t>Cambi1986; AE 1991, 01290; Cambi1991pp.61-72; Miletic1992pp.28,33.</t>
-  </si>
-  <si>
-    <t>Dodig2002</t>
-  </si>
-  <si>
-    <t>Dodig2002; AE 2003, 01330; Dodig2005a,no.11</t>
-  </si>
-  <si>
-    <t>Q(uintus) Valerius / Q(uinti) f(ilius) Qui(rina) dom(o) / Icon(io) vet(eranus) leg(ionis) / VII an(norum) LV stip(endiorum) / XXVIII h(ic) s(itus) e(st) / Q(uintus) Portorius et Q(uintus) Va/lerius Anteros posuer(unt)</t>
-  </si>
-  <si>
-    <t>EDCS says dated between 21-30 CE... Why?</t>
-  </si>
-  <si>
-    <t>03, 1921</t>
-  </si>
-  <si>
-    <t>Not far from Humac and Trebižat, in secondarz use (with other stelae)</t>
-  </si>
-  <si>
-    <t>T(itus) Varius T(iti) f(ilius) / Vel(ina) domo / Pessinunte / vet(eranus) leg(ionis) VII / an(norum) L sti(pendiorum) XXIX / h(ic) s(itus) e(st) her(es) pos(uit)</t>
-  </si>
-  <si>
-    <t>Patsch1908</t>
-  </si>
-  <si>
-    <t>Patsch1908p.110no.30; Patsch1914p.167no34; Dodig2005a,no.7</t>
-  </si>
-  <si>
-    <t>C(aius) Vatinius / Sex(ti) f(ilius) Capito / vet(eranus) leg(ionis) VII / C(laudiae) P(iae) F(idelis) dom(o) Arreti(o) / v(ivus) f(ecit) sibi et / Vatiniae Feli/culae libert(ae)</t>
-  </si>
-  <si>
-    <t>BD-VAHD_1881</t>
-  </si>
-  <si>
-    <t>03, 08764</t>
-  </si>
-  <si>
-    <t>BD-VAHD_4-1881p.33no.7</t>
-  </si>
-  <si>
-    <t>03, 09712</t>
-  </si>
-  <si>
-    <t>S19</t>
-  </si>
-  <si>
-    <t>Bijaći</t>
-  </si>
-  <si>
-    <t>BD-VAHD-9_1886</t>
-  </si>
-  <si>
-    <t>Legio number is cut out, but VII is likley as a V is visible, and there is no space for a title in the lower line (thus not legio V macedonicae, also other monuments for legio VII found neaby).</t>
-  </si>
-  <si>
-    <t>L(ucius) Vegnonius / L(uci) f(ilius) vet(eranus) leg(ionis) V[II] / [d]om(o) Florent[ia] / [Tr]opaena F[a]/[br]icia se vi[va] / [si]bi et vir[o] / e{=f}(ecit) / hic s(itus) est</t>
-  </si>
-  <si>
-    <t>BD-VAHD_9-1886p.6no.2</t>
-  </si>
-  <si>
-    <t>03, 02678=09699</t>
-  </si>
-  <si>
-    <t>S20</t>
-  </si>
-  <si>
-    <t>Tragurium</t>
-  </si>
-  <si>
-    <t>Found in Trogir field in church of st. Stephen</t>
-  </si>
-  <si>
-    <t>Muzej grada Trogira</t>
-  </si>
-  <si>
-    <t>Siculi-Tragurium</t>
-  </si>
-  <si>
-    <t>03, 09741</t>
-  </si>
-  <si>
-    <t>BD-VAHD_1-1878p.34no32; Fadić1997no.14</t>
-  </si>
-  <si>
-    <t>[Dis Manibus] / sa]crum] / C(aius) V[(ibius) C(ai) f(ilius) Pompt(ina)] / Pedes [dom(o) Arret(io)] / |(centurio) leg(ionis) V[II C(laudiae) P(iae) F(idelis) vivos fec(it)] / sibi et I[uliae C(ai) f(iliae) Pollae] / uxori</t>
-  </si>
-  <si>
-    <t>M(arcus) Vibius M(arci) f(ilius) / Aem(ilia) Durra(chio) / mil(es) leg(ionis) VII / ann(orum) XXX stip(endiorum) VII / h(ic) s(itus) e(st) / [---]lius h(eres) p(osuit)</t>
-  </si>
-  <si>
-    <t>03, 2093</t>
-  </si>
-  <si>
-    <t>Near Porta Caesarea</t>
-  </si>
-  <si>
-    <t>BD-VAHD_37-1914p.55no.4576a; Miletić1992fig1</t>
-  </si>
-  <si>
-    <t>] / signifer / leg(ionis) VII C(laudiae) P(iae) F(idelis) / C(aius) Clodius Felix / lib(ertus) / IIIIIIvir Aug(ustalis)</t>
-  </si>
-  <si>
-    <t>Found near ćFive bridgedć near Porta Caesarea, unsure if from EastNecrop.</t>
-  </si>
-  <si>
-    <t>03, 2600</t>
-  </si>
-  <si>
-    <t>Brønsted1928p.157-8no.4</t>
-  </si>
-  <si>
-    <t>Brønsted1928</t>
-  </si>
-  <si>
-    <t>Kapljuč</t>
-  </si>
-  <si>
-    <t>] / vet(erano) leg(ionis) VII C(laudiae) P(iae) F(idelis) / Neria Pieris / coniugi suo / et sibi</t>
-  </si>
-  <si>
-    <t>Found in secondary use at Kapljuč</t>
-  </si>
-  <si>
     <t>03, 08732</t>
   </si>
   <si>
@@ -1435,125 +1536,38 @@
     <t>Probably veteran based off years of service</t>
   </si>
   <si>
-    <t>[---][---]elius Ma[---] / [---]p domo R[---] / [--- ve]t(eranus) leg(ionis) VII / [--- st]ip(endiorum) XXVIIII / [an]n(orum) LXII fili[o] / [eius e]t patrono v(otum) / [p]osuit [et] matri</t>
-  </si>
-  <si>
-    <t>Vitaljina</t>
-  </si>
-  <si>
-    <t>In secondary use in Vitaljina, near Ljubuški - too damaged to discern if cpf or not</t>
-  </si>
-  <si>
-    <t>Atanacković-Salšić1981</t>
-  </si>
-  <si>
-    <t>Atanacković-Salšić1981p.273,no14; Bojanovski1988no77; Škegro1997b.no1; AE 2000, 01176; Dodig2005a.no9</t>
-  </si>
-  <si>
-    <t>cpf</t>
-  </si>
-  <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>scriba</t>
-  </si>
-  <si>
-    <t>Tončinić</t>
-  </si>
-  <si>
-    <t>Province</t>
-  </si>
-  <si>
-    <t>Settlment</t>
-  </si>
-  <si>
-    <t>SpecificLocation</t>
-  </si>
-  <si>
-    <t>LAT</t>
-  </si>
-  <si>
-    <t>LONG</t>
-  </si>
-  <si>
-    <t>FirstPublicationCitation</t>
-  </si>
-  <si>
-    <t>DateFound</t>
-  </si>
-  <si>
-    <t>DateFoundPrecisionNote</t>
-  </si>
-  <si>
-    <t>Pre1890</t>
-  </si>
-  <si>
-    <t>Before 1904</t>
-  </si>
-  <si>
-    <t>1927 - Unsure</t>
-  </si>
-  <si>
-    <t>MonumentType</t>
-  </si>
-  <si>
-    <t>MilitaryStatus</t>
-  </si>
-  <si>
-    <t>MemberSeventhLegion</t>
-  </si>
-  <si>
-    <t>CPFTitle</t>
-  </si>
-  <si>
-    <t>DoorMotifPresent</t>
-  </si>
-  <si>
-    <t>PortraitPresent</t>
-  </si>
-  <si>
-    <t>WeaponsPresent</t>
-  </si>
-  <si>
-    <t>DateFrom</t>
-  </si>
-  <si>
-    <t>DateTo</t>
-  </si>
-  <si>
-    <t>DateNote</t>
-  </si>
-  <si>
-    <t>maybe -30 6</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>StelaeType</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Check inconsistencies in Tončinić2011</t>
-  </si>
-  <si>
-    <t>OfficeType</t>
+    <t>B83</t>
+  </si>
+  <si>
+    <t>03, 9864a</t>
+  </si>
+  <si>
+    <t>Hörmann1890pp.306-308; ILS 5959; Patsch1914p.175; Patsch1915p.64</t>
+  </si>
+  <si>
+    <t>S21</t>
+  </si>
+  <si>
+    <t>Vaganj</t>
+  </si>
+  <si>
+    <t>Near jajce</t>
+  </si>
+  <si>
+    <t>Hörmann1980</t>
+  </si>
+  <si>
+    <t>L(ucius) Arruntius / Cami[ll]us Scri/b[o]nia[n]us le[g(atus)] pro / pr(aetore) C(ai) [C]ae[s]aris Aug(usti) / Germanici iudicem / dedit M(anium) Coelium |(centurionem) / leg(ionis) VII inter Sapuates / e[t La]matinos ut fines / [reg]eret et terminus po[n(eret)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy of the monument held in National museum in Sarajevo </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1684,18 +1698,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2042,13 +2044,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2403,134 +2403,134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="L84" sqref="L84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="U1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>502</v>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="K2">
         <v>44.119371000000001</v>
@@ -2539,22 +2539,22 @@
         <v>15.2313648</v>
       </c>
       <c r="P2" t="s">
-        <v>394</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="V2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="X2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Y2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AA2">
         <v>18</v>
@@ -2563,83 +2563,83 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3">
         <v>73</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>72</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="3">
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3">
         <v>43.739277999999999</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3">
         <v>16.655704</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>42</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>42</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>503</v>
+      <c r="P3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA3">
+        <v>42</v>
+      </c>
+      <c r="AB3">
+        <v>42</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>218</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>223</v>
+        <v>54</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="K4">
         <v>43.50811796</v>
@@ -2648,19 +2648,19 @@
         <v>16.44032121</v>
       </c>
       <c r="P4" t="s">
-        <v>217</v>
+        <v>57</v>
       </c>
       <c r="S4" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="X4" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Y4" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AA4">
         <v>16</v>
@@ -2669,60 +2669,60 @@
         <v>17</v>
       </c>
       <c r="AF4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="N5">
         <v>1965</v>
       </c>
       <c r="P5" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q5" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="S5" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="X5" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Y5" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="AA5">
         <v>6</v>
@@ -2731,65 +2731,65 @@
         <v>42</v>
       </c>
       <c r="AD5" t="s">
-        <v>388</v>
+        <v>67</v>
       </c>
       <c r="AE5" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="P6" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q6" t="s">
         <v>73</v>
       </c>
       <c r="S6" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="U6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="V6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AD6" t="s">
-        <v>391</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2798,16 +2798,16 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="K7">
         <v>43.607337999999999</v>
@@ -2822,13 +2822,13 @@
         <v>73</v>
       </c>
       <c r="S7" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="V7" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="AA7">
         <v>6</v>
@@ -2837,18 +2837,18 @@
         <v>42</v>
       </c>
       <c r="AD7" t="s">
-        <v>383</v>
+        <v>81</v>
       </c>
       <c r="AE7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -2857,40 +2857,40 @@
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="G8">
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M8" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N8">
         <v>1905</v>
       </c>
       <c r="P8" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q8" t="s">
         <v>73</v>
       </c>
       <c r="R8" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="S8" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s">
-        <v>472</v>
+        <v>48</v>
       </c>
       <c r="V8" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AA8">
         <v>42</v>
@@ -2899,15 +2899,15 @@
         <v>58</v>
       </c>
       <c r="AD8" t="s">
-        <v>387</v>
+        <v>90</v>
       </c>
       <c r="AE8" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -2919,42 +2919,42 @@
         <v>2091</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="G9">
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="J9" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="M9" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="N9">
         <v>1914</v>
       </c>
       <c r="P9" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="S9" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T9" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -2963,81 +2963,81 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="G10">
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="J10" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="M10" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="N10">
         <v>1888</v>
       </c>
       <c r="P10" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q10" t="s">
         <v>73</v>
       </c>
       <c r="S10" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T10" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="AD10" t="s">
-        <v>391</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="C11">
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="G11">
         <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="M11" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="N11">
         <v>1995</v>
       </c>
       <c r="P11" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q11" t="s">
         <v>73</v>
       </c>
       <c r="S11" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="X11" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AA11">
         <v>6</v>
@@ -3046,18 +3046,18 @@
         <v>42</v>
       </c>
       <c r="AD11" t="s">
-        <v>391</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -3069,28 +3069,28 @@
         <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="J12" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q12" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="S12" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T12" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="X12" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AA12">
         <v>6</v>
@@ -3099,18 +3099,18 @@
         <v>42</v>
       </c>
       <c r="AD12" t="s">
-        <v>391</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -3119,49 +3119,49 @@
         <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="G13">
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="J13" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="M13" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="N13">
         <v>1878</v>
       </c>
       <c r="P13" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q13" t="s">
         <v>73</v>
       </c>
       <c r="S13" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T13" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="U13" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="V13" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="X13" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="Y13" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AA13">
         <v>6</v>
@@ -3170,18 +3170,18 @@
         <v>42</v>
       </c>
       <c r="AD13" t="s">
-        <v>389</v>
+        <v>112</v>
       </c>
       <c r="AE13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="C14">
         <v>9</v>
@@ -3190,34 +3190,34 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="G14">
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I14" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="P14" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="R14" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="S14" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T14" t="s">
-        <v>472</v>
+        <v>48</v>
       </c>
       <c r="V14" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="Y14" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AA14">
         <v>42</v>
@@ -3226,15 +3226,15 @@
         <v>58</v>
       </c>
       <c r="AE14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -3243,43 +3243,43 @@
         <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="G15">
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I15" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="M15" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N15">
         <v>1905</v>
       </c>
       <c r="P15" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q15" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="S15" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T15" t="s">
-        <v>472</v>
+        <v>48</v>
       </c>
       <c r="V15" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="X15" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="Y15" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="AA15">
         <v>42</v>
@@ -3288,63 +3288,63 @@
         <v>58</v>
       </c>
       <c r="AD15" t="s">
-        <v>386</v>
+        <v>122</v>
       </c>
       <c r="AE15" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="C16">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="G16">
         <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I16" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="J16" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="M16" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="N16">
         <v>1880</v>
       </c>
       <c r="P16" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q16" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="S16" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T16" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="V16" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="X16" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Y16" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AA16">
         <v>6</v>
@@ -3353,18 +3353,18 @@
         <v>42</v>
       </c>
       <c r="AD16" t="s">
-        <v>393</v>
+        <v>130</v>
       </c>
       <c r="AE16" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="C17">
         <v>12</v>
@@ -3373,19 +3373,19 @@
         <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="G17">
         <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I17" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="J17" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="M17" t="s">
         <v>1</v>
@@ -3394,25 +3394,25 @@
         <v>1831</v>
       </c>
       <c r="P17" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q17" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="S17" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T17" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="V17" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="X17" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="Y17" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AA17">
         <v>6</v>
@@ -3421,18 +3421,18 @@
         <v>42</v>
       </c>
       <c r="AD17" t="s">
-        <v>383</v>
+        <v>81</v>
       </c>
       <c r="AE17" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="C18">
         <v>13</v>
@@ -3444,31 +3444,31 @@
         <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I18" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="J18" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="M18" t="s">
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="R18" t="s">
-        <v>359</v>
+        <v>139</v>
       </c>
       <c r="S18" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T18" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="V18" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="AA18">
         <v>6</v>
@@ -3477,12 +3477,12 @@
         <v>42</v>
       </c>
       <c r="AE18" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="C19">
         <v>14</v>
@@ -3494,46 +3494,46 @@
         <v>1949</v>
       </c>
       <c r="F19" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="G19">
         <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I19" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="J19" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="M19" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="N19">
         <v>1903</v>
       </c>
       <c r="P19" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q19" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="R19" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="S19" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="T19" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="X19" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="Y19" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AA19">
         <v>6</v>
@@ -3542,18 +3542,18 @@
         <v>58</v>
       </c>
       <c r="AD19" t="s">
-        <v>383</v>
+        <v>81</v>
       </c>
       <c r="AE19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -3565,34 +3565,34 @@
         <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I20" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="M20" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="P20" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q20" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="S20" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T20" t="s">
-        <v>472</v>
+        <v>48</v>
       </c>
       <c r="V20" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="X20" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="Y20" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="AA20">
         <v>42</v>
@@ -3601,15 +3601,15 @@
         <v>100</v>
       </c>
       <c r="AE20" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C21">
         <v>16</v>
@@ -3618,46 +3618,46 @@
         <v>55</v>
       </c>
       <c r="F21" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G21">
         <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I21" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="J21" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="K21">
-        <v>43.081301545000002</v>
+        <v>43.081301549999999</v>
       </c>
       <c r="L21">
-        <v>17.624645232999999</v>
+        <v>17.624645229999999</v>
       </c>
       <c r="P21" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q21" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="S21" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T21" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="V21" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="X21" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="Y21" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AA21">
         <v>6</v>
@@ -3666,18 +3666,18 @@
         <v>42</v>
       </c>
       <c r="AD21" t="s">
-        <v>391</v>
+        <v>76</v>
       </c>
       <c r="AE21" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C22">
         <v>17</v>
@@ -3686,46 +3686,46 @@
         <v>56</v>
       </c>
       <c r="F22" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="G22">
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I22" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="J22" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="M22" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="N22">
         <v>1883</v>
       </c>
       <c r="P22" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q22" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="S22" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T22" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="V22" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="X22" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Y22" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AA22">
         <v>6</v>
@@ -3734,18 +3734,18 @@
         <v>42</v>
       </c>
       <c r="AD22" t="s">
-        <v>393</v>
+        <v>130</v>
       </c>
       <c r="AE22" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="B23" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="C23">
         <v>18</v>
@@ -3757,31 +3757,31 @@
         <v>16</v>
       </c>
       <c r="H23" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="P23" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q23" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="S23" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T23" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="V23" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="X23" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="Y23" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="AA23">
         <v>6</v>
@@ -3792,22 +3792,22 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="B24" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="F24" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="G24" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="H24" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I24" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="K24">
         <v>40.548231999999999</v>
@@ -3816,19 +3816,19 @@
         <v>26.750810000000001</v>
       </c>
       <c r="P24" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q24" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="R24" t="s">
-        <v>359</v>
+        <v>139</v>
       </c>
       <c r="S24" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="V24" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="AA24">
         <v>-30</v>
@@ -3837,18 +3837,18 @@
         <v>42</v>
       </c>
       <c r="AC24" t="s">
-        <v>498</v>
+        <v>174</v>
       </c>
       <c r="AE24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AF24" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="C25">
         <v>19</v>
@@ -3860,28 +3860,28 @@
         <v>2105</v>
       </c>
       <c r="F25" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="H25" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I25" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="J25" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="P25" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="S25" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="T25" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="AA25">
         <v>6</v>
@@ -3890,12 +3890,12 @@
         <v>58</v>
       </c>
       <c r="AE25" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="C26">
         <v>20</v>
@@ -3907,40 +3907,40 @@
         <v>1950</v>
       </c>
       <c r="F26" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="G26" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="H26" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I26" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="J26" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="M26" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="N26">
         <v>1908</v>
       </c>
       <c r="P26" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="S26" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T26" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="X26" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="Y26" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AA26">
         <v>6</v>
@@ -3949,57 +3949,57 @@
         <v>42</v>
       </c>
       <c r="AD26" t="s">
-        <v>389</v>
+        <v>112</v>
       </c>
       <c r="AE26" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="C27">
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="G27" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="H27" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I27" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="J27" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="M27" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="N27">
         <v>1994</v>
       </c>
       <c r="P27" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q27" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="S27" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T27" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="X27" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="Y27" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AA27">
         <v>6</v>
@@ -4008,21 +4008,21 @@
         <v>42</v>
       </c>
       <c r="AD27" t="s">
-        <v>383</v>
+        <v>81</v>
       </c>
       <c r="AE27" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AF27" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="B28" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="C28">
         <v>22</v>
@@ -4031,34 +4031,34 @@
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="G28" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="H28" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I28" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="J28" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="M28" t="s">
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="S28" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T28" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="V28" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AA28">
         <v>6</v>
@@ -4067,15 +4067,15 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>193</v>
       </c>
       <c r="B29" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="C29">
         <v>23</v>
@@ -4084,28 +4084,28 @@
         <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="H29" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I29" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="J29" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="P29" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="S29" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T29" t="s">
-        <v>472</v>
+        <v>48</v>
       </c>
       <c r="V29" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="AA29">
         <v>42</v>
@@ -4114,15 +4114,15 @@
         <v>58</v>
       </c>
       <c r="AE29" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="B30" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="C30">
         <v>24</v>
@@ -4131,34 +4131,34 @@
         <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="G30" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="H30" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I30" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="J30" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="M30" t="s">
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="S30" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T30" t="s">
-        <v>472</v>
+        <v>48</v>
       </c>
       <c r="V30" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="AA30">
         <v>42</v>
@@ -4167,15 +4167,15 @@
         <v>58</v>
       </c>
       <c r="AE30" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>116</v>
+        <v>204</v>
       </c>
       <c r="B31" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="C31">
         <v>25</v>
@@ -4184,40 +4184,40 @@
         <v>24</v>
       </c>
       <c r="F31" t="s">
+        <v>206</v>
+      </c>
+      <c r="G31" t="s">
         <v>181</v>
       </c>
-      <c r="G31" t="s">
-        <v>26</v>
-      </c>
       <c r="H31" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I31" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="J31" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="M31" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="P31" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="S31" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T31" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="V31" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="X31" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="Y31" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AA31">
         <v>42</v>
@@ -4226,21 +4226,21 @@
         <v>58</v>
       </c>
       <c r="AD31" t="s">
-        <v>383</v>
+        <v>81</v>
       </c>
       <c r="AE31" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AF31" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>210</v>
       </c>
       <c r="B32" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="C32">
         <v>26</v>
@@ -4249,46 +4249,46 @@
         <v>25</v>
       </c>
       <c r="E32" t="s">
+        <v>212</v>
+      </c>
+      <c r="F32" t="s">
         <v>213</v>
       </c>
-      <c r="F32" t="s">
-        <v>182</v>
-      </c>
       <c r="G32" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="H32" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I32" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="J32" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="M32" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="N32">
         <v>1888</v>
       </c>
       <c r="P32" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="S32" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T32" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="V32" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="X32" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Y32" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AA32">
         <v>6</v>
@@ -4297,18 +4297,18 @@
         <v>42</v>
       </c>
       <c r="AD32" t="s">
-        <v>384</v>
+        <v>217</v>
       </c>
       <c r="AE32" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="B33" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="C33">
         <v>27</v>
@@ -4317,34 +4317,34 @@
         <v>49</v>
       </c>
       <c r="G33" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="H33" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I33" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="M33" t="s">
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q33" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="R33" t="s">
-        <v>475</v>
+        <v>220</v>
       </c>
       <c r="S33" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T33" t="s">
-        <v>472</v>
+        <v>48</v>
       </c>
       <c r="V33" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="AA33">
         <v>42</v>
@@ -4353,15 +4353,15 @@
         <v>58</v>
       </c>
       <c r="AE33" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>119</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
+      </c>
+      <c r="B34" t="s">
+        <v>223</v>
       </c>
       <c r="C34">
         <v>28</v>
@@ -4370,31 +4370,31 @@
         <v>50</v>
       </c>
       <c r="G34" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="H34" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I34" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="M34" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="P34" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q34" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="S34" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T34" t="s">
-        <v>472</v>
+        <v>48</v>
       </c>
       <c r="V34" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="AA34">
         <v>42</v>
@@ -4403,15 +4403,15 @@
         <v>58</v>
       </c>
       <c r="AE34" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>225</v>
       </c>
       <c r="B35" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="C35">
         <v>29</v>
@@ -4420,43 +4420,43 @@
         <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="G35" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="H35" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I35" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="J35" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="M35" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="N35">
         <v>1897</v>
       </c>
       <c r="P35" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="S35" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T35" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="V35" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="X35" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Y35" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AA35">
         <v>6</v>
@@ -4465,18 +4465,18 @@
         <v>42</v>
       </c>
       <c r="AD35" t="s">
-        <v>391</v>
+        <v>76</v>
       </c>
       <c r="AE35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
       <c r="B36" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="C36">
         <v>30</v>
@@ -4485,43 +4485,43 @@
         <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>138</v>
+        <v>235</v>
       </c>
       <c r="H36" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I36" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="J36" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="M36" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="P36" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q36" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="R36" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="S36" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T36" t="s">
-        <v>472</v>
+        <v>48</v>
       </c>
       <c r="V36" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="X36" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Y36" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AA36">
         <v>42</v>
@@ -4530,42 +4530,42 @@
         <v>58</v>
       </c>
       <c r="AE36" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>237</v>
       </c>
       <c r="B37" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="E37" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="F37" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="G37" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="H37" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I37" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="M37" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="P37" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="S37" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="V37" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="AA37">
         <v>79</v>
@@ -4576,40 +4576,40 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>246</v>
       </c>
       <c r="B38" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="E38" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="F38" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="G38" t="s">
-        <v>206</v>
+        <v>250</v>
       </c>
       <c r="H38" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I38" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="J38" t="s">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="M38" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="P38" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="S38" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="V38" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="AA38">
         <v>253</v>
@@ -4620,28 +4620,28 @@
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>254</v>
       </c>
       <c r="B39" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="F39" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="G39" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="H39" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I39" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="J39" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="K39">
-        <v>43.614617185</v>
+        <v>43.614617189999997</v>
       </c>
       <c r="L39">
         <v>16.728064</v>
@@ -4653,13 +4653,13 @@
         <v>1849</v>
       </c>
       <c r="P39" t="s">
-        <v>225</v>
+        <v>37</v>
       </c>
       <c r="S39" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="V39" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="AA39">
         <v>184</v>
@@ -4668,45 +4668,45 @@
         <v>184</v>
       </c>
       <c r="AE39" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AF39" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>260</v>
       </c>
       <c r="B40" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="F40" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="G40" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="H40" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="I40" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="J40" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="P40" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="R40" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="S40" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="V40" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="AA40">
         <v>58</v>
@@ -4715,15 +4715,15 @@
         <v>130</v>
       </c>
       <c r="AE40" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="AF40" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>270</v>
       </c>
       <c r="C41">
         <v>31</v>
@@ -4732,49 +4732,49 @@
         <v>58</v>
       </c>
       <c r="F41" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="G41" t="s">
-        <v>54</v>
+        <v>272</v>
       </c>
       <c r="H41" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I41" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="J41" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="M41" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="N41">
         <v>1927</v>
       </c>
       <c r="O41" t="s">
-        <v>487</v>
+        <v>274</v>
       </c>
       <c r="P41" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q41" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="S41" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T41" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="V41" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="X41" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Y41" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="AA41">
         <v>6</v>
@@ -4783,15 +4783,15 @@
         <v>42</v>
       </c>
       <c r="AD41" t="s">
-        <v>388</v>
+        <v>67</v>
       </c>
       <c r="AE41" t="s">
-        <v>322</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>277</v>
       </c>
       <c r="C42">
         <v>32</v>
@@ -4803,46 +4803,46 @@
         <v>1920</v>
       </c>
       <c r="F42" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="G42" t="s">
-        <v>54</v>
+        <v>272</v>
       </c>
       <c r="H42" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I42" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="J42" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="M42" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="N42">
         <v>1908</v>
       </c>
       <c r="P42" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q42" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="S42" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T42" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="V42" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="X42" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="Y42" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AA42">
         <v>6</v>
@@ -4851,57 +4851,57 @@
         <v>42</v>
       </c>
       <c r="AD42" t="s">
-        <v>383</v>
+        <v>81</v>
       </c>
       <c r="AE42" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="C43">
         <v>33</v>
       </c>
       <c r="F43" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="G43" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="H43" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I43" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="M43" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="N43">
         <v>1996</v>
       </c>
       <c r="P43" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q43" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="S43" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T43" t="s">
-        <v>472</v>
+        <v>48</v>
       </c>
       <c r="V43" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="X43" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Y43" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AA43">
         <v>42</v>
@@ -4910,21 +4910,21 @@
         <v>58</v>
       </c>
       <c r="AD43" t="s">
-        <v>393</v>
+        <v>130</v>
       </c>
       <c r="AE43" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="AF43" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="B44" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="C44">
         <v>34</v>
@@ -4933,46 +4933,46 @@
         <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="G44" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="H44" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I44" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="J44" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="M44" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="N44">
         <v>1878</v>
       </c>
       <c r="P44" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="S44" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T44" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="U44" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="V44" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="X44" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="Y44" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="AA44">
         <v>6</v>
@@ -4981,21 +4981,21 @@
         <v>42</v>
       </c>
       <c r="AD44" t="s">
-        <v>385</v>
+        <v>291</v>
       </c>
       <c r="AE44" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AF44" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>240</v>
+        <v>293</v>
       </c>
       <c r="B45" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="C45">
         <v>35</v>
@@ -5004,43 +5004,43 @@
         <v>15</v>
       </c>
       <c r="F45" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="G45" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="H45" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I45" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="M45" t="s">
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="R45" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="S45" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T45" t="s">
-        <v>472</v>
+        <v>48</v>
       </c>
       <c r="U45" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="V45" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="X45" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Y45" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="AA45">
         <v>42</v>
@@ -5049,21 +5049,21 @@
         <v>58</v>
       </c>
       <c r="AD45" t="s">
-        <v>388</v>
+        <v>67</v>
       </c>
       <c r="AE45" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AF45" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>241</v>
+        <v>300</v>
       </c>
       <c r="B46" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="C46">
         <v>36</v>
@@ -5072,34 +5072,34 @@
         <v>60</v>
       </c>
       <c r="F46" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="G46" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="H46" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I46" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="M46" t="s">
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q46" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="S46" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T46" t="s">
-        <v>472</v>
+        <v>48</v>
       </c>
       <c r="V46" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="AA46">
         <v>42</v>
@@ -5108,18 +5108,18 @@
         <v>58</v>
       </c>
       <c r="AE46" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="AF46" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>242</v>
+        <v>305</v>
       </c>
       <c r="B47" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="C47">
         <v>37</v>
@@ -5128,46 +5128,46 @@
         <v>61</v>
       </c>
       <c r="F47" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G47" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="H47" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I47" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="J47" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="M47" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="N47">
         <v>1890</v>
       </c>
       <c r="O47" t="s">
-        <v>485</v>
+        <v>312</v>
       </c>
       <c r="P47" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q47" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="S47" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T47" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="V47" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="Y47" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AA47">
         <v>6</v>
@@ -5176,15 +5176,15 @@
         <v>42</v>
       </c>
       <c r="AD47" t="s">
-        <v>391</v>
+        <v>76</v>
       </c>
       <c r="AE47" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>243</v>
+        <v>314</v>
       </c>
       <c r="C48">
         <v>38</v>
@@ -5196,40 +5196,40 @@
         <v>2092</v>
       </c>
       <c r="F48" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="G48" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="H48" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I48" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="J48" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="M48" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="N48">
         <v>1903</v>
       </c>
       <c r="P48" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="S48" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T48" t="s">
-        <v>472</v>
+        <v>48</v>
       </c>
       <c r="V48" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="Y48" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AA48">
         <v>42</v>
@@ -5238,18 +5238,18 @@
         <v>58</v>
       </c>
       <c r="AD48" t="s">
-        <v>391</v>
+        <v>76</v>
       </c>
       <c r="AE48" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>244</v>
+        <v>317</v>
       </c>
       <c r="B49" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="C49">
         <v>39</v>
@@ -5258,43 +5258,43 @@
         <v>34</v>
       </c>
       <c r="F49" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="G49" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="H49" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I49" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="J49" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="M49" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="N49">
         <v>1898</v>
       </c>
       <c r="P49" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="S49" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T49" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="V49" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="X49" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Y49" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AA49">
         <v>6</v>
@@ -5303,57 +5303,57 @@
         <v>42</v>
       </c>
       <c r="AD49" t="s">
-        <v>390</v>
+        <v>322</v>
       </c>
       <c r="AE49" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>245</v>
+        <v>323</v>
       </c>
       <c r="C50">
         <v>40</v>
       </c>
       <c r="F50" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="G50" t="s">
-        <v>54</v>
+        <v>272</v>
       </c>
       <c r="H50" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I50" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="J50" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="M50" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="N50">
         <v>1893</v>
       </c>
       <c r="P50" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="S50" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T50" t="s">
-        <v>473</v>
+        <v>327</v>
       </c>
       <c r="V50" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="X50" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="Y50" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AA50">
         <v>6</v>
@@ -5362,60 +5362,60 @@
         <v>58</v>
       </c>
       <c r="AD50" t="s">
-        <v>383</v>
+        <v>81</v>
       </c>
       <c r="AE50" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="AF50" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>246</v>
+        <v>331</v>
       </c>
       <c r="C51">
         <v>41</v>
       </c>
       <c r="F51" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="G51" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="H51" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I51" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="J51" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="M51" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="N51">
         <v>1986</v>
       </c>
       <c r="P51" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="S51" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T51" t="s">
-        <v>472</v>
+        <v>48</v>
       </c>
       <c r="V51" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="X51" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="Y51" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="AA51">
         <v>42</v>
@@ -5424,57 +5424,57 @@
         <v>58</v>
       </c>
       <c r="AD51" t="s">
-        <v>386</v>
+        <v>122</v>
       </c>
       <c r="AE51" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>247</v>
+        <v>336</v>
       </c>
       <c r="C52">
         <v>42</v>
       </c>
       <c r="F52" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="G52" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="H52" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I52" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="J52" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="M52" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="N52">
         <v>1995</v>
       </c>
       <c r="P52" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="S52" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T52" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="V52" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="X52" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Y52" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AA52">
         <v>6</v>
@@ -5483,18 +5483,18 @@
         <v>42</v>
       </c>
       <c r="AD52" t="s">
-        <v>384</v>
+        <v>217</v>
       </c>
       <c r="AE52" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>248</v>
+        <v>339</v>
       </c>
       <c r="B53" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="C53">
         <v>43</v>
@@ -5506,40 +5506,40 @@
         <v>1941</v>
       </c>
       <c r="F53" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="G53" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="H53" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I53" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="J53" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="M53" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="N53">
         <v>1878</v>
       </c>
       <c r="P53" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="S53" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="T53" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="V53" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="Y53" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AA53">
         <v>6</v>
@@ -5548,18 +5548,18 @@
         <v>58</v>
       </c>
       <c r="AE53" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AF53" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>249</v>
+        <v>345</v>
       </c>
       <c r="B54" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="C54">
         <v>44</v>
@@ -5568,43 +5568,43 @@
         <v>62</v>
       </c>
       <c r="F54" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="G54" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="H54" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I54" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="J54" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="M54" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="N54">
         <v>1900</v>
       </c>
       <c r="P54" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q54" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="S54" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T54" t="s">
-        <v>472</v>
+        <v>48</v>
       </c>
       <c r="V54" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="X54" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AA54">
         <v>42</v>
@@ -5613,18 +5613,18 @@
         <v>58</v>
       </c>
       <c r="AD54" t="s">
-        <v>391</v>
+        <v>76</v>
       </c>
       <c r="AE54" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="AF54" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>250</v>
+        <v>355</v>
       </c>
       <c r="C55">
         <v>45</v>
@@ -5633,43 +5633,43 @@
         <v>63</v>
       </c>
       <c r="E55" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="F55" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="G55" t="s">
-        <v>54</v>
+        <v>272</v>
       </c>
       <c r="H55" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I55" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="J55" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="M55" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="N55">
         <v>1938</v>
       </c>
       <c r="P55" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q55" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="S55" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T55" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="V55" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="AA55">
         <v>6</v>
@@ -5678,18 +5678,18 @@
         <v>42</v>
       </c>
       <c r="AD55" t="s">
-        <v>393</v>
+        <v>130</v>
       </c>
       <c r="AE55" t="s">
-        <v>322</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>251</v>
+        <v>360</v>
       </c>
       <c r="B56" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="C56">
         <v>46</v>
@@ -5698,43 +5698,43 @@
         <v>16</v>
       </c>
       <c r="F56" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="G56" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="H56" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I56" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="J56" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="P56" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="R56" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="S56" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T56" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="V56" t="s">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="X56" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Y56" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="Z56" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="AA56">
         <v>6</v>
@@ -5743,54 +5743,54 @@
         <v>42</v>
       </c>
       <c r="AD56" t="s">
-        <v>391</v>
+        <v>76</v>
       </c>
       <c r="AE56" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>252</v>
+        <v>365</v>
       </c>
       <c r="C57">
         <v>47</v>
       </c>
       <c r="F57" t="s">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="G57" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="H57" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I57" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="J57" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="M57" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="N57">
         <v>1893</v>
       </c>
       <c r="P57" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="S57" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="T57" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="V57" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="Y57" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AA57">
         <v>6</v>
@@ -5799,21 +5799,21 @@
         <v>58</v>
       </c>
       <c r="AD57" t="s">
-        <v>391</v>
+        <v>76</v>
       </c>
       <c r="AE57" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AF57" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>253</v>
+        <v>370</v>
       </c>
       <c r="B58" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="C58">
         <v>48</v>
@@ -5822,43 +5822,43 @@
         <v>82</v>
       </c>
       <c r="F58" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="G58" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="H58" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I58" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="J58" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="M58" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="N58">
         <v>1878</v>
       </c>
       <c r="P58" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="R58" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="S58" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="T58" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="V58" t="s">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="Y58" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="AA58">
         <v>6</v>
@@ -5867,18 +5867,18 @@
         <v>58</v>
       </c>
       <c r="AE58" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AF58" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>254</v>
+        <v>377</v>
       </c>
       <c r="B59" t="s">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="C59">
         <v>49</v>
@@ -5887,31 +5887,31 @@
         <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="H59" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I59" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="J59" t="s">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="M59" t="s">
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="S59" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="T59" t="s">
-        <v>472</v>
+        <v>48</v>
       </c>
       <c r="V59" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="AA59">
         <v>42</v>
@@ -5920,15 +5920,15 @@
         <v>58</v>
       </c>
       <c r="AE59" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="AF59" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>324</v>
+        <v>384</v>
       </c>
       <c r="C60">
         <v>50</v>
@@ -5937,43 +5937,43 @@
         <v>64</v>
       </c>
       <c r="E60" t="s">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="F60" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="G60" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="H60" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I60" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="J60" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="N60">
         <v>1904</v>
       </c>
       <c r="O60" t="s">
-        <v>486</v>
+        <v>387</v>
       </c>
       <c r="P60" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q60" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="S60" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T60" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="V60" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="AA60">
         <v>6</v>
@@ -5982,15 +5982,15 @@
         <v>42</v>
       </c>
       <c r="AE60" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AF60" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>325</v>
+        <v>390</v>
       </c>
       <c r="C61">
         <v>51</v>
@@ -5999,37 +5999,37 @@
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="F61" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="G61" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="H61" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I61" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="J61" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="P61" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="R61" t="s">
-        <v>359</v>
+        <v>139</v>
       </c>
       <c r="S61" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T61" t="s">
-        <v>472</v>
+        <v>48</v>
       </c>
       <c r="V61" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="AA61">
         <v>42</v>
@@ -6038,15 +6038,15 @@
         <v>58</v>
       </c>
       <c r="AE61" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>326</v>
+        <v>395</v>
       </c>
       <c r="B62" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="C62">
         <v>52</v>
@@ -6055,34 +6055,34 @@
         <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="G62" t="s">
-        <v>14</v>
+        <v>398</v>
       </c>
       <c r="H62" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I62" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="J62" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="P62" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q62" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="S62" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T62" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="V62" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="AA62">
         <v>6</v>
@@ -6091,18 +6091,18 @@
         <v>42</v>
       </c>
       <c r="AE62" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="AF62" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>327</v>
+        <v>402</v>
       </c>
       <c r="B63" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="C63">
         <v>53</v>
@@ -6111,40 +6111,40 @@
         <v>65</v>
       </c>
       <c r="F63" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="G63" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="H63" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I63" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="J63" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="M63" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="N63">
         <v>1856</v>
       </c>
       <c r="P63" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q63" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="S63" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T63" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="V63" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="AA63">
         <v>6</v>
@@ -6153,12 +6153,12 @@
         <v>42</v>
       </c>
       <c r="AE63" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>328</v>
+        <v>407</v>
       </c>
       <c r="C64">
         <v>54</v>
@@ -6167,49 +6167,49 @@
         <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="F64" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="G64" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="H64" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I64" t="s">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="J64" t="s">
-        <v>374</v>
+        <v>412</v>
       </c>
       <c r="M64" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="P64" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="R64" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="S64" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T64" t="s">
-        <v>474</v>
+        <v>415</v>
       </c>
       <c r="V64" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="X64" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Y64" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="Z64" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="AA64">
         <v>171</v>
@@ -6218,21 +6218,21 @@
         <v>230</v>
       </c>
       <c r="AD64" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="AE64" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AF64" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>329</v>
+        <v>419</v>
       </c>
       <c r="B65" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
       <c r="C65">
         <v>55</v>
@@ -6241,43 +6241,43 @@
         <v>75</v>
       </c>
       <c r="F65" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="G65" t="s">
-        <v>54</v>
+        <v>272</v>
       </c>
       <c r="H65" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I65" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="J65" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="M65" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="N65">
         <v>1880</v>
       </c>
       <c r="P65" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="S65" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T65" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="V65" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="Y65" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="Z65" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="AA65">
         <v>6</v>
@@ -6286,18 +6286,18 @@
         <v>58</v>
       </c>
       <c r="AD65" t="s">
-        <v>391</v>
+        <v>76</v>
       </c>
       <c r="AE65" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="AF65" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="C66">
         <v>56</v>
@@ -6306,52 +6306,52 @@
         <v>20</v>
       </c>
       <c r="E66" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="F66" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="G66" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="H66" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I66" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="J66" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="M66" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="N66">
         <v>1913</v>
       </c>
       <c r="P66" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="R66" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="S66" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T66" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="V66" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="X66" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="Y66" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="Z66" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="AA66">
         <v>6</v>
@@ -6360,85 +6360,85 @@
         <v>42</v>
       </c>
       <c r="AD66" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="AE66" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AF66" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="C67">
         <v>57</v>
       </c>
       <c r="T67" t="s">
-        <v>472</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="C68">
         <v>58</v>
       </c>
       <c r="T68" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="C69">
         <v>59</v>
       </c>
       <c r="F69" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="G69" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="H69" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I69" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="J69" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="M69" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="N69">
         <v>1986</v>
       </c>
       <c r="P69" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="S69" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T69" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="V69" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="X69" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Y69" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="Z69" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="AA69">
         <v>6</v>
@@ -6447,111 +6447,111 @@
         <v>42</v>
       </c>
       <c r="AD69" t="s">
-        <v>391</v>
+        <v>76</v>
       </c>
       <c r="AE69" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AF69" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>399</v>
+        <v>438</v>
       </c>
       <c r="C70">
         <v>60</v>
       </c>
       <c r="F70" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="G70" t="s">
-        <v>54</v>
+        <v>272</v>
       </c>
       <c r="H70" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I70" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="J70" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="M70" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="N70">
         <v>2002</v>
       </c>
       <c r="P70" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q70" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="S70" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T70" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="V70" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="X70" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="Y70" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z70" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="AA70" s="3">
+        <v>42</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>364</v>
+      </c>
+      <c r="AA70">
         <v>6</v>
       </c>
-      <c r="AB70" s="3">
-        <v>42</v>
-      </c>
-      <c r="AC70" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="AD70" s="3" t="s">
-        <v>383</v>
+      <c r="AB70">
+        <v>42</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>81</v>
       </c>
       <c r="AE70" t="s">
-        <v>322</v>
+        <v>276</v>
       </c>
       <c r="AF70" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="C71">
         <v>61</v>
       </c>
       <c r="T71" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="C72">
         <v>62</v>
       </c>
       <c r="T72" t="s">
-        <v>472</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="C73">
         <v>63</v>
@@ -6560,52 +6560,52 @@
         <v>68</v>
       </c>
       <c r="E73" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="F73" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="G73" t="s">
-        <v>54</v>
+        <v>272</v>
       </c>
       <c r="H73" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I73" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="J73" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="M73" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="N73">
         <v>1908</v>
       </c>
       <c r="P73" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q73" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="S73" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T73" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="V73" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="X73" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Y73" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="Z73" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="AA73">
         <v>6</v>
@@ -6614,21 +6614,21 @@
         <v>42</v>
       </c>
       <c r="AD73" t="s">
-        <v>383</v>
+        <v>81</v>
       </c>
       <c r="AE73" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="AF73" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="B74" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="C74">
         <v>64</v>
@@ -6637,46 +6637,46 @@
         <v>69</v>
       </c>
       <c r="F74" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="G74" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="H74" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I74" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="M74" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="N74">
         <v>1881</v>
       </c>
       <c r="P74" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="Q74" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="S74" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T74" t="s">
-        <v>472</v>
+        <v>48</v>
       </c>
       <c r="V74" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="X74" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Y74" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="Z74" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="AA74">
         <v>42</v>
@@ -6685,69 +6685,69 @@
         <v>58</v>
       </c>
       <c r="AD74" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="AE74" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>404</v>
+        <v>457</v>
       </c>
       <c r="B75" t="s">
-        <v>434</v>
-      </c>
-      <c r="C75" s="2">
+        <v>458</v>
+      </c>
+      <c r="C75">
         <v>65</v>
       </c>
       <c r="D75">
         <v>70</v>
       </c>
       <c r="F75" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="G75" t="s">
-        <v>435</v>
+        <v>460</v>
       </c>
       <c r="H75" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I75" t="s">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="J75" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="M75" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="N75">
         <v>1886</v>
       </c>
       <c r="P75" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q75" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="S75" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="T75" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="V75" t="s">
-        <v>439</v>
+        <v>464</v>
       </c>
       <c r="X75" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Y75" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="Z75" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="AA75">
         <v>6</v>
@@ -6756,60 +6756,60 @@
         <v>42</v>
       </c>
       <c r="AD75" t="s">
-        <v>391</v>
+        <v>76</v>
       </c>
       <c r="AE75" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AF75" t="s">
-        <v>438</v>
+        <v>465</v>
       </c>
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>405</v>
+        <v>466</v>
       </c>
       <c r="B76" t="s">
-        <v>441</v>
-      </c>
-      <c r="C76" s="2">
+        <v>467</v>
+      </c>
+      <c r="C76">
         <v>67</v>
       </c>
       <c r="D76">
         <v>11</v>
       </c>
       <c r="G76" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="H76" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I76" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="M76" t="s">
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="R76" t="s">
-        <v>359</v>
+        <v>139</v>
       </c>
       <c r="S76" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T76" t="s">
-        <v>472</v>
+        <v>48</v>
       </c>
       <c r="V76" t="s">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="X76" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Z76" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="AA76">
         <v>42</v>
@@ -6818,21 +6818,21 @@
         <v>58</v>
       </c>
       <c r="AD76" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="AE76" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="AF76" t="s">
-        <v>444</v>
+        <v>472</v>
       </c>
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>406</v>
+        <v>473</v>
       </c>
       <c r="B77" t="s">
-        <v>447</v>
+        <v>474</v>
       </c>
       <c r="C77">
         <v>68</v>
@@ -6841,43 +6841,43 @@
         <v>39</v>
       </c>
       <c r="F77" t="s">
-        <v>448</v>
+        <v>475</v>
       </c>
       <c r="G77" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="H77" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I77" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="J77" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="M77" t="s">
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="S77" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T77" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="V77" t="s">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="X77" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Y77" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="Z77" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="AA77">
         <v>6</v>
@@ -6886,15 +6886,15 @@
         <v>42</v>
       </c>
       <c r="AD77" t="s">
-        <v>391</v>
+        <v>76</v>
       </c>
       <c r="AE77" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>407</v>
+        <v>477</v>
       </c>
       <c r="C78">
         <v>69</v>
@@ -6903,52 +6903,52 @@
         <v>17</v>
       </c>
       <c r="E78" t="s">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="F78" t="s">
-        <v>453</v>
+        <v>479</v>
       </c>
       <c r="G78" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="H78" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I78" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="J78" t="s">
-        <v>452</v>
+        <v>480</v>
       </c>
       <c r="M78" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="N78">
         <v>1914</v>
       </c>
       <c r="P78" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="R78" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="S78" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T78" t="s">
-        <v>472</v>
+        <v>48</v>
       </c>
       <c r="V78" t="s">
-        <v>454</v>
+        <v>481</v>
       </c>
       <c r="X78" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Y78" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="Z78" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="AA78">
         <v>42</v>
@@ -6957,18 +6957,18 @@
         <v>58</v>
       </c>
       <c r="AD78" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="AE78" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AF78" t="s">
-        <v>455</v>
+        <v>482</v>
       </c>
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>408</v>
+        <v>483</v>
       </c>
       <c r="C79">
         <v>70</v>
@@ -6977,46 +6977,46 @@
         <v>71</v>
       </c>
       <c r="E79" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
       <c r="F79" t="s">
-        <v>457</v>
+        <v>485</v>
       </c>
       <c r="G79" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="H79" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I79" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="J79" t="s">
-        <v>459</v>
+        <v>486</v>
       </c>
       <c r="M79" t="s">
-        <v>458</v>
+        <v>487</v>
       </c>
       <c r="N79">
         <v>1928</v>
       </c>
       <c r="P79" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q79" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="S79" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T79" t="s">
-        <v>472</v>
+        <v>48</v>
       </c>
       <c r="V79" t="s">
-        <v>460</v>
+        <v>488</v>
       </c>
       <c r="X79" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AA79">
         <v>42</v>
@@ -7025,82 +7025,82 @@
         <v>58</v>
       </c>
       <c r="AD79" t="s">
-        <v>391</v>
+        <v>76</v>
       </c>
       <c r="AE79" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AF79" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>409</v>
+        <v>490</v>
       </c>
       <c r="C80">
         <v>71</v>
       </c>
       <c r="T80" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>410</v>
-      </c>
-      <c r="C81" s="2">
+        <v>491</v>
+      </c>
+      <c r="C81">
         <v>72</v>
       </c>
       <c r="T81" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>411</v>
-      </c>
-      <c r="C82" s="2">
+        <v>492</v>
+      </c>
+      <c r="C82">
         <v>74</v>
       </c>
       <c r="F82" t="s">
-        <v>471</v>
+        <v>493</v>
       </c>
       <c r="G82" t="s">
-        <v>54</v>
+        <v>272</v>
       </c>
       <c r="H82" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I82" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="J82" t="s">
-        <v>468</v>
+        <v>494</v>
       </c>
       <c r="M82" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="N82">
         <v>1981</v>
       </c>
       <c r="P82" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q82" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="S82" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T82" t="s">
-        <v>473</v>
+        <v>327</v>
       </c>
       <c r="V82" t="s">
-        <v>467</v>
+        <v>496</v>
       </c>
       <c r="X82" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AA82">
         <v>6</v>
@@ -7109,21 +7109,21 @@
         <v>58</v>
       </c>
       <c r="AD82" t="s">
-        <v>391</v>
+        <v>76</v>
       </c>
       <c r="AE82" t="s">
-        <v>322</v>
+        <v>276</v>
       </c>
       <c r="AF82" t="s">
-        <v>469</v>
+        <v>497</v>
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>412</v>
+        <v>498</v>
       </c>
       <c r="B83" t="s">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="C83">
         <v>75</v>
@@ -7132,37 +7132,37 @@
         <v>47</v>
       </c>
       <c r="F83" t="s">
-        <v>463</v>
+        <v>500</v>
       </c>
       <c r="G83" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="H83" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I83" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="M83" t="s">
-        <v>464</v>
+        <v>501</v>
       </c>
       <c r="N83">
         <v>1885</v>
       </c>
       <c r="P83" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q83" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="S83" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="T83" t="s">
-        <v>472</v>
+        <v>48</v>
       </c>
       <c r="V83" t="s">
-        <v>465</v>
+        <v>502</v>
       </c>
       <c r="AA83">
         <v>42</v>
@@ -7171,14 +7171,78 @@
         <v>58</v>
       </c>
       <c r="AE83" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AF83" t="s">
-        <v>466</v>
+        <v>503</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>504</v>
+      </c>
+      <c r="B84" t="s">
+        <v>505</v>
+      </c>
+      <c r="C84">
+        <v>97</v>
+      </c>
+      <c r="D84">
+        <v>7</v>
+      </c>
+      <c r="F84" t="s">
+        <v>506</v>
+      </c>
+      <c r="G84" t="s">
+        <v>507</v>
+      </c>
+      <c r="H84" t="s">
+        <v>35</v>
+      </c>
+      <c r="I84" t="s">
+        <v>508</v>
+      </c>
+      <c r="J84" t="s">
+        <v>509</v>
+      </c>
+      <c r="K84">
+        <v>44.15513</v>
+      </c>
+      <c r="L84">
+        <v>17.176079999999999</v>
+      </c>
+      <c r="M84" t="s">
+        <v>510</v>
+      </c>
+      <c r="N84">
+        <v>1890</v>
+      </c>
+      <c r="P84" t="s">
+        <v>57</v>
+      </c>
+      <c r="S84" t="s">
+        <v>38</v>
+      </c>
+      <c r="T84" t="s">
+        <v>39</v>
+      </c>
+      <c r="V84" t="s">
+        <v>511</v>
+      </c>
+      <c r="AA84">
+        <v>40</v>
+      </c>
+      <c r="AB84">
+        <v>41</v>
+      </c>
+      <c r="AE84" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>512</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/test-inscription_spreadsheet.xlsx
+++ b/test-inscription_spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ewan Coopey\Documents\GitHub\BromansCoopey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37C9D7F1-8BD8-45E7-9774-82FA37A81220}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A088AD1C-8EBF-452D-9CBC-35A6944ACEBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="240" windowWidth="23040" windowHeight="12120"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="533">
   <si>
     <t>MonumentID</t>
   </si>
@@ -1561,13 +1561,74 @@
   </si>
   <si>
     <t xml:space="preserve">Copy of the monument held in National museum in Sarajevo </t>
+  </si>
+  <si>
+    <t>B84</t>
+  </si>
+  <si>
+    <t>B85</t>
+  </si>
+  <si>
+    <t>B86</t>
+  </si>
+  <si>
+    <t>B87</t>
+  </si>
+  <si>
+    <t>B88</t>
+  </si>
+  <si>
+    <t>B89</t>
+  </si>
+  <si>
+    <t>B90</t>
+  </si>
+  <si>
+    <t>03, 06826</t>
+  </si>
+  <si>
+    <t>03, 06827</t>
+  </si>
+  <si>
+    <t>Antiochia Pisidiae</t>
+  </si>
+  <si>
+    <t>Galatia</t>
+  </si>
+  <si>
+    <t>S22</t>
+  </si>
+  <si>
+    <t>T(itus) Cissonius / Q(uinti) f(ilius) Serg(ia) / veter(anus) l(egionis) VII dum vixi / bibi libenter bibite vos / qui vivitis / P(ublius) Cissonius Q(uinti) f(ilius) Ser(gia) frater / fecit</t>
+  </si>
+  <si>
+    <t>AE 1998, +01386; Mitchell1973; Whately2016</t>
+  </si>
+  <si>
+    <t>miles</t>
+  </si>
+  <si>
+    <t>L(ucius) Coelius / L(uci) f(ilius) Ani(ensi) mil(es) / leg(ionis) VII ex / test(amento) Faust(us) l(ibertus)</t>
+  </si>
+  <si>
+    <t>My own dates</t>
+  </si>
+  <si>
+    <t>C. Iulius C. f. Papiria natus Cormasa missicius lecinis VII eques mono mentum fηcit sibi et Iulio Iucundo liberto</t>
+  </si>
+  <si>
+    <t>near Antiochia Pisidiae</t>
+  </si>
+  <si>
+    <t>G.E. Bean, Anatolian Studies 9
+(1959), 93.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1698,6 +1759,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2404,13 +2471,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF84"/>
+  <dimension ref="A1:AF91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="L84" sqref="L84"/>
+    <sheetView tabSelected="1" topLeftCell="V76" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2672,7 +2742,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -7242,7 +7312,154 @@
         <v>512</v>
       </c>
     </row>
+    <row r="85" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>513</v>
+      </c>
+      <c r="B85" t="s">
+        <v>520</v>
+      </c>
+      <c r="F85" t="s">
+        <v>526</v>
+      </c>
+      <c r="H85" t="s">
+        <v>523</v>
+      </c>
+      <c r="I85" t="s">
+        <v>522</v>
+      </c>
+      <c r="P85" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>47</v>
+      </c>
+      <c r="S85" t="s">
+        <v>38</v>
+      </c>
+      <c r="T85" t="s">
+        <v>39</v>
+      </c>
+      <c r="V85" t="s">
+        <v>525</v>
+      </c>
+      <c r="AA85">
+        <v>-30</v>
+      </c>
+      <c r="AB85">
+        <v>7</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="86" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>514</v>
+      </c>
+      <c r="B86" t="s">
+        <v>521</v>
+      </c>
+      <c r="F86" t="s">
+        <v>526</v>
+      </c>
+      <c r="G86" t="s">
+        <v>524</v>
+      </c>
+      <c r="H86" t="s">
+        <v>523</v>
+      </c>
+      <c r="I86" t="s">
+        <v>522</v>
+      </c>
+      <c r="P86" t="s">
+        <v>46</v>
+      </c>
+      <c r="R86" t="s">
+        <v>527</v>
+      </c>
+      <c r="S86" t="s">
+        <v>38</v>
+      </c>
+      <c r="T86" t="s">
+        <v>39</v>
+      </c>
+      <c r="V86" t="s">
+        <v>528</v>
+      </c>
+      <c r="AA86">
+        <v>-30</v>
+      </c>
+      <c r="AB86">
+        <v>7</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>515</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="H87" t="s">
+        <v>523</v>
+      </c>
+      <c r="J87" t="s">
+        <v>531</v>
+      </c>
+      <c r="N87">
+        <v>1888</v>
+      </c>
+      <c r="P87" t="s">
+        <v>46</v>
+      </c>
+      <c r="R87" t="s">
+        <v>88</v>
+      </c>
+      <c r="S87" t="s">
+        <v>38</v>
+      </c>
+      <c r="T87" t="s">
+        <v>39</v>
+      </c>
+      <c r="V87" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="AA87">
+        <v>-30</v>
+      </c>
+      <c r="AB87">
+        <v>7</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="88" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="89" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="90" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="91" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>519</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/test-inscription_spreadsheet.xlsx
+++ b/test-inscription_spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ewan Coopey\Documents\GitHub\BromansCoopey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A088AD1C-8EBF-452D-9CBC-35A6944ACEBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BE10BBF6-A79B-47BD-ABAD-061655C3392C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="240" windowWidth="23040" windowHeight="12120"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="test-inscription_spreadsheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="544">
   <si>
     <t>MonumentID</t>
   </si>
@@ -1407,12 +1407,6 @@
     <t>S19</t>
   </si>
   <si>
-    <t>Bijaći</t>
-  </si>
-  <si>
-    <t>Siculi-Tragurium</t>
-  </si>
-  <si>
     <t>BD-VAHD-9_1886</t>
   </si>
   <si>
@@ -1566,15 +1560,72 @@
     <t>B84</t>
   </si>
   <si>
+    <t>03, 06826</t>
+  </si>
+  <si>
+    <t>AE 1998, +01386; Mitchell1973; Whately2016</t>
+  </si>
+  <si>
+    <t>S22</t>
+  </si>
+  <si>
+    <t>Galatia</t>
+  </si>
+  <si>
+    <t>Antiochia Pisidiae</t>
+  </si>
+  <si>
+    <t>T(itus) Cissonius / Q(uinti) f(ilius) Serg(ia) / veter(anus) l(egionis) VII dum vixi / bibi libenter bibite vos / qui vivitis / P(ublius) Cissonius Q(uinti) f(ilius) Ser(gia) frater / fecit</t>
+  </si>
+  <si>
+    <t>My own dates</t>
+  </si>
+  <si>
     <t>B85</t>
   </si>
   <si>
+    <t>03, 06827</t>
+  </si>
+  <si>
+    <t>miles</t>
+  </si>
+  <si>
+    <t>L(ucius) Coelius / L(uci) f(ilius) Ani(ensi) mil(es) / leg(ionis) VII ex / test(amento) Faust(us) l(ibertus)</t>
+  </si>
+  <si>
     <t>B86</t>
   </si>
   <si>
+    <t>Bean1959p.93; Whately2016</t>
+  </si>
+  <si>
+    <t>S23</t>
+  </si>
+  <si>
+    <t>Cormasa</t>
+  </si>
+  <si>
+    <t>near Antiochia Pisidiae</t>
+  </si>
+  <si>
+    <t>C. Iulius C. f. Papiria natus Cormasa missicius lecinis VII eques mono mentum fηcit sibi et Iulio Iucundo liberto</t>
+  </si>
+  <si>
     <t>B87</t>
   </si>
   <si>
+    <t>IGRRP-3, 01476; Whately2016</t>
+  </si>
+  <si>
+    <t>S24</t>
+  </si>
+  <si>
+    <t>Iconium</t>
+  </si>
+  <si>
+    <t>P. Mestrius P.f. Maecianus, ueteranus [leg. VII?], M. Lollio | M. f., ueterano leg. Septumae, amico [bene mereti?] posuit.|</t>
+  </si>
+  <si>
     <t>B88</t>
   </si>
   <si>
@@ -1584,51 +1635,32 @@
     <t>B90</t>
   </si>
   <si>
-    <t>03, 06826</t>
-  </si>
-  <si>
-    <t>03, 06827</t>
-  </si>
-  <si>
-    <t>Antiochia Pisidiae</t>
-  </si>
-  <si>
-    <t>Galatia</t>
-  </si>
-  <si>
-    <t>S22</t>
-  </si>
-  <si>
-    <t>T(itus) Cissonius / Q(uinti) f(ilius) Serg(ia) / veter(anus) l(egionis) VII dum vixi / bibi libenter bibite vos / qui vivitis / P(ublius) Cissonius Q(uinti) f(ilius) Ser(gia) frater / fecit</t>
-  </si>
-  <si>
-    <t>AE 1998, +01386; Mitchell1973; Whately2016</t>
-  </si>
-  <si>
-    <t>miles</t>
-  </si>
-  <si>
-    <t>L(ucius) Coelius / L(uci) f(ilius) Ani(ensi) mil(es) / leg(ionis) VII ex / test(amento) Faust(us) l(ibertus)</t>
-  </si>
-  <si>
-    <t>My own dates</t>
-  </si>
-  <si>
-    <t>C. Iulius C. f. Papiria natus Cormasa missicius lecinis VII eques mono mentum fηcit sibi et Iulio Iucundo liberto</t>
-  </si>
-  <si>
-    <t>near Antiochia Pisidiae</t>
-  </si>
-  <si>
-    <t>G.E. Bean, Anatolian Studies 9
-(1959), 93.</t>
+    <t>Bijaći-Siculi</t>
+  </si>
+  <si>
+    <t>Matijević2017</t>
+  </si>
+  <si>
+    <t>Matijević 2017: 126-127.</t>
+  </si>
+  <si>
+    <t>C(aius) Auliu[s] C(ai) f(ilius) / Ani(ensis) Se- cundus / domo Cremona / vet(eranus) leg(ionis) VII C(laudiae) p(iae) f(idelis) /5 h(ic) s(itus) e(st) Arria / Agat(h)emeris co(n)iugi /caris(s)imo ben[e] / merenti posu[it et(?)] / Q(uinto) Arri(o) Prisc[o(?) p(atri) vel fr(atri) vel p(atrono)] / se viva et / sibi posuit.</t>
+  </si>
+  <si>
+    <t>Here lies Gaius Aulius Secundus, son of Gaius, (registered in the voting tribe Aniensis, (from) the city of Cremona, veteran of legio VII Claudia pia fidelis. Arria Agathemeris made this for herself and her well-deserving husband, [and(?)] Quintus Arrius Priscus (?) [father or brother or patron]</t>
+  </si>
+  <si>
+    <t>Now in secondary situ (in multiple pieces) inside a modern house. It was damaged during excvation, but is thought to have originally been in situ.</t>
+  </si>
+  <si>
+    <t>Near Tragurium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1759,12 +1791,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2113,9 +2139,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2473,14 +2497,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V76" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S92" sqref="S92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2742,7 +2763,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -6784,13 +6805,13 @@
         <v>35</v>
       </c>
       <c r="I75" t="s">
+        <v>537</v>
+      </c>
+      <c r="J75" t="s">
+        <v>543</v>
+      </c>
+      <c r="M75" t="s">
         <v>461</v>
-      </c>
-      <c r="J75" t="s">
-        <v>462</v>
-      </c>
-      <c r="M75" t="s">
-        <v>463</v>
       </c>
       <c r="N75">
         <v>1886</v>
@@ -6808,7 +6829,7 @@
         <v>39</v>
       </c>
       <c r="V75" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="X75" t="s">
         <v>41</v>
@@ -6832,15 +6853,15 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B76" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C76">
         <v>67</v>
@@ -6849,13 +6870,13 @@
         <v>11</v>
       </c>
       <c r="G76" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H76" t="s">
         <v>35</v>
       </c>
       <c r="I76" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="M76" t="s">
         <v>1</v>
@@ -6873,7 +6894,7 @@
         <v>48</v>
       </c>
       <c r="V76" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="X76" t="s">
         <v>41</v>
@@ -6891,18 +6912,18 @@
         <v>413</v>
       </c>
       <c r="AE76" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AF76" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B77" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C77">
         <v>68</v>
@@ -6911,7 +6932,7 @@
         <v>39</v>
       </c>
       <c r="F77" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G77" t="s">
         <v>181</v>
@@ -6938,7 +6959,7 @@
         <v>39</v>
       </c>
       <c r="V77" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="X77" t="s">
         <v>41</v>
@@ -6964,7 +6985,7 @@
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C78">
         <v>69</v>
@@ -6973,10 +6994,10 @@
         <v>17</v>
       </c>
       <c r="E78" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F78" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G78" t="s">
         <v>178</v>
@@ -6988,7 +7009,7 @@
         <v>55</v>
       </c>
       <c r="J78" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M78" t="s">
         <v>93</v>
@@ -7009,7 +7030,7 @@
         <v>48</v>
       </c>
       <c r="V78" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="X78" t="s">
         <v>41</v>
@@ -7033,12 +7054,12 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C79">
         <v>70</v>
@@ -7047,10 +7068,10 @@
         <v>71</v>
       </c>
       <c r="E79" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F79" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G79" t="s">
         <v>178</v>
@@ -7062,10 +7083,10 @@
         <v>55</v>
       </c>
       <c r="J79" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M79" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="N79">
         <v>1928</v>
@@ -7083,7 +7104,7 @@
         <v>48</v>
       </c>
       <c r="V79" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="X79" t="s">
         <v>41</v>
@@ -7101,12 +7122,12 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C80">
         <v>71</v>
@@ -7117,7 +7138,7 @@
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C81">
         <v>72</v>
@@ -7128,13 +7149,13 @@
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C82">
         <v>74</v>
       </c>
       <c r="F82" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G82" t="s">
         <v>272</v>
@@ -7146,10 +7167,10 @@
         <v>126</v>
       </c>
       <c r="J82" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M82" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="N82">
         <v>1981</v>
@@ -7167,7 +7188,7 @@
         <v>327</v>
       </c>
       <c r="V82" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="X82" t="s">
         <v>41</v>
@@ -7185,15 +7206,15 @@
         <v>276</v>
       </c>
       <c r="AF82" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B83" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C83">
         <v>75</v>
@@ -7202,7 +7223,7 @@
         <v>47</v>
       </c>
       <c r="F83" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G83" t="s">
         <v>178</v>
@@ -7214,7 +7235,7 @@
         <v>55</v>
       </c>
       <c r="M83" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="N83">
         <v>1885</v>
@@ -7232,7 +7253,7 @@
         <v>48</v>
       </c>
       <c r="V83" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AA83">
         <v>42</v>
@@ -7244,15 +7265,15 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B84" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C84">
         <v>97</v>
@@ -7261,19 +7282,19 @@
         <v>7</v>
       </c>
       <c r="F84" t="s">
+        <v>504</v>
+      </c>
+      <c r="G84" t="s">
+        <v>505</v>
+      </c>
+      <c r="H84" t="s">
+        <v>35</v>
+      </c>
+      <c r="I84" t="s">
         <v>506</v>
       </c>
-      <c r="G84" t="s">
+      <c r="J84" t="s">
         <v>507</v>
-      </c>
-      <c r="H84" t="s">
-        <v>35</v>
-      </c>
-      <c r="I84" t="s">
-        <v>508</v>
-      </c>
-      <c r="J84" t="s">
-        <v>509</v>
       </c>
       <c r="K84">
         <v>44.15513</v>
@@ -7282,7 +7303,7 @@
         <v>17.176079999999999</v>
       </c>
       <c r="M84" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="N84">
         <v>1890</v>
@@ -7297,7 +7318,7 @@
         <v>39</v>
       </c>
       <c r="V84" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AA84">
         <v>40</v>
@@ -7309,24 +7330,27 @@
         <v>91</v>
       </c>
       <c r="AF84" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>511</v>
+      </c>
+      <c r="B85" t="s">
+        <v>512</v>
+      </c>
+      <c r="F85" t="s">
         <v>513</v>
       </c>
-      <c r="B85" t="s">
-        <v>520</v>
-      </c>
-      <c r="F85" t="s">
-        <v>526</v>
+      <c r="G85" t="s">
+        <v>514</v>
       </c>
       <c r="H85" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="I85" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="P85" t="s">
         <v>46</v>
@@ -7341,7 +7365,7 @@
         <v>39</v>
       </c>
       <c r="V85" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="AA85">
         <v>-30</v>
@@ -7350,33 +7374,33 @@
         <v>7</v>
       </c>
       <c r="AC85" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>519</v>
+      </c>
+      <c r="B86" t="s">
+        <v>520</v>
+      </c>
+      <c r="F86" t="s">
+        <v>513</v>
+      </c>
+      <c r="G86" t="s">
         <v>514</v>
       </c>
-      <c r="B86" t="s">
-        <v>521</v>
-      </c>
-      <c r="F86" t="s">
-        <v>526</v>
-      </c>
-      <c r="G86" t="s">
-        <v>524</v>
-      </c>
       <c r="H86" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="I86" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="P86" t="s">
         <v>46</v>
       </c>
       <c r="R86" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="S86" t="s">
         <v>38</v>
@@ -7385,7 +7409,7 @@
         <v>39</v>
       </c>
       <c r="V86" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="AA86">
         <v>-30</v>
@@ -7394,21 +7418,27 @@
         <v>7</v>
       </c>
       <c r="AC86" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="87" spans="1:32" ht="201.6" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>523</v>
+      </c>
+      <c r="F87" t="s">
+        <v>524</v>
+      </c>
+      <c r="G87" t="s">
+        <v>525</v>
+      </c>
+      <c r="H87" t="s">
         <v>515</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="H87" t="s">
-        <v>523</v>
+      <c r="I87" t="s">
+        <v>526</v>
       </c>
       <c r="J87" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="N87">
         <v>1888</v>
@@ -7425,8 +7455,8 @@
       <c r="T87" t="s">
         <v>39</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>530</v>
+      <c r="V87" t="s">
+        <v>528</v>
       </c>
       <c r="AA87">
         <v>-30</v>
@@ -7435,32 +7465,123 @@
         <v>7</v>
       </c>
       <c r="AC87" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>516</v>
+        <v>529</v>
+      </c>
+      <c r="F88" t="s">
+        <v>530</v>
+      </c>
+      <c r="G88" t="s">
+        <v>531</v>
+      </c>
+      <c r="H88" t="s">
+        <v>515</v>
+      </c>
+      <c r="I88" t="s">
+        <v>532</v>
+      </c>
+      <c r="J88" t="s">
+        <v>527</v>
+      </c>
+      <c r="N88">
+        <v>1902</v>
+      </c>
+      <c r="P88" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>47</v>
+      </c>
+      <c r="S88" t="s">
+        <v>38</v>
+      </c>
+      <c r="T88" t="s">
+        <v>39</v>
+      </c>
+      <c r="V88" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>517</v>
+        <v>534</v>
+      </c>
+      <c r="F89" t="s">
+        <v>539</v>
+      </c>
+      <c r="G89" t="s">
+        <v>460</v>
+      </c>
+      <c r="H89" t="s">
+        <v>35</v>
+      </c>
+      <c r="I89" t="s">
+        <v>537</v>
+      </c>
+      <c r="J89" t="s">
+        <v>543</v>
+      </c>
+      <c r="M89" t="s">
+        <v>538</v>
+      </c>
+      <c r="N89">
+        <v>2013</v>
+      </c>
+      <c r="P89" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>47</v>
+      </c>
+      <c r="S89" t="s">
+        <v>38</v>
+      </c>
+      <c r="T89" t="s">
+        <v>48</v>
+      </c>
+      <c r="U89" t="s">
+        <v>297</v>
+      </c>
+      <c r="V89" t="s">
+        <v>540</v>
+      </c>
+      <c r="W89" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>417</v>
+      </c>
+      <c r="AA89">
+        <v>42</v>
+      </c>
+      <c r="AB89">
+        <v>58</v>
+      </c>
+      <c r="AD89" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF89" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test-inscription_spreadsheet.xlsx
+++ b/test-inscription_spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ewan Coopey\Documents\GitHub\BromansCoopey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BE10BBF6-A79B-47BD-ABAD-061655C3392C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2958D49-D200-4348-BF36-5E979334317F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-14544" yWindow="6456" windowWidth="23040" windowHeight="12120"/>
   </bookViews>
   <sheets>
     <sheet name="test-inscription_spreadsheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="549">
   <si>
     <t>MonumentID</t>
   </si>
@@ -212,10 +212,6 @@
   </si>
   <si>
     <t>Demicheli2011</t>
-  </si>
-  <si>
-    <t>L(ucius) Vettius M(arci) [f(ilius)] / Maec(ia) Secun[dus] / Libarn[a] vet(eranus) le[g(ionis)] / VII
-vivus [f]ecit si[bi] / et Vettiae L(uci) f(iliae) Ver[ae)] / et Vettiae L(uci) l(ibertae) S[---]</t>
   </si>
   <si>
     <t>Lucius Vetia Secundus, Mark's son, from the Maecia tribune, from the city of Libarna,
@@ -1407,6 +1403,12 @@
     <t>S19</t>
   </si>
   <si>
+    <t>Bijaći-Siculi</t>
+  </si>
+  <si>
+    <t>Near Tragurium</t>
+  </si>
+  <si>
     <t>BD-VAHD-9_1886</t>
   </si>
   <si>
@@ -1629,31 +1631,43 @@
     <t>B88</t>
   </si>
   <si>
+    <t>Matijević 2017: 126-127.</t>
+  </si>
+  <si>
+    <t>Matijević2017</t>
+  </si>
+  <si>
+    <t>Here lies Gaius Aulius Secundus, son of Gaius, (registered in the voting tribe Aniensis, (from) the city of Cremona, veteran of legio VII Claudia pia fidelis. Arria Agathemeris made this for herself and her well-deserving husband, [and(?)] Quintus Arrius Priscus (?) [father or brother or patron]</t>
+  </si>
+  <si>
+    <t>Now in secondary situ (in multiple pieces) inside a modern house. It was damaged during excvation, but is thought to have originally been in situ.</t>
+  </si>
+  <si>
     <t>B89</t>
   </si>
   <si>
     <t>B90</t>
   </si>
   <si>
-    <t>Bijaći-Siculi</t>
-  </si>
-  <si>
-    <t>Matijević2017</t>
-  </si>
-  <si>
-    <t>Matijević 2017: 126-127.</t>
-  </si>
-  <si>
-    <t>C(aius) Auliu[s] C(ai) f(ilius) / Ani(ensis) Se- cundus / domo Cremona / vet(eranus) leg(ionis) VII C(laudiae) p(iae) f(idelis) /5 h(ic) s(itus) e(st) Arria / Agat(h)emeris co(n)iugi /caris(s)imo ben[e] / merenti posu[it et(?)] / Q(uinto) Arri(o) Prisc[o(?) p(atri) vel fr(atri) vel p(atrono)] / se viva et / sibi posuit.</t>
-  </si>
-  <si>
-    <t>Here lies Gaius Aulius Secundus, son of Gaius, (registered in the voting tribe Aniensis, (from) the city of Cremona, veteran of legio VII Claudia pia fidelis. Arria Agathemeris made this for herself and her well-deserving husband, [and(?)] Quintus Arrius Priscus (?) [father or brother or patron]</t>
-  </si>
-  <si>
-    <t>Now in secondary situ (in multiple pieces) inside a modern house. It was damaged during excvation, but is thought to have originally been in situ.</t>
-  </si>
-  <si>
-    <t>Near Tragurium</t>
+    <t>C(aius) Auliu[s] C(ai) f(ilius) / Ani(ensis) Secundus / domo Cremona / vet(eranus) leg(ionis) VII C(laudiae) p(iae) f(idelis) /5 h(ic) s(itus) e(st) Arria / Agat(h)emeris co(n)iugi /caris(s)imo ben[e] / merenti posu[it et(?)] / Q(uinto) Arri(o) Prisc[o(?) p(atri) vel fr(atri) vel p(atrono)] / se viva et / sibi posuit.</t>
+  </si>
+  <si>
+    <t>L(ucius) Vettius M(arci) [f(ilius)] / Maec(ia) Secun[dus] / Libarn[a] vet(eranus) le[g(ionis)] / VII vivus [f]ecit si[bi] / et Vettiae L(uci) f(iliae) Ver[ae)] / et Vettiae L(uci) l(ibertae) S[---]</t>
+  </si>
+  <si>
+    <t>Hrvace</t>
+  </si>
+  <si>
+    <t>S25</t>
+  </si>
+  <si>
+    <t>03, 09761</t>
+  </si>
+  <si>
+    <t>BD-VAHD_1-1878p.34.no32</t>
+  </si>
+  <si>
+    <t>M(arcus) Varenus / M(arci) f(ilius) Vol(tinia) Valens ve/ter(anus) leg(ionis) VII C(laudiae) P(iae) F(idelis) t(estamento) f(ieri) i(ussit) / arbitratu M(arci) Vare/ni Secundi liberti idem/que heredis</t>
   </si>
 </sst>
 </file>
@@ -2497,8 +2511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S92" sqref="S92"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2763,80 +2777,80 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>66</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="H5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>1965</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="V5" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="X5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y5" t="s">
+      <c r="AA5" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>42</v>
+      </c>
+      <c r="AD5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AA5">
-        <v>6</v>
-      </c>
-      <c r="AB5">
-        <v>42</v>
-      </c>
-      <c r="AD5" t="s">
+      <c r="AE5" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -2845,16 +2859,16 @@
         <v>35</v>
       </c>
       <c r="I6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" t="s">
         <v>71</v>
-      </c>
-      <c r="J6" t="s">
-        <v>72</v>
       </c>
       <c r="P6" t="s">
         <v>46</v>
       </c>
       <c r="Q6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S6" t="s">
         <v>38</v>
@@ -2863,24 +2877,24 @@
         <v>39</v>
       </c>
       <c r="U6" t="s">
+        <v>73</v>
+      </c>
+      <c r="V6" t="s">
         <v>74</v>
-      </c>
-      <c r="V6" t="s">
-        <v>75</v>
       </c>
       <c r="X6" t="s">
         <v>41</v>
       </c>
       <c r="AD6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
         <v>77</v>
-      </c>
-      <c r="B7" t="s">
-        <v>78</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2889,7 +2903,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -2898,7 +2912,7 @@
         <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K7">
         <v>43.607337999999999</v>
@@ -2910,7 +2924,7 @@
         <v>1831</v>
       </c>
       <c r="Q7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S7" t="s">
         <v>38</v>
@@ -2919,7 +2933,7 @@
         <v>39</v>
       </c>
       <c r="V7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA7">
         <v>6</v>
@@ -2928,18 +2942,18 @@
         <v>42</v>
       </c>
       <c r="AD7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE7" t="s">
         <v>81</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
         <v>83</v>
-      </c>
-      <c r="B8" t="s">
-        <v>84</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -2948,7 +2962,7 @@
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -2957,10 +2971,10 @@
         <v>35</v>
       </c>
       <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" t="s">
         <v>86</v>
-      </c>
-      <c r="M8" t="s">
-        <v>87</v>
       </c>
       <c r="N8">
         <v>1905</v>
@@ -2969,10 +2983,10 @@
         <v>46</v>
       </c>
       <c r="Q8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S8" t="s">
         <v>38</v>
@@ -2981,7 +2995,7 @@
         <v>48</v>
       </c>
       <c r="V8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AA8">
         <v>42</v>
@@ -2990,15 +3004,15 @@
         <v>58</v>
       </c>
       <c r="AD8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE8" t="s">
         <v>90</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -3010,7 +3024,7 @@
         <v>2091</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -3022,10 +3036,10 @@
         <v>55</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N9">
         <v>1914</v>
@@ -3042,10 +3056,10 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
         <v>95</v>
-      </c>
-      <c r="B10" t="s">
-        <v>96</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -3054,7 +3068,7 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -3066,10 +3080,10 @@
         <v>55</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N10">
         <v>1888</v>
@@ -3078,7 +3092,7 @@
         <v>46</v>
       </c>
       <c r="Q10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S10" t="s">
         <v>38</v>
@@ -3087,18 +3101,18 @@
         <v>39</v>
       </c>
       <c r="AD10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11">
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -3107,10 +3121,10 @@
         <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N11">
         <v>1995</v>
@@ -3119,7 +3133,7 @@
         <v>46</v>
       </c>
       <c r="Q11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S11" t="s">
         <v>38</v>
@@ -3137,18 +3151,18 @@
         <v>42</v>
       </c>
       <c r="AD11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" t="s">
         <v>101</v>
-      </c>
-      <c r="B12" t="s">
-        <v>102</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -3166,7 +3180,7 @@
         <v>36</v>
       </c>
       <c r="J12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P12" t="s">
         <v>46</v>
@@ -3190,18 +3204,18 @@
         <v>42</v>
       </c>
       <c r="AD12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" t="s">
         <v>105</v>
-      </c>
-      <c r="B13" t="s">
-        <v>106</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -3210,7 +3224,7 @@
         <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -3219,13 +3233,13 @@
         <v>35</v>
       </c>
       <c r="I13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" t="s">
         <v>71</v>
       </c>
-      <c r="J13" t="s">
-        <v>72</v>
-      </c>
       <c r="M13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N13">
         <v>1878</v>
@@ -3234,7 +3248,7 @@
         <v>46</v>
       </c>
       <c r="Q13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S13" t="s">
         <v>38</v>
@@ -3243,13 +3257,13 @@
         <v>39</v>
       </c>
       <c r="U13" t="s">
+        <v>108</v>
+      </c>
+      <c r="V13" t="s">
         <v>109</v>
       </c>
-      <c r="V13" t="s">
+      <c r="X13" t="s">
         <v>110</v>
-      </c>
-      <c r="X13" t="s">
-        <v>111</v>
       </c>
       <c r="Y13" t="s">
         <v>42</v>
@@ -3261,18 +3275,18 @@
         <v>42</v>
       </c>
       <c r="AD13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AE13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" t="s">
         <v>113</v>
-      </c>
-      <c r="B14" t="s">
-        <v>114</v>
       </c>
       <c r="C14">
         <v>9</v>
@@ -3281,7 +3295,7 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -3296,7 +3310,7 @@
         <v>46</v>
       </c>
       <c r="R14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S14" t="s">
         <v>38</v>
@@ -3305,7 +3319,7 @@
         <v>48</v>
       </c>
       <c r="V14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y14" t="s">
         <v>42</v>
@@ -3317,15 +3331,15 @@
         <v>58</v>
       </c>
       <c r="AE14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" t="s">
         <v>118</v>
-      </c>
-      <c r="B15" t="s">
-        <v>119</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -3334,7 +3348,7 @@
         <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G15">
         <v>11</v>
@@ -3346,7 +3360,7 @@
         <v>55</v>
       </c>
       <c r="M15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N15">
         <v>1905</v>
@@ -3364,13 +3378,13 @@
         <v>48</v>
       </c>
       <c r="V15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA15">
         <v>42</v>
@@ -3379,24 +3393,24 @@
         <v>58</v>
       </c>
       <c r="AD15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AE15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" t="s">
         <v>123</v>
-      </c>
-      <c r="B16" t="s">
-        <v>124</v>
       </c>
       <c r="C16">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G16">
         <v>12</v>
@@ -3405,13 +3419,13 @@
         <v>35</v>
       </c>
       <c r="I16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J16" t="s">
         <v>126</v>
       </c>
-      <c r="J16" t="s">
+      <c r="M16" t="s">
         <v>127</v>
-      </c>
-      <c r="M16" t="s">
-        <v>128</v>
       </c>
       <c r="N16">
         <v>1880</v>
@@ -3429,7 +3443,7 @@
         <v>39</v>
       </c>
       <c r="V16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X16" t="s">
         <v>41</v>
@@ -3444,18 +3458,18 @@
         <v>42</v>
       </c>
       <c r="AD16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AE16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" t="s">
         <v>131</v>
-      </c>
-      <c r="B17" t="s">
-        <v>132</v>
       </c>
       <c r="C17">
         <v>12</v>
@@ -3464,7 +3478,7 @@
         <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G17">
         <v>13</v>
@@ -3473,10 +3487,10 @@
         <v>35</v>
       </c>
       <c r="I17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M17" t="s">
         <v>1</v>
@@ -3497,10 +3511,10 @@
         <v>39</v>
       </c>
       <c r="V17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y17" t="s">
         <v>42</v>
@@ -3512,18 +3526,18 @@
         <v>42</v>
       </c>
       <c r="AD17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" t="s">
         <v>136</v>
-      </c>
-      <c r="B18" t="s">
-        <v>137</v>
       </c>
       <c r="C18">
         <v>13</v>
@@ -3541,7 +3555,7 @@
         <v>36</v>
       </c>
       <c r="J18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M18" t="s">
         <v>1</v>
@@ -3550,7 +3564,7 @@
         <v>46</v>
       </c>
       <c r="R18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S18" t="s">
         <v>38</v>
@@ -3559,7 +3573,7 @@
         <v>39</v>
       </c>
       <c r="V18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AA18">
         <v>6</v>
@@ -3568,12 +3582,12 @@
         <v>42</v>
       </c>
       <c r="AE18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C19">
         <v>14</v>
@@ -3585,7 +3599,7 @@
         <v>1949</v>
       </c>
       <c r="F19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -3594,13 +3608,13 @@
         <v>35</v>
       </c>
       <c r="I19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J19" t="s">
         <v>71</v>
       </c>
-      <c r="J19" t="s">
-        <v>72</v>
-      </c>
       <c r="M19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N19">
         <v>1903</v>
@@ -3609,19 +3623,19 @@
         <v>46</v>
       </c>
       <c r="Q19" t="s">
+        <v>143</v>
+      </c>
+      <c r="R19" t="s">
+        <v>143</v>
+      </c>
+      <c r="S19" t="s">
         <v>144</v>
       </c>
-      <c r="R19" t="s">
+      <c r="T19" t="s">
         <v>144</v>
       </c>
-      <c r="S19" t="s">
-        <v>145</v>
-      </c>
-      <c r="T19" t="s">
-        <v>145</v>
-      </c>
       <c r="X19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y19" t="s">
         <v>42</v>
@@ -3633,18 +3647,18 @@
         <v>58</v>
       </c>
       <c r="AD19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE19" t="s">
         <v>81</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" t="s">
         <v>146</v>
-      </c>
-      <c r="B20" t="s">
-        <v>147</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -3662,7 +3676,7 @@
         <v>55</v>
       </c>
       <c r="M20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P20" t="s">
         <v>46</v>
@@ -3677,13 +3691,13 @@
         <v>48</v>
       </c>
       <c r="V20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA20">
         <v>42</v>
@@ -3692,15 +3706,15 @@
         <v>100</v>
       </c>
       <c r="AE20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" t="s">
         <v>150</v>
-      </c>
-      <c r="B21" t="s">
-        <v>151</v>
       </c>
       <c r="C21">
         <v>16</v>
@@ -3709,7 +3723,7 @@
         <v>55</v>
       </c>
       <c r="F21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G21">
         <v>15</v>
@@ -3718,10 +3732,10 @@
         <v>35</v>
       </c>
       <c r="I21" t="s">
+        <v>152</v>
+      </c>
+      <c r="J21" t="s">
         <v>153</v>
-      </c>
-      <c r="J21" t="s">
-        <v>154</v>
       </c>
       <c r="K21">
         <v>43.081301549999999</v>
@@ -3742,10 +3756,10 @@
         <v>39</v>
       </c>
       <c r="V21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y21" t="s">
         <v>42</v>
@@ -3757,18 +3771,18 @@
         <v>42</v>
       </c>
       <c r="AD21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" t="s">
         <v>157</v>
-      </c>
-      <c r="B22" t="s">
-        <v>158</v>
       </c>
       <c r="C22">
         <v>17</v>
@@ -3777,7 +3791,7 @@
         <v>56</v>
       </c>
       <c r="F22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G22">
         <v>12</v>
@@ -3786,13 +3800,13 @@
         <v>35</v>
       </c>
       <c r="I22" t="s">
+        <v>125</v>
+      </c>
+      <c r="J22" t="s">
         <v>126</v>
       </c>
-      <c r="J22" t="s">
-        <v>127</v>
-      </c>
       <c r="M22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N22">
         <v>1883</v>
@@ -3810,7 +3824,7 @@
         <v>39</v>
       </c>
       <c r="V22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X22" t="s">
         <v>41</v>
@@ -3825,18 +3839,18 @@
         <v>42</v>
       </c>
       <c r="AD22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AE22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" t="s">
         <v>163</v>
-      </c>
-      <c r="B23" t="s">
-        <v>164</v>
       </c>
       <c r="C23">
         <v>18</v>
@@ -3851,7 +3865,7 @@
         <v>35</v>
       </c>
       <c r="I23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P23" t="s">
         <v>46</v>
@@ -3866,13 +3880,13 @@
         <v>39</v>
       </c>
       <c r="V23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA23">
         <v>6</v>
@@ -3883,22 +3897,22 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" t="s">
         <v>167</v>
       </c>
-      <c r="B24" t="s">
+      <c r="F24" t="s">
         <v>168</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>169</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>170</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>171</v>
-      </c>
-      <c r="I24" t="s">
-        <v>172</v>
       </c>
       <c r="K24">
         <v>40.548231999999999</v>
@@ -3913,13 +3927,13 @@
         <v>47</v>
       </c>
       <c r="R24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S24" t="s">
         <v>38</v>
       </c>
       <c r="V24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA24">
         <v>-30</v>
@@ -3928,18 +3942,18 @@
         <v>42</v>
       </c>
       <c r="AC24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF24" t="s">
         <v>174</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C25">
         <v>19</v>
@@ -3951,10 +3965,10 @@
         <v>2105</v>
       </c>
       <c r="F25" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" t="s">
         <v>177</v>
-      </c>
-      <c r="G25" t="s">
-        <v>178</v>
       </c>
       <c r="H25" t="s">
         <v>35</v>
@@ -3963,16 +3977,16 @@
         <v>55</v>
       </c>
       <c r="J25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P25" t="s">
         <v>46</v>
       </c>
       <c r="S25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA25">
         <v>6</v>
@@ -3981,12 +3995,12 @@
         <v>58</v>
       </c>
       <c r="AE25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C26">
         <v>20</v>
@@ -3998,22 +4012,22 @@
         <v>1950</v>
       </c>
       <c r="F26" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" t="s">
         <v>180</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" t="s">
+        <v>70</v>
+      </c>
+      <c r="J26" t="s">
+        <v>71</v>
+      </c>
+      <c r="M26" t="s">
         <v>181</v>
-      </c>
-      <c r="H26" t="s">
-        <v>35</v>
-      </c>
-      <c r="I26" t="s">
-        <v>71</v>
-      </c>
-      <c r="J26" t="s">
-        <v>72</v>
-      </c>
-      <c r="M26" t="s">
-        <v>182</v>
       </c>
       <c r="N26">
         <v>1908</v>
@@ -4028,7 +4042,7 @@
         <v>39</v>
       </c>
       <c r="X26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y26" t="s">
         <v>42</v>
@@ -4040,36 +4054,36 @@
         <v>42</v>
       </c>
       <c r="AD26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AE26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C27">
         <v>21</v>
       </c>
       <c r="F27" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" t="s">
         <v>184</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" t="s">
         <v>185</v>
       </c>
-      <c r="H27" t="s">
-        <v>35</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>186</v>
       </c>
-      <c r="J27" t="s">
-        <v>187</v>
-      </c>
       <c r="M27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N27">
         <v>1994</v>
@@ -4087,7 +4101,7 @@
         <v>39</v>
       </c>
       <c r="X27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y27" t="s">
         <v>42</v>
@@ -4099,21 +4113,21 @@
         <v>42</v>
       </c>
       <c r="AD27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE27" t="s">
         <v>81</v>
       </c>
-      <c r="AE27" t="s">
-        <v>82</v>
-      </c>
       <c r="AF27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" t="s">
         <v>189</v>
-      </c>
-      <c r="B28" t="s">
-        <v>190</v>
       </c>
       <c r="C28">
         <v>22</v>
@@ -4122,19 +4136,19 @@
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H28" t="s">
         <v>35</v>
       </c>
       <c r="I28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J28" t="s">
         <v>71</v>
-      </c>
-      <c r="J28" t="s">
-        <v>72</v>
       </c>
       <c r="M28" t="s">
         <v>1</v>
@@ -4149,7 +4163,7 @@
         <v>39</v>
       </c>
       <c r="V28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA28">
         <v>6</v>
@@ -4158,15 +4172,15 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" t="s">
         <v>193</v>
-      </c>
-      <c r="B29" t="s">
-        <v>194</v>
       </c>
       <c r="C29">
         <v>23</v>
@@ -4175,16 +4189,16 @@
         <v>29</v>
       </c>
       <c r="G29" t="s">
+        <v>194</v>
+      </c>
+      <c r="H29" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" t="s">
         <v>195</v>
       </c>
-      <c r="H29" t="s">
-        <v>35</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>196</v>
-      </c>
-      <c r="J29" t="s">
-        <v>197</v>
       </c>
       <c r="P29" t="s">
         <v>46</v>
@@ -4196,7 +4210,7 @@
         <v>48</v>
       </c>
       <c r="V29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AA29">
         <v>42</v>
@@ -4205,15 +4219,15 @@
         <v>58</v>
       </c>
       <c r="AE29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30" t="s">
         <v>199</v>
-      </c>
-      <c r="B30" t="s">
-        <v>200</v>
       </c>
       <c r="C30">
         <v>24</v>
@@ -4222,19 +4236,19 @@
         <v>30</v>
       </c>
       <c r="F30" t="s">
+        <v>200</v>
+      </c>
+      <c r="G30" t="s">
+        <v>180</v>
+      </c>
+      <c r="H30" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" t="s">
+        <v>70</v>
+      </c>
+      <c r="J30" t="s">
         <v>201</v>
-      </c>
-      <c r="G30" t="s">
-        <v>181</v>
-      </c>
-      <c r="H30" t="s">
-        <v>35</v>
-      </c>
-      <c r="I30" t="s">
-        <v>71</v>
-      </c>
-      <c r="J30" t="s">
-        <v>202</v>
       </c>
       <c r="M30" t="s">
         <v>1</v>
@@ -4249,7 +4263,7 @@
         <v>48</v>
       </c>
       <c r="V30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA30">
         <v>42</v>
@@ -4258,15 +4272,15 @@
         <v>58</v>
       </c>
       <c r="AE30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>203</v>
+      </c>
+      <c r="B31" t="s">
         <v>204</v>
-      </c>
-      <c r="B31" t="s">
-        <v>205</v>
       </c>
       <c r="C31">
         <v>25</v>
@@ -4275,22 +4289,22 @@
         <v>24</v>
       </c>
       <c r="F31" t="s">
+        <v>205</v>
+      </c>
+      <c r="G31" t="s">
+        <v>180</v>
+      </c>
+      <c r="H31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" t="s">
+        <v>70</v>
+      </c>
+      <c r="J31" t="s">
+        <v>71</v>
+      </c>
+      <c r="M31" t="s">
         <v>206</v>
-      </c>
-      <c r="G31" t="s">
-        <v>181</v>
-      </c>
-      <c r="H31" t="s">
-        <v>35</v>
-      </c>
-      <c r="I31" t="s">
-        <v>71</v>
-      </c>
-      <c r="J31" t="s">
-        <v>72</v>
-      </c>
-      <c r="M31" t="s">
-        <v>207</v>
       </c>
       <c r="P31" t="s">
         <v>46</v>
@@ -4299,13 +4313,13 @@
         <v>38</v>
       </c>
       <c r="T31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y31" t="s">
         <v>42</v>
@@ -4317,21 +4331,21 @@
         <v>58</v>
       </c>
       <c r="AD31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE31" t="s">
         <v>81</v>
       </c>
-      <c r="AE31" t="s">
-        <v>82</v>
-      </c>
       <c r="AF31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B32" t="s">
         <v>210</v>
-      </c>
-      <c r="B32" t="s">
-        <v>211</v>
       </c>
       <c r="C32">
         <v>26</v>
@@ -4340,25 +4354,25 @@
         <v>25</v>
       </c>
       <c r="E32" t="s">
+        <v>211</v>
+      </c>
+      <c r="F32" t="s">
         <v>212</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
+        <v>180</v>
+      </c>
+      <c r="H32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" t="s">
+        <v>70</v>
+      </c>
+      <c r="J32" t="s">
         <v>213</v>
       </c>
-      <c r="G32" t="s">
-        <v>181</v>
-      </c>
-      <c r="H32" t="s">
-        <v>35</v>
-      </c>
-      <c r="I32" t="s">
-        <v>71</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="M32" t="s">
         <v>214</v>
-      </c>
-      <c r="M32" t="s">
-        <v>215</v>
       </c>
       <c r="N32">
         <v>1888</v>
@@ -4373,7 +4387,7 @@
         <v>39</v>
       </c>
       <c r="V32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X32" t="s">
         <v>41</v>
@@ -4388,18 +4402,18 @@
         <v>42</v>
       </c>
       <c r="AD32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>217</v>
+      </c>
+      <c r="B33" t="s">
         <v>218</v>
-      </c>
-      <c r="B33" t="s">
-        <v>219</v>
       </c>
       <c r="C33">
         <v>27</v>
@@ -4408,7 +4422,7 @@
         <v>49</v>
       </c>
       <c r="G33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H33" t="s">
         <v>35</v>
@@ -4426,7 +4440,7 @@
         <v>47</v>
       </c>
       <c r="R33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S33" t="s">
         <v>38</v>
@@ -4435,7 +4449,7 @@
         <v>48</v>
       </c>
       <c r="V33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AA33">
         <v>42</v>
@@ -4444,15 +4458,15 @@
         <v>58</v>
       </c>
       <c r="AE33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>221</v>
+      </c>
+      <c r="B34" t="s">
         <v>222</v>
-      </c>
-      <c r="B34" t="s">
-        <v>223</v>
       </c>
       <c r="C34">
         <v>28</v>
@@ -4461,7 +4475,7 @@
         <v>50</v>
       </c>
       <c r="G34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H34" t="s">
         <v>35</v>
@@ -4470,7 +4484,7 @@
         <v>55</v>
       </c>
       <c r="M34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P34" t="s">
         <v>46</v>
@@ -4485,7 +4499,7 @@
         <v>48</v>
       </c>
       <c r="V34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AA34">
         <v>42</v>
@@ -4494,15 +4508,15 @@
         <v>58</v>
       </c>
       <c r="AE34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>224</v>
+      </c>
+      <c r="B35" t="s">
         <v>225</v>
-      </c>
-      <c r="B35" t="s">
-        <v>226</v>
       </c>
       <c r="C35">
         <v>29</v>
@@ -4511,22 +4525,22 @@
         <v>31</v>
       </c>
       <c r="F35" t="s">
+        <v>226</v>
+      </c>
+      <c r="G35" t="s">
         <v>227</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" t="s">
         <v>228</v>
       </c>
-      <c r="H35" t="s">
-        <v>35</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>229</v>
       </c>
-      <c r="J35" t="s">
+      <c r="M35" t="s">
         <v>230</v>
-      </c>
-      <c r="M35" t="s">
-        <v>231</v>
       </c>
       <c r="N35">
         <v>1897</v>
@@ -4541,7 +4555,7 @@
         <v>39</v>
       </c>
       <c r="V35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X35" t="s">
         <v>41</v>
@@ -4556,18 +4570,18 @@
         <v>42</v>
       </c>
       <c r="AD35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>232</v>
+      </c>
+      <c r="B36" t="s">
         <v>233</v>
-      </c>
-      <c r="B36" t="s">
-        <v>234</v>
       </c>
       <c r="C36">
         <v>30</v>
@@ -4576,19 +4590,19 @@
         <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H36" t="s">
         <v>35</v>
       </c>
       <c r="I36" t="s">
+        <v>152</v>
+      </c>
+      <c r="J36" t="s">
         <v>153</v>
       </c>
-      <c r="J36" t="s">
-        <v>154</v>
-      </c>
       <c r="M36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P36" t="s">
         <v>46</v>
@@ -4597,7 +4611,7 @@
         <v>47</v>
       </c>
       <c r="R36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S36" t="s">
         <v>38</v>
@@ -4606,7 +4620,7 @@
         <v>48</v>
       </c>
       <c r="V36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="X36" t="s">
         <v>41</v>
@@ -4621,42 +4635,42 @@
         <v>58</v>
       </c>
       <c r="AE36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>236</v>
+      </c>
+      <c r="B37" t="s">
         <v>237</v>
       </c>
-      <c r="B37" t="s">
+      <c r="E37" t="s">
         <v>238</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>239</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>240</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" t="s">
         <v>241</v>
       </c>
-      <c r="H37" t="s">
-        <v>35</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="M37" t="s">
         <v>242</v>
       </c>
-      <c r="M37" t="s">
+      <c r="P37" t="s">
         <v>243</v>
-      </c>
-      <c r="P37" t="s">
-        <v>244</v>
       </c>
       <c r="S37" t="s">
         <v>39</v>
       </c>
       <c r="V37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AA37">
         <v>79</v>
@@ -4667,40 +4681,40 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>245</v>
+      </c>
+      <c r="B38" t="s">
         <v>246</v>
       </c>
-      <c r="B38" t="s">
+      <c r="E38" t="s">
         <v>247</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>248</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>249</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38" t="s">
         <v>250</v>
       </c>
-      <c r="H38" t="s">
-        <v>35</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>251</v>
       </c>
-      <c r="J38" t="s">
-        <v>252</v>
-      </c>
       <c r="M38" t="s">
+        <v>242</v>
+      </c>
+      <c r="P38" t="s">
         <v>243</v>
-      </c>
-      <c r="P38" t="s">
-        <v>244</v>
       </c>
       <c r="S38" t="s">
         <v>39</v>
       </c>
       <c r="V38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AA38">
         <v>253</v>
@@ -4711,25 +4725,25 @@
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>253</v>
+      </c>
+      <c r="B39" t="s">
         <v>254</v>
       </c>
-      <c r="B39" t="s">
+      <c r="F39" t="s">
         <v>255</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
+        <v>180</v>
+      </c>
+      <c r="H39" t="s">
+        <v>35</v>
+      </c>
+      <c r="I39" t="s">
+        <v>70</v>
+      </c>
+      <c r="J39" t="s">
         <v>256</v>
-      </c>
-      <c r="G39" t="s">
-        <v>181</v>
-      </c>
-      <c r="H39" t="s">
-        <v>35</v>
-      </c>
-      <c r="I39" t="s">
-        <v>71</v>
-      </c>
-      <c r="J39" t="s">
-        <v>257</v>
       </c>
       <c r="K39">
         <v>43.614617189999997</v>
@@ -4750,7 +4764,7 @@
         <v>39</v>
       </c>
       <c r="V39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AA39">
         <v>184</v>
@@ -4759,45 +4773,45 @@
         <v>184</v>
       </c>
       <c r="AE39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>259</v>
+      </c>
+      <c r="B40" t="s">
         <v>260</v>
       </c>
-      <c r="B40" t="s">
+      <c r="F40" t="s">
         <v>261</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>262</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>263</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>264</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>265</v>
-      </c>
-      <c r="J40" t="s">
-        <v>266</v>
       </c>
       <c r="P40" t="s">
         <v>46</v>
       </c>
       <c r="R40" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="S40" t="s">
         <v>38</v>
       </c>
       <c r="V40" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA40">
         <v>58</v>
@@ -4806,15 +4820,15 @@
         <v>130</v>
       </c>
       <c r="AE40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF40" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C41">
         <v>31</v>
@@ -4823,28 +4837,28 @@
         <v>58</v>
       </c>
       <c r="F41" t="s">
+        <v>270</v>
+      </c>
+      <c r="G41" t="s">
         <v>271</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41" t="s">
+        <v>125</v>
+      </c>
+      <c r="J41" t="s">
         <v>272</v>
       </c>
-      <c r="H41" t="s">
-        <v>35</v>
-      </c>
-      <c r="I41" t="s">
-        <v>126</v>
-      </c>
-      <c r="J41" t="s">
-        <v>273</v>
-      </c>
       <c r="M41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N41">
         <v>1927</v>
       </c>
       <c r="O41" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P41" t="s">
         <v>46</v>
@@ -4859,13 +4873,13 @@
         <v>39</v>
       </c>
       <c r="V41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X41" t="s">
         <v>41</v>
       </c>
       <c r="Y41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA41">
         <v>6</v>
@@ -4874,15 +4888,15 @@
         <v>42</v>
       </c>
       <c r="AD41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AE41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C42">
         <v>32</v>
@@ -4894,22 +4908,22 @@
         <v>1920</v>
       </c>
       <c r="F42" t="s">
+        <v>277</v>
+      </c>
+      <c r="G42" t="s">
+        <v>271</v>
+      </c>
+      <c r="H42" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" t="s">
+        <v>125</v>
+      </c>
+      <c r="J42" t="s">
+        <v>272</v>
+      </c>
+      <c r="M42" t="s">
         <v>278</v>
-      </c>
-      <c r="G42" t="s">
-        <v>272</v>
-      </c>
-      <c r="H42" t="s">
-        <v>35</v>
-      </c>
-      <c r="I42" t="s">
-        <v>126</v>
-      </c>
-      <c r="J42" t="s">
-        <v>273</v>
-      </c>
-      <c r="M42" t="s">
-        <v>279</v>
       </c>
       <c r="N42">
         <v>1908</v>
@@ -4927,10 +4941,10 @@
         <v>39</v>
       </c>
       <c r="V42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y42" t="s">
         <v>42</v>
@@ -4942,24 +4956,24 @@
         <v>42</v>
       </c>
       <c r="AD42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C43">
         <v>33</v>
       </c>
       <c r="F43" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H43" t="s">
         <v>35</v>
@@ -4968,7 +4982,7 @@
         <v>55</v>
       </c>
       <c r="M43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N43">
         <v>1996</v>
@@ -4986,7 +5000,7 @@
         <v>48</v>
       </c>
       <c r="V43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X43" t="s">
         <v>41</v>
@@ -5001,21 +5015,21 @@
         <v>58</v>
       </c>
       <c r="AD43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AE43" t="s">
+        <v>284</v>
+      </c>
+      <c r="AF43" t="s">
         <v>285</v>
-      </c>
-      <c r="AF43" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>286</v>
+      </c>
+      <c r="B44" t="s">
         <v>287</v>
-      </c>
-      <c r="B44" t="s">
-        <v>288</v>
       </c>
       <c r="C44">
         <v>34</v>
@@ -5024,22 +5038,22 @@
         <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H44" t="s">
         <v>35</v>
       </c>
       <c r="I44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N44">
         <v>1878</v>
@@ -5054,16 +5068,16 @@
         <v>39</v>
       </c>
       <c r="U44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="X44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA44">
         <v>6</v>
@@ -5072,21 +5086,21 @@
         <v>42</v>
       </c>
       <c r="AD44" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF44" t="s">
         <v>291</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>292</v>
+      </c>
+      <c r="B45" t="s">
         <v>293</v>
-      </c>
-      <c r="B45" t="s">
-        <v>294</v>
       </c>
       <c r="C45">
         <v>35</v>
@@ -5095,10 +5109,10 @@
         <v>15</v>
       </c>
       <c r="F45" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H45" t="s">
         <v>35</v>
@@ -5113,7 +5127,7 @@
         <v>46</v>
       </c>
       <c r="R45" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="S45" t="s">
         <v>38</v>
@@ -5122,16 +5136,16 @@
         <v>48</v>
       </c>
       <c r="U45" t="s">
+        <v>296</v>
+      </c>
+      <c r="V45" t="s">
         <v>297</v>
-      </c>
-      <c r="V45" t="s">
-        <v>298</v>
       </c>
       <c r="X45" t="s">
         <v>41</v>
       </c>
       <c r="Y45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA45">
         <v>42</v>
@@ -5140,21 +5154,21 @@
         <v>58</v>
       </c>
       <c r="AD45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AE45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF45" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>299</v>
+      </c>
+      <c r="B46" t="s">
         <v>300</v>
-      </c>
-      <c r="B46" t="s">
-        <v>301</v>
       </c>
       <c r="C46">
         <v>36</v>
@@ -5163,10 +5177,10 @@
         <v>60</v>
       </c>
       <c r="F46" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H46" t="s">
         <v>35</v>
@@ -5190,7 +5204,7 @@
         <v>48</v>
       </c>
       <c r="V46" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AA46">
         <v>42</v>
@@ -5199,18 +5213,18 @@
         <v>58</v>
       </c>
       <c r="AE46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF46" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>304</v>
+      </c>
+      <c r="B47" t="s">
         <v>305</v>
-      </c>
-      <c r="B47" t="s">
-        <v>306</v>
       </c>
       <c r="C47">
         <v>37</v>
@@ -5219,28 +5233,28 @@
         <v>61</v>
       </c>
       <c r="F47" t="s">
+        <v>306</v>
+      </c>
+      <c r="G47" t="s">
         <v>307</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
+        <v>35</v>
+      </c>
+      <c r="I47" t="s">
         <v>308</v>
       </c>
-      <c r="H47" t="s">
-        <v>35</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>309</v>
       </c>
-      <c r="J47" t="s">
+      <c r="M47" t="s">
         <v>310</v>
-      </c>
-      <c r="M47" t="s">
-        <v>311</v>
       </c>
       <c r="N47">
         <v>1890</v>
       </c>
       <c r="O47" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P47" t="s">
         <v>46</v>
@@ -5255,7 +5269,7 @@
         <v>39</v>
       </c>
       <c r="V47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y47" t="s">
         <v>42</v>
@@ -5267,15 +5281,15 @@
         <v>42</v>
       </c>
       <c r="AD47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C48">
         <v>38</v>
@@ -5287,10 +5301,10 @@
         <v>2092</v>
       </c>
       <c r="F48" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H48" t="s">
         <v>35</v>
@@ -5299,10 +5313,10 @@
         <v>55</v>
       </c>
       <c r="J48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N48">
         <v>1903</v>
@@ -5317,7 +5331,7 @@
         <v>48</v>
       </c>
       <c r="V48" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Y48" t="s">
         <v>42</v>
@@ -5329,18 +5343,18 @@
         <v>58</v>
       </c>
       <c r="AD48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>316</v>
+      </c>
+      <c r="B49" t="s">
         <v>317</v>
-      </c>
-      <c r="B49" t="s">
-        <v>318</v>
       </c>
       <c r="C49">
         <v>39</v>
@@ -5349,22 +5363,22 @@
         <v>34</v>
       </c>
       <c r="F49" t="s">
+        <v>318</v>
+      </c>
+      <c r="G49" t="s">
+        <v>180</v>
+      </c>
+      <c r="H49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J49" t="s">
+        <v>213</v>
+      </c>
+      <c r="M49" t="s">
         <v>319</v>
-      </c>
-      <c r="G49" t="s">
-        <v>181</v>
-      </c>
-      <c r="H49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I49" t="s">
-        <v>71</v>
-      </c>
-      <c r="J49" t="s">
-        <v>214</v>
-      </c>
-      <c r="M49" t="s">
-        <v>320</v>
       </c>
       <c r="N49">
         <v>1898</v>
@@ -5379,7 +5393,7 @@
         <v>39</v>
       </c>
       <c r="V49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="X49" t="s">
         <v>41</v>
@@ -5394,36 +5408,36 @@
         <v>42</v>
       </c>
       <c r="AD49" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AE49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C50">
         <v>40</v>
       </c>
       <c r="F50" t="s">
+        <v>323</v>
+      </c>
+      <c r="G50" t="s">
+        <v>271</v>
+      </c>
+      <c r="H50" t="s">
+        <v>35</v>
+      </c>
+      <c r="I50" t="s">
+        <v>125</v>
+      </c>
+      <c r="J50" t="s">
         <v>324</v>
       </c>
-      <c r="G50" t="s">
-        <v>272</v>
-      </c>
-      <c r="H50" t="s">
-        <v>35</v>
-      </c>
-      <c r="I50" t="s">
-        <v>126</v>
-      </c>
-      <c r="J50" t="s">
+      <c r="M50" t="s">
         <v>325</v>
-      </c>
-      <c r="M50" t="s">
-        <v>326</v>
       </c>
       <c r="N50">
         <v>1893</v>
@@ -5435,13 +5449,13 @@
         <v>38</v>
       </c>
       <c r="T50" t="s">
+        <v>326</v>
+      </c>
+      <c r="V50" t="s">
         <v>327</v>
       </c>
-      <c r="V50" t="s">
-        <v>328</v>
-      </c>
       <c r="X50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y50" t="s">
         <v>42</v>
@@ -5453,27 +5467,27 @@
         <v>58</v>
       </c>
       <c r="AD50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE50" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF50" t="s">
         <v>329</v>
-      </c>
-      <c r="AF50" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C51">
         <v>41</v>
       </c>
       <c r="F51" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H51" t="s">
         <v>35</v>
@@ -5482,10 +5496,10 @@
         <v>55</v>
       </c>
       <c r="J51" t="s">
+        <v>332</v>
+      </c>
+      <c r="M51" t="s">
         <v>333</v>
-      </c>
-      <c r="M51" t="s">
-        <v>334</v>
       </c>
       <c r="N51">
         <v>1986</v>
@@ -5500,13 +5514,13 @@
         <v>48</v>
       </c>
       <c r="V51" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="X51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA51">
         <v>42</v>
@@ -5515,36 +5529,36 @@
         <v>58</v>
       </c>
       <c r="AD51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AE51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>335</v>
+      </c>
+      <c r="C52">
+        <v>42</v>
+      </c>
+      <c r="F52" t="s">
         <v>336</v>
       </c>
-      <c r="C52">
-        <v>42</v>
-      </c>
-      <c r="F52" t="s">
-        <v>337</v>
-      </c>
       <c r="G52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H52" t="s">
         <v>35</v>
       </c>
       <c r="I52" t="s">
+        <v>70</v>
+      </c>
+      <c r="J52" t="s">
         <v>71</v>
       </c>
-      <c r="J52" t="s">
-        <v>72</v>
-      </c>
       <c r="M52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N52">
         <v>1995</v>
@@ -5559,7 +5573,7 @@
         <v>39</v>
       </c>
       <c r="V52" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="X52" t="s">
         <v>41</v>
@@ -5574,18 +5588,18 @@
         <v>42</v>
       </c>
       <c r="AD52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>338</v>
+      </c>
+      <c r="B53" t="s">
         <v>339</v>
-      </c>
-      <c r="B53" t="s">
-        <v>340</v>
       </c>
       <c r="C53">
         <v>43</v>
@@ -5597,22 +5611,22 @@
         <v>1941</v>
       </c>
       <c r="F53" t="s">
+        <v>340</v>
+      </c>
+      <c r="G53" t="s">
+        <v>180</v>
+      </c>
+      <c r="H53" t="s">
+        <v>35</v>
+      </c>
+      <c r="I53" t="s">
+        <v>70</v>
+      </c>
+      <c r="J53" t="s">
+        <v>71</v>
+      </c>
+      <c r="M53" t="s">
         <v>341</v>
-      </c>
-      <c r="G53" t="s">
-        <v>181</v>
-      </c>
-      <c r="H53" t="s">
-        <v>35</v>
-      </c>
-      <c r="I53" t="s">
-        <v>71</v>
-      </c>
-      <c r="J53" t="s">
-        <v>72</v>
-      </c>
-      <c r="M53" t="s">
-        <v>342</v>
       </c>
       <c r="N53">
         <v>1878</v>
@@ -5621,13 +5635,13 @@
         <v>46</v>
       </c>
       <c r="S53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V53" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Y53" t="s">
         <v>42</v>
@@ -5639,18 +5653,18 @@
         <v>58</v>
       </c>
       <c r="AE53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF53" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>344</v>
+      </c>
+      <c r="B54" t="s">
         <v>345</v>
-      </c>
-      <c r="B54" t="s">
-        <v>346</v>
       </c>
       <c r="C54">
         <v>44</v>
@@ -5659,22 +5673,22 @@
         <v>62</v>
       </c>
       <c r="F54" t="s">
+        <v>346</v>
+      </c>
+      <c r="G54" t="s">
         <v>347</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
+        <v>35</v>
+      </c>
+      <c r="I54" t="s">
         <v>348</v>
       </c>
-      <c r="H54" t="s">
-        <v>35</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>349</v>
       </c>
-      <c r="J54" t="s">
+      <c r="M54" t="s">
         <v>350</v>
-      </c>
-      <c r="M54" t="s">
-        <v>351</v>
       </c>
       <c r="N54">
         <v>1900</v>
@@ -5692,7 +5706,7 @@
         <v>48</v>
       </c>
       <c r="V54" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="X54" t="s">
         <v>41</v>
@@ -5704,18 +5718,18 @@
         <v>58</v>
       </c>
       <c r="AD54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE54" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF54" t="s">
         <v>353</v>
-      </c>
-      <c r="AF54" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C55">
         <v>45</v>
@@ -5724,25 +5738,25 @@
         <v>63</v>
       </c>
       <c r="E55" t="s">
+        <v>355</v>
+      </c>
+      <c r="F55" t="s">
         <v>356</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
+        <v>271</v>
+      </c>
+      <c r="H55" t="s">
+        <v>35</v>
+      </c>
+      <c r="I55" t="s">
+        <v>125</v>
+      </c>
+      <c r="J55" t="s">
         <v>357</v>
       </c>
-      <c r="G55" t="s">
-        <v>272</v>
-      </c>
-      <c r="H55" t="s">
-        <v>35</v>
-      </c>
-      <c r="I55" t="s">
-        <v>126</v>
-      </c>
-      <c r="J55" t="s">
-        <v>358</v>
-      </c>
       <c r="M55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N55">
         <v>1938</v>
@@ -5760,7 +5774,7 @@
         <v>39</v>
       </c>
       <c r="V55" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AA55">
         <v>6</v>
@@ -5769,18 +5783,18 @@
         <v>42</v>
       </c>
       <c r="AD55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AE55" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>359</v>
+      </c>
+      <c r="B56" t="s">
         <v>360</v>
-      </c>
-      <c r="B56" t="s">
-        <v>361</v>
       </c>
       <c r="C56">
         <v>46</v>
@@ -5789,25 +5803,25 @@
         <v>16</v>
       </c>
       <c r="F56" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G56" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H56" t="s">
         <v>35</v>
       </c>
       <c r="I56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J56" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P56" t="s">
         <v>46</v>
       </c>
       <c r="R56" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="S56" t="s">
         <v>38</v>
@@ -5816,7 +5830,7 @@
         <v>39</v>
       </c>
       <c r="V56" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="X56" t="s">
         <v>41</v>
@@ -5825,7 +5839,7 @@
         <v>42</v>
       </c>
       <c r="Z56" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AA56">
         <v>6</v>
@@ -5834,36 +5848,36 @@
         <v>42</v>
       </c>
       <c r="AD56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C57">
         <v>47</v>
       </c>
       <c r="F57" t="s">
+        <v>365</v>
+      </c>
+      <c r="G57" t="s">
+        <v>180</v>
+      </c>
+      <c r="H57" t="s">
+        <v>35</v>
+      </c>
+      <c r="I57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J57" t="s">
+        <v>213</v>
+      </c>
+      <c r="M57" t="s">
         <v>366</v>
-      </c>
-      <c r="G57" t="s">
-        <v>181</v>
-      </c>
-      <c r="H57" t="s">
-        <v>35</v>
-      </c>
-      <c r="I57" t="s">
-        <v>71</v>
-      </c>
-      <c r="J57" t="s">
-        <v>214</v>
-      </c>
-      <c r="M57" t="s">
-        <v>367</v>
       </c>
       <c r="N57">
         <v>1893</v>
@@ -5872,13 +5886,13 @@
         <v>46</v>
       </c>
       <c r="S57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V57" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Y57" t="s">
         <v>42</v>
@@ -5890,21 +5904,21 @@
         <v>58</v>
       </c>
       <c r="AD57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF57" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>369</v>
+      </c>
+      <c r="B58" t="s">
         <v>370</v>
-      </c>
-      <c r="B58" t="s">
-        <v>371</v>
       </c>
       <c r="C58">
         <v>48</v>
@@ -5913,22 +5927,22 @@
         <v>82</v>
       </c>
       <c r="F58" t="s">
+        <v>371</v>
+      </c>
+      <c r="G58" t="s">
+        <v>180</v>
+      </c>
+      <c r="H58" t="s">
+        <v>35</v>
+      </c>
+      <c r="I58" t="s">
+        <v>70</v>
+      </c>
+      <c r="J58" t="s">
         <v>372</v>
       </c>
-      <c r="G58" t="s">
-        <v>181</v>
-      </c>
-      <c r="H58" t="s">
-        <v>35</v>
-      </c>
-      <c r="I58" t="s">
-        <v>71</v>
-      </c>
-      <c r="J58" t="s">
-        <v>373</v>
-      </c>
       <c r="M58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N58">
         <v>1878</v>
@@ -5937,19 +5951,19 @@
         <v>46</v>
       </c>
       <c r="R58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V58" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y58" t="s">
         <v>374</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>375</v>
       </c>
       <c r="AA58">
         <v>6</v>
@@ -5958,18 +5972,18 @@
         <v>58</v>
       </c>
       <c r="AE58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF58" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>376</v>
+      </c>
+      <c r="B59" t="s">
         <v>377</v>
-      </c>
-      <c r="B59" t="s">
-        <v>378</v>
       </c>
       <c r="C59">
         <v>49</v>
@@ -5978,16 +5992,16 @@
         <v>36</v>
       </c>
       <c r="G59" t="s">
+        <v>378</v>
+      </c>
+      <c r="H59" t="s">
+        <v>35</v>
+      </c>
+      <c r="I59" t="s">
         <v>379</v>
       </c>
-      <c r="H59" t="s">
-        <v>35</v>
-      </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>380</v>
-      </c>
-      <c r="J59" t="s">
-        <v>381</v>
       </c>
       <c r="M59" t="s">
         <v>1</v>
@@ -5996,13 +6010,13 @@
         <v>46</v>
       </c>
       <c r="S59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T59" t="s">
         <v>48</v>
       </c>
       <c r="V59" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AA59">
         <v>42</v>
@@ -6011,15 +6025,15 @@
         <v>58</v>
       </c>
       <c r="AE59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF59" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C60">
         <v>50</v>
@@ -6028,13 +6042,13 @@
         <v>64</v>
       </c>
       <c r="E60" t="s">
+        <v>384</v>
+      </c>
+      <c r="F60" t="s">
         <v>385</v>
       </c>
-      <c r="F60" t="s">
-        <v>386</v>
-      </c>
       <c r="G60" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H60" t="s">
         <v>35</v>
@@ -6043,13 +6057,13 @@
         <v>55</v>
       </c>
       <c r="J60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N60">
         <v>1904</v>
       </c>
       <c r="O60" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="P60" t="s">
         <v>46</v>
@@ -6064,7 +6078,7 @@
         <v>39</v>
       </c>
       <c r="V60" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AA60">
         <v>6</v>
@@ -6073,15 +6087,15 @@
         <v>42</v>
       </c>
       <c r="AE60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF60" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C61">
         <v>51</v>
@@ -6090,13 +6104,13 @@
         <v>10</v>
       </c>
       <c r="E61" t="s">
+        <v>390</v>
+      </c>
+      <c r="F61" t="s">
         <v>391</v>
       </c>
-      <c r="F61" t="s">
-        <v>392</v>
-      </c>
       <c r="G61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H61" t="s">
         <v>35</v>
@@ -6105,13 +6119,13 @@
         <v>55</v>
       </c>
       <c r="J61" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P61" t="s">
         <v>46</v>
       </c>
       <c r="R61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S61" t="s">
         <v>38</v>
@@ -6120,7 +6134,7 @@
         <v>48</v>
       </c>
       <c r="V61" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AA61">
         <v>42</v>
@@ -6129,15 +6143,15 @@
         <v>58</v>
       </c>
       <c r="AE61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>394</v>
+      </c>
+      <c r="B62" t="s">
         <v>395</v>
-      </c>
-      <c r="B62" t="s">
-        <v>396</v>
       </c>
       <c r="C62">
         <v>52</v>
@@ -6146,19 +6160,19 @@
         <v>45</v>
       </c>
       <c r="F62" t="s">
+        <v>396</v>
+      </c>
+      <c r="G62" t="s">
         <v>397</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
+        <v>35</v>
+      </c>
+      <c r="I62" t="s">
+        <v>152</v>
+      </c>
+      <c r="J62" t="s">
         <v>398</v>
-      </c>
-      <c r="H62" t="s">
-        <v>35</v>
-      </c>
-      <c r="I62" t="s">
-        <v>45</v>
-      </c>
-      <c r="J62" t="s">
-        <v>399</v>
       </c>
       <c r="P62" t="s">
         <v>46</v>
@@ -6173,7 +6187,7 @@
         <v>39</v>
       </c>
       <c r="V62" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AA62">
         <v>6</v>
@@ -6182,18 +6196,18 @@
         <v>42</v>
       </c>
       <c r="AE62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF62" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>401</v>
+      </c>
+      <c r="B63" t="s">
         <v>402</v>
-      </c>
-      <c r="B63" t="s">
-        <v>403</v>
       </c>
       <c r="C63">
         <v>53</v>
@@ -6202,10 +6216,10 @@
         <v>65</v>
       </c>
       <c r="F63" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G63" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H63" t="s">
         <v>35</v>
@@ -6214,10 +6228,10 @@
         <v>55</v>
       </c>
       <c r="J63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M63" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N63">
         <v>1856</v>
@@ -6235,7 +6249,7 @@
         <v>39</v>
       </c>
       <c r="V63" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AA63">
         <v>6</v>
@@ -6244,12 +6258,12 @@
         <v>42</v>
       </c>
       <c r="AE63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C64">
         <v>54</v>
@@ -6258,40 +6272,40 @@
         <v>13</v>
       </c>
       <c r="E64" t="s">
+        <v>407</v>
+      </c>
+      <c r="F64" t="s">
         <v>408</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>409</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
+        <v>35</v>
+      </c>
+      <c r="I64" t="s">
         <v>410</v>
       </c>
-      <c r="H64" t="s">
-        <v>35</v>
-      </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>411</v>
       </c>
-      <c r="J64" t="s">
+      <c r="M64" t="s">
+        <v>147</v>
+      </c>
+      <c r="P64" t="s">
         <v>412</v>
       </c>
-      <c r="M64" t="s">
-        <v>148</v>
-      </c>
-      <c r="P64" t="s">
+      <c r="R64" t="s">
         <v>413</v>
-      </c>
-      <c r="R64" t="s">
-        <v>414</v>
       </c>
       <c r="S64" t="s">
         <v>38</v>
       </c>
       <c r="T64" t="s">
+        <v>414</v>
+      </c>
+      <c r="V64" t="s">
         <v>415</v>
-      </c>
-      <c r="V64" t="s">
-        <v>416</v>
       </c>
       <c r="X64" t="s">
         <v>41</v>
@@ -6300,7 +6314,7 @@
         <v>42</v>
       </c>
       <c r="Z64" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AA64">
         <v>171</v>
@@ -6309,21 +6323,21 @@
         <v>230</v>
       </c>
       <c r="AD64" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AE64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF64" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>418</v>
+      </c>
+      <c r="B65" t="s">
         <v>419</v>
-      </c>
-      <c r="B65" t="s">
-        <v>420</v>
       </c>
       <c r="C65">
         <v>55</v>
@@ -6332,22 +6346,22 @@
         <v>75</v>
       </c>
       <c r="F65" t="s">
+        <v>420</v>
+      </c>
+      <c r="G65" t="s">
+        <v>271</v>
+      </c>
+      <c r="H65" t="s">
+        <v>35</v>
+      </c>
+      <c r="I65" t="s">
+        <v>125</v>
+      </c>
+      <c r="J65" t="s">
         <v>421</v>
       </c>
-      <c r="G65" t="s">
-        <v>272</v>
-      </c>
-      <c r="H65" t="s">
-        <v>35</v>
-      </c>
-      <c r="I65" t="s">
-        <v>126</v>
-      </c>
-      <c r="J65" t="s">
+      <c r="M65" t="s">
         <v>422</v>
-      </c>
-      <c r="M65" t="s">
-        <v>423</v>
       </c>
       <c r="N65">
         <v>1880</v>
@@ -6359,16 +6373,16 @@
         <v>38</v>
       </c>
       <c r="T65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V65" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y65" t="s">
         <v>42</v>
       </c>
       <c r="Z65" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AA65">
         <v>6</v>
@@ -6377,18 +6391,18 @@
         <v>58</v>
       </c>
       <c r="AD65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE65" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF65" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C66">
         <v>56</v>
@@ -6397,13 +6411,13 @@
         <v>20</v>
       </c>
       <c r="E66" t="s">
+        <v>426</v>
+      </c>
+      <c r="F66" t="s">
         <v>427</v>
       </c>
-      <c r="F66" t="s">
-        <v>428</v>
-      </c>
       <c r="G66" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H66" t="s">
         <v>35</v>
@@ -6412,19 +6426,19 @@
         <v>55</v>
       </c>
       <c r="J66" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M66" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N66">
         <v>1913</v>
       </c>
       <c r="P66" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="R66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S66" t="s">
         <v>38</v>
@@ -6433,16 +6447,16 @@
         <v>39</v>
       </c>
       <c r="V66" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="X66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y66" t="s">
         <v>42</v>
       </c>
       <c r="Z66" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AA66">
         <v>6</v>
@@ -6451,18 +6465,18 @@
         <v>42</v>
       </c>
       <c r="AD66" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AE66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF66" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C67">
         <v>57</v>
@@ -6473,7 +6487,7 @@
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C68">
         <v>58</v>
@@ -6484,16 +6498,16 @@
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C69">
         <v>59</v>
       </c>
       <c r="F69" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G69" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H69" t="s">
         <v>35</v>
@@ -6502,10 +6516,10 @@
         <v>55</v>
       </c>
       <c r="J69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M69" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N69">
         <v>1986</v>
@@ -6520,7 +6534,7 @@
         <v>39</v>
       </c>
       <c r="V69" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="X69" t="s">
         <v>41</v>
@@ -6529,7 +6543,7 @@
         <v>42</v>
       </c>
       <c r="Z69" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AA69">
         <v>6</v>
@@ -6538,39 +6552,39 @@
         <v>42</v>
       </c>
       <c r="AD69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C70">
         <v>60</v>
       </c>
       <c r="F70" t="s">
+        <v>438</v>
+      </c>
+      <c r="G70" t="s">
+        <v>271</v>
+      </c>
+      <c r="H70" t="s">
+        <v>35</v>
+      </c>
+      <c r="I70" t="s">
+        <v>125</v>
+      </c>
+      <c r="J70" t="s">
+        <v>272</v>
+      </c>
+      <c r="M70" t="s">
         <v>439</v>
-      </c>
-      <c r="G70" t="s">
-        <v>272</v>
-      </c>
-      <c r="H70" t="s">
-        <v>35</v>
-      </c>
-      <c r="I70" t="s">
-        <v>126</v>
-      </c>
-      <c r="J70" t="s">
-        <v>273</v>
-      </c>
-      <c r="M70" t="s">
-        <v>440</v>
       </c>
       <c r="N70">
         <v>2002</v>
@@ -6588,16 +6602,16 @@
         <v>39</v>
       </c>
       <c r="V70" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="X70" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y70" t="s">
         <v>42</v>
       </c>
       <c r="Z70" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AA70">
         <v>6</v>
@@ -6606,21 +6620,21 @@
         <v>42</v>
       </c>
       <c r="AC70" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>275</v>
+      </c>
+      <c r="AF70" t="s">
         <v>442</v>
-      </c>
-      <c r="AD70" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE70" t="s">
-        <v>276</v>
-      </c>
-      <c r="AF70" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C71">
         <v>61</v>
@@ -6631,18 +6645,66 @@
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>445</v>
+        <v>444</v>
+      </c>
+      <c r="B72" t="s">
+        <v>546</v>
       </c>
       <c r="C72">
         <v>62</v>
       </c>
+      <c r="D72">
+        <v>66</v>
+      </c>
+      <c r="F72" t="s">
+        <v>547</v>
+      </c>
+      <c r="G72" t="s">
+        <v>545</v>
+      </c>
+      <c r="H72" t="s">
+        <v>35</v>
+      </c>
+      <c r="I72" t="s">
+        <v>45</v>
+      </c>
+      <c r="J72" t="s">
+        <v>544</v>
+      </c>
+      <c r="M72" t="s">
+        <v>107</v>
+      </c>
+      <c r="N72">
+        <v>1878</v>
+      </c>
+      <c r="P72" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>47</v>
+      </c>
+      <c r="S72" t="s">
+        <v>38</v>
+      </c>
       <c r="T72" t="s">
         <v>48</v>
       </c>
+      <c r="V72" t="s">
+        <v>548</v>
+      </c>
+      <c r="AA72">
+        <v>42</v>
+      </c>
+      <c r="AB72">
+        <v>58</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C73">
         <v>63</v>
@@ -6651,25 +6713,25 @@
         <v>68</v>
       </c>
       <c r="E73" t="s">
+        <v>446</v>
+      </c>
+      <c r="F73" t="s">
         <v>447</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
+        <v>271</v>
+      </c>
+      <c r="H73" t="s">
+        <v>35</v>
+      </c>
+      <c r="I73" t="s">
+        <v>125</v>
+      </c>
+      <c r="J73" t="s">
+        <v>272</v>
+      </c>
+      <c r="M73" t="s">
         <v>448</v>
-      </c>
-      <c r="G73" t="s">
-        <v>272</v>
-      </c>
-      <c r="H73" t="s">
-        <v>35</v>
-      </c>
-      <c r="I73" t="s">
-        <v>126</v>
-      </c>
-      <c r="J73" t="s">
-        <v>273</v>
-      </c>
-      <c r="M73" t="s">
-        <v>449</v>
       </c>
       <c r="N73">
         <v>1908</v>
@@ -6687,7 +6749,7 @@
         <v>39</v>
       </c>
       <c r="V73" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="X73" t="s">
         <v>41</v>
@@ -6696,7 +6758,7 @@
         <v>42</v>
       </c>
       <c r="Z73" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AA73">
         <v>6</v>
@@ -6705,21 +6767,21 @@
         <v>42</v>
       </c>
       <c r="AD73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF73" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>451</v>
+      </c>
+      <c r="B74" t="s">
         <v>452</v>
-      </c>
-      <c r="B74" t="s">
-        <v>453</v>
       </c>
       <c r="C74">
         <v>64</v>
@@ -6728,10 +6790,10 @@
         <v>69</v>
       </c>
       <c r="F74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G74" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H74" t="s">
         <v>35</v>
@@ -6740,13 +6802,13 @@
         <v>55</v>
       </c>
       <c r="M74" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N74">
         <v>1881</v>
       </c>
       <c r="P74" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Q74" t="s">
         <v>47</v>
@@ -6758,7 +6820,7 @@
         <v>48</v>
       </c>
       <c r="V74" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="X74" t="s">
         <v>41</v>
@@ -6767,7 +6829,7 @@
         <v>42</v>
       </c>
       <c r="Z74" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AA74">
         <v>42</v>
@@ -6776,18 +6838,18 @@
         <v>58</v>
       </c>
       <c r="AD74" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AE74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>456</v>
+      </c>
+      <c r="B75" t="s">
         <v>457</v>
-      </c>
-      <c r="B75" t="s">
-        <v>458</v>
       </c>
       <c r="C75">
         <v>65</v>
@@ -6796,22 +6858,22 @@
         <v>70</v>
       </c>
       <c r="F75" t="s">
+        <v>458</v>
+      </c>
+      <c r="G75" t="s">
         <v>459</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
+        <v>35</v>
+      </c>
+      <c r="I75" t="s">
         <v>460</v>
       </c>
-      <c r="H75" t="s">
-        <v>35</v>
-      </c>
-      <c r="I75" t="s">
-        <v>537</v>
-      </c>
       <c r="J75" t="s">
-        <v>543</v>
+        <v>461</v>
       </c>
       <c r="M75" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N75">
         <v>1886</v>
@@ -6823,13 +6885,13 @@
         <v>47</v>
       </c>
       <c r="S75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T75" t="s">
         <v>39</v>
       </c>
       <c r="V75" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="X75" t="s">
         <v>41</v>
@@ -6838,7 +6900,7 @@
         <v>42</v>
       </c>
       <c r="Z75" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AA75">
         <v>6</v>
@@ -6847,21 +6909,21 @@
         <v>42</v>
       </c>
       <c r="AD75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF75" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B76" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C76">
         <v>67</v>
@@ -6870,22 +6932,22 @@
         <v>11</v>
       </c>
       <c r="G76" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H76" t="s">
         <v>35</v>
       </c>
       <c r="I76" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M76" t="s">
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="R76" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S76" t="s">
         <v>38</v>
@@ -6894,13 +6956,13 @@
         <v>48</v>
       </c>
       <c r="V76" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="X76" t="s">
         <v>41</v>
       </c>
       <c r="Z76" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AA76">
         <v>42</v>
@@ -6909,21 +6971,21 @@
         <v>58</v>
       </c>
       <c r="AD76" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AE76" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF76" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B77" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C77">
         <v>68</v>
@@ -6932,19 +6994,19 @@
         <v>39</v>
       </c>
       <c r="F77" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G77" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H77" t="s">
         <v>35</v>
       </c>
       <c r="I77" t="s">
+        <v>70</v>
+      </c>
+      <c r="J77" t="s">
         <v>71</v>
-      </c>
-      <c r="J77" t="s">
-        <v>72</v>
       </c>
       <c r="M77" t="s">
         <v>1</v>
@@ -6959,7 +7021,7 @@
         <v>39</v>
       </c>
       <c r="V77" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="X77" t="s">
         <v>41</v>
@@ -6968,7 +7030,7 @@
         <v>42</v>
       </c>
       <c r="Z77" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AA77">
         <v>6</v>
@@ -6977,15 +7039,15 @@
         <v>42</v>
       </c>
       <c r="AD77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C78">
         <v>69</v>
@@ -6994,13 +7056,13 @@
         <v>17</v>
       </c>
       <c r="E78" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F78" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G78" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H78" t="s">
         <v>35</v>
@@ -7009,19 +7071,19 @@
         <v>55</v>
       </c>
       <c r="J78" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N78">
         <v>1914</v>
       </c>
       <c r="P78" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="R78" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="S78" t="s">
         <v>38</v>
@@ -7030,7 +7092,7 @@
         <v>48</v>
       </c>
       <c r="V78" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="X78" t="s">
         <v>41</v>
@@ -7039,7 +7101,7 @@
         <v>42</v>
       </c>
       <c r="Z78" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AA78">
         <v>42</v>
@@ -7048,18 +7110,18 @@
         <v>58</v>
       </c>
       <c r="AD78" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AE78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF78" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C79">
         <v>70</v>
@@ -7068,13 +7130,13 @@
         <v>71</v>
       </c>
       <c r="E79" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F79" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G79" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H79" t="s">
         <v>35</v>
@@ -7083,10 +7145,10 @@
         <v>55</v>
       </c>
       <c r="J79" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M79" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N79">
         <v>1928</v>
@@ -7104,7 +7166,7 @@
         <v>48</v>
       </c>
       <c r="V79" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="X79" t="s">
         <v>41</v>
@@ -7116,18 +7178,18 @@
         <v>58</v>
       </c>
       <c r="AD79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF79" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C80">
         <v>71</v>
@@ -7138,7 +7200,7 @@
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C81">
         <v>72</v>
@@ -7149,28 +7211,28 @@
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C82">
         <v>74</v>
       </c>
       <c r="F82" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G82" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H82" t="s">
         <v>35</v>
       </c>
       <c r="I82" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J82" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M82" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N82">
         <v>1981</v>
@@ -7185,10 +7247,10 @@
         <v>38</v>
       </c>
       <c r="T82" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="V82" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="X82" t="s">
         <v>41</v>
@@ -7200,21 +7262,21 @@
         <v>58</v>
       </c>
       <c r="AD82" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE82" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF82" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B83" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C83">
         <v>75</v>
@@ -7223,10 +7285,10 @@
         <v>47</v>
       </c>
       <c r="F83" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G83" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H83" t="s">
         <v>35</v>
@@ -7235,7 +7297,7 @@
         <v>55</v>
       </c>
       <c r="M83" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N83">
         <v>1885</v>
@@ -7253,7 +7315,7 @@
         <v>48</v>
       </c>
       <c r="V83" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AA83">
         <v>42</v>
@@ -7262,18 +7324,18 @@
         <v>58</v>
       </c>
       <c r="AE83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF83" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B84" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C84">
         <v>97</v>
@@ -7282,19 +7344,19 @@
         <v>7</v>
       </c>
       <c r="F84" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G84" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H84" t="s">
         <v>35</v>
       </c>
       <c r="I84" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J84" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K84">
         <v>44.15513</v>
@@ -7303,7 +7365,7 @@
         <v>17.176079999999999</v>
       </c>
       <c r="M84" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N84">
         <v>1890</v>
@@ -7318,7 +7380,7 @@
         <v>39</v>
       </c>
       <c r="V84" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AA84">
         <v>40</v>
@@ -7327,30 +7389,30 @@
         <v>41</v>
       </c>
       <c r="AE84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF84" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B85" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F85" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G85" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H85" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I85" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="P85" t="s">
         <v>46</v>
@@ -7365,7 +7427,7 @@
         <v>39</v>
       </c>
       <c r="V85" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AA85">
         <v>-30</v>
@@ -7374,33 +7436,33 @@
         <v>7</v>
       </c>
       <c r="AC85" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B86" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F86" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G86" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H86" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I86" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="P86" t="s">
         <v>46</v>
       </c>
       <c r="R86" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="S86" t="s">
         <v>38</v>
@@ -7409,7 +7471,7 @@
         <v>39</v>
       </c>
       <c r="V86" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AA86">
         <v>-30</v>
@@ -7418,27 +7480,27 @@
         <v>7</v>
       </c>
       <c r="AC86" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F87" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G87" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H87" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I87" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="J87" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N87">
         <v>1888</v>
@@ -7447,7 +7509,7 @@
         <v>46</v>
       </c>
       <c r="R87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S87" t="s">
         <v>38</v>
@@ -7456,7 +7518,7 @@
         <v>39</v>
       </c>
       <c r="V87" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AA87">
         <v>-30</v>
@@ -7465,27 +7527,27 @@
         <v>7</v>
       </c>
       <c r="AC87" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F88" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G88" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H88" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I88" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="J88" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N88">
         <v>1902</v>
@@ -7503,30 +7565,30 @@
         <v>39</v>
       </c>
       <c r="V88" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F89" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G89" t="s">
+        <v>459</v>
+      </c>
+      <c r="H89" t="s">
+        <v>35</v>
+      </c>
+      <c r="I89" t="s">
         <v>460</v>
       </c>
-      <c r="H89" t="s">
-        <v>35</v>
-      </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
+        <v>461</v>
+      </c>
+      <c r="M89" t="s">
         <v>537</v>
-      </c>
-      <c r="J89" t="s">
-        <v>543</v>
-      </c>
-      <c r="M89" t="s">
-        <v>538</v>
       </c>
       <c r="N89">
         <v>2013</v>
@@ -7544,19 +7606,19 @@
         <v>48</v>
       </c>
       <c r="U89" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>540</v>
-      </c>
-      <c r="W89" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
+      </c>
+      <c r="W89" t="s">
+        <v>538</v>
       </c>
       <c r="Y89" t="s">
         <v>42</v>
       </c>
       <c r="Z89" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AA89">
         <v>42</v>
@@ -7565,23 +7627,24 @@
         <v>58</v>
       </c>
       <c r="AD89" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AF89" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test-inscription_spreadsheet.xlsx
+++ b/test-inscription_spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ewan Coopey\Documents\GitHub\BromansCoopey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2958D49-D200-4348-BF36-5E979334317F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74158D7E-5985-4F6F-95FA-C64CC7A12DA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14544" yWindow="6456" windowWidth="23040" windowHeight="12120"/>
+    <workbookView xWindow="0" yWindow="240" windowWidth="23040" windowHeight="12120"/>
   </bookViews>
   <sheets>
     <sheet name="test-inscription_spreadsheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="535">
   <si>
     <t>MonumentID</t>
   </si>
@@ -40,7 +40,7 @@
     <t>Other-DB</t>
   </si>
   <si>
-    <t>FindspotId</t>
+    <t>FindSpotID</t>
   </si>
   <si>
     <t>Province</t>
@@ -52,12 +52,12 @@
     <t>SpecificLocation</t>
   </si>
   <si>
+    <t>LONG</t>
+  </si>
+  <si>
     <t>LAT</t>
   </si>
   <si>
-    <t>LONG</t>
-  </si>
-  <si>
     <t>FirstPublicationCitation</t>
   </si>
   <si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>Demicheli2011</t>
+  </si>
+  <si>
+    <t>L(ucius) Vettius M(arci) [f(ilius)] / Maec(ia) Secun[dus] / Libarn[a] vet(eranus) le[g(ionis)] / VII vivus [f]ecit si[bi] / et Vettiae L(uci) f(iliae) Ver[ae)] / et Vettiae L(uci) l(ibertae) S[---]</t>
   </si>
   <si>
     <t>Lucius Vetia Secundus, Mark's son, from the Maecia tribune, from the city of Libarna,
@@ -278,9 +281,6 @@
     <t>Hofmann1905, pp. 49-49, no. 37; EDCS-28600125</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Hofmann1905</t>
   </si>
   <si>
@@ -422,7 +422,7 @@
     <t>Hofman1905, pp.56, no.45</t>
   </si>
   <si>
-    <t>Gardun_house</t>
+    <t>Gardun</t>
   </si>
   <si>
     <t>Cn(aeus) Domiti/us Cn(aei) f(ilius) Vel(ina) / Pessinunte / an(norum) XLIV stip(endiorum) / XXV veteran(us) / ex leg(ione) VII h(ic) s(itus) e(st) / testamento / fieri iussit</t>
@@ -515,7 +515,7 @@
     <t>03, 02033</t>
   </si>
   <si>
-    <t>Solin</t>
+    <t>salona</t>
   </si>
   <si>
     <t>Q(uinto) Hortensio / Q(uinti) f(ilio) vet(erano) leg(ionis) / VII h(ic) s(itus) e(st) / Hortensia / Q(uinti) f(ilia) Quarta et / L(ucius) Corellius I[u]c/undus patri posuere</t>
@@ -530,9 +530,6 @@
     <t>EDCS-28500234; IK-19, 00043</t>
   </si>
   <si>
-    <t>S8</t>
-  </si>
-  <si>
     <t>Thracia</t>
   </si>
   <si>
@@ -554,18 +551,12 @@
     <t>BD-VAHD_37-1914,p.65no.4656A</t>
   </si>
   <si>
-    <t>S3</t>
-  </si>
-  <si>
     <t>B25</t>
   </si>
   <si>
     <t>BD-VAHD_31-1908,p.79no.3959A</t>
   </si>
   <si>
-    <t>S4</t>
-  </si>
-  <si>
     <t>Bulić1908</t>
   </si>
   <si>
@@ -575,13 +566,10 @@
     <t>Cambi1994</t>
   </si>
   <si>
-    <t>S9</t>
-  </si>
-  <si>
     <t>Dugopolje</t>
   </si>
   <si>
-    <t>Near Tilurium and Solin</t>
+    <t>Near Tilurium and Salona</t>
   </si>
   <si>
     <t xml:space="preserve">Found as part of a 4th cent. LA tomb </t>
@@ -605,9 +593,6 @@
     <t>03, 02885</t>
   </si>
   <si>
-    <t>S10</t>
-  </si>
-  <si>
     <t>Karin-Corinium</t>
   </si>
   <si>
@@ -662,9 +647,6 @@
     <t>BD-VAHD_11-1888,p.99no.55</t>
   </si>
   <si>
-    <t>Gardun</t>
-  </si>
-  <si>
     <t>Bulić1888</t>
   </si>
   <si>
@@ -704,15 +686,9 @@
     <t>BD-VAHD_20-1897,p.130no.2368č AE1897</t>
   </si>
   <si>
-    <t>S11</t>
-  </si>
-  <si>
     <t>Dicmo</t>
   </si>
   <si>
-    <t>Near Tilurium</t>
-  </si>
-  <si>
     <t>Bulić1897</t>
   </si>
   <si>
@@ -725,9 +701,6 @@
     <t>03, 01814</t>
   </si>
   <si>
-    <t>S7</t>
-  </si>
-  <si>
     <t>P(ublius) Lastus A(uli) f(ilius) Scaeva / domo Florentia / eques vet(eranus) leg(ionis) VII C(laudiae) P(iae) F(idelis) / annor(um) LX stip(endiorum) XXX et Lastae / P(ubli) l(ibertae) Apiculae P(ublio) Lasto Felici / P(ublio) Lasto Diodoro lib(erto) t(estamento) f(ieri) i(ussit)</t>
   </si>
   <si>
@@ -743,9 +716,6 @@
     <t>EDCS-10101980</t>
   </si>
   <si>
-    <t>S12</t>
-  </si>
-  <si>
     <t>Prud</t>
   </si>
   <si>
@@ -770,9 +740,6 @@
     <t>EDCS-10101988</t>
   </si>
   <si>
-    <t>S13</t>
-  </si>
-  <si>
     <t xml:space="preserve">Imotski </t>
   </si>
   <si>
@@ -809,9 +776,6 @@
     <t>AE 1901, 0127(B); AE 1902, 0025; IMS 2, 101; SanaderTončinić2013</t>
   </si>
   <si>
-    <t>S14</t>
-  </si>
-  <si>
     <t>MoesiaS</t>
   </si>
   <si>
@@ -836,9 +800,6 @@
     <t>AE 2000, 01174; Paškvalin1985</t>
   </si>
   <si>
-    <t>S6</t>
-  </si>
-  <si>
     <t>Hardomilje</t>
   </si>
   <si>
@@ -944,9 +905,6 @@
     <t>BD-VAHD_13-1890,p.5no.3</t>
   </si>
   <si>
-    <t>S15</t>
-  </si>
-  <si>
     <t>Asseria</t>
   </si>
   <si>
@@ -1019,9 +977,6 @@
     <t>Cambi1991; AE 1991, 01291; Miletić 1992</t>
   </si>
   <si>
-    <t>Porta Andetria (EastNecropolis OG?)</t>
-  </si>
-  <si>
     <t>Cambi1986</t>
   </si>
   <si>
@@ -1064,9 +1019,6 @@
     <t>BD-VAHD_23-1900p.118 (sketch in here); AE 1900, 0139</t>
   </si>
   <si>
-    <t>S16</t>
-  </si>
-  <si>
     <t>Glavice</t>
   </si>
   <si>
@@ -1094,9 +1046,6 @@
     <t>EDCS-10100861; Atanacković-Salčić1981no.4; Dodig2005a,no.5</t>
   </si>
   <si>
-    <t>Hardomilje (then Humac)</t>
-  </si>
-  <si>
     <t>Q(uintus) Pius L(uci) [f(ilius)] / Ser(gia) Signinus do/mo Con(s)tan(ti)a vet(eranus) / leg(ionis) VII annor(um) LXXI / h(ic) s(itus) e(st)</t>
   </si>
   <si>
@@ -1157,9 +1106,6 @@
     <t>03, 02772</t>
   </si>
   <si>
-    <t>S17</t>
-  </si>
-  <si>
     <t>Danilo Gornje</t>
   </si>
   <si>
@@ -1199,9 +1145,6 @@
     <t>BD-VAHD_50-1928-1929p.13</t>
   </si>
   <si>
-    <t>NthNecropolis-Kapljuč</t>
-  </si>
-  <si>
     <t>Primigeniu[s] / P(ubli) Ploti |(centurionis) leg(ionis) / VII C(laudiae) P(iae) F(idelis) lib(ertus) an[n(orum)] / XX[---] h(ic) s(itus) e(st) / pat[ronus</t>
   </si>
   <si>
@@ -1214,9 +1157,6 @@
     <t>Wilkes1966p.463; Bojanovski1988nos.5, 52.</t>
   </si>
   <si>
-    <t>S2</t>
-  </si>
-  <si>
     <t>Čitluk</t>
   </si>
   <si>
@@ -1250,9 +1190,6 @@
     <t>BD-VAHD_51-1930-1934p.230; Abramić1940pl.36.1; AE 1940, 00177; AE 1941, 00055</t>
   </si>
   <si>
-    <t>S18</t>
-  </si>
-  <si>
     <t>Andetrium</t>
   </si>
   <si>
@@ -1319,9 +1256,24 @@
     <t>B66</t>
   </si>
   <si>
+    <t>03, 08760</t>
+  </si>
+  <si>
+    <t>L(ucio) Trebonio Valenti / mil(iti) leg(ionis) VII C(laudiae) P(iae) F(idelis) et L(ucio) Tre/bonio Constanti f(ilio) et / Treboniae Tertullae / sorori L(ucius) Trebonius / Successus lib(ertus) patronis / suis bene merentib(us) v(ivus) f(ecit) / sibi et suis libert(is) lib(ertabus)q(ue) / in f(ronte) p(edes) XX in ag(ro) p(edes) XII</t>
+  </si>
+  <si>
     <t>B67</t>
   </si>
   <si>
+    <t>03, 0670</t>
+  </si>
+  <si>
+    <t>Zelenika1961pp.323-325; Paškvalin1985pp.120-122; Atanacković-Salšić1981no.5; Škegro1997b.no2; Dodig2005a,no.4</t>
+  </si>
+  <si>
+    <t>P[---]a / at[---] fa/to rapta h(ic) s(ita) e(st) / C(aius) Valerius C(ai) f(ilius) Den/to veter(anus) leg(ionis) VII lib(ertae) / suae posuit</t>
+  </si>
+  <si>
     <t>B68</t>
   </si>
   <si>
@@ -1355,9 +1307,33 @@
     <t>B70</t>
   </si>
   <si>
+    <t>03, 02717 = 9728</t>
+  </si>
+  <si>
+    <t>Fadić1997no.6</t>
+  </si>
+  <si>
+    <t>miles</t>
+  </si>
+  <si>
+    <t>L(ucius) Valerius L(uci) f(ilius) Volt(inia) / domo Philippis / mil(es) leg(ionis) VII ann(orum) XXXV / stip(endiorum) XV h(ic) s(itus) e(st) / t(estamento) f(ieri) i(ussit)</t>
+  </si>
+  <si>
     <t>B71</t>
   </si>
   <si>
+    <t>03, 09761</t>
+  </si>
+  <si>
+    <t>BD-VAHD_1-1878p.34.no32</t>
+  </si>
+  <si>
+    <t>Hrvace</t>
+  </si>
+  <si>
+    <t>M(arcus) Varenus / M(arci) f(ilius) Vol(tinia) Valens ve/ter(anus) leg(ionis) VII C(laudiae) P(iae) F(idelis) t(estamento) f(ieri) i(ussit) / arbitratu M(arci) Vare/ni Secundi liberti idem/que heredis</t>
+  </si>
+  <si>
     <t>B72</t>
   </si>
   <si>
@@ -1400,13 +1376,10 @@
     <t>BD-VAHD_9-1886p.6no.2</t>
   </si>
   <si>
-    <t>S19</t>
-  </si>
-  <si>
-    <t>Bijaći-Siculi</t>
-  </si>
-  <si>
-    <t>Near Tragurium</t>
+    <t>Siculi</t>
+  </si>
+  <si>
+    <t>Bijaći</t>
   </si>
   <si>
     <t>BD-VAHD-9_1886</t>
@@ -1424,9 +1397,6 @@
     <t>03, 02678=09699</t>
   </si>
   <si>
-    <t>S20</t>
-  </si>
-  <si>
     <t>Tragurium</t>
   </si>
   <si>
@@ -1493,9 +1463,30 @@
     <t>B79</t>
   </si>
   <si>
+    <t>03, 09742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BD-VAHD_1-1878p.16no.26; </t>
+  </si>
+  <si>
+    <t>inscription</t>
+  </si>
+  <si>
+    <t>] / C[--- P]ol(lia) Aese / mil(es) leg(ionis) VII / ann(orum) XXX / stip(endiorum) VII h(ic) s(itus) e(st)</t>
+  </si>
+  <si>
     <t>B80</t>
   </si>
   <si>
+    <t>03, 02071</t>
+  </si>
+  <si>
+    <t>AE 1982, 0763</t>
+  </si>
+  <si>
+    <t>] / [Pompt]ina(?) A[rr]etio / [---] mil(es) le[g(ionis)] VII / ann{i}or(um) [---] / [s]tipe[n]dior(um) IX / h(ic) s(itus)</t>
+  </si>
+  <si>
     <t>B81</t>
   </si>
   <si>
@@ -1541,9 +1532,6 @@
     <t>Hörmann1890pp.306-308; ILS 5959; Patsch1914p.175; Patsch1915p.64</t>
   </si>
   <si>
-    <t>S21</t>
-  </si>
-  <si>
     <t>Vaganj</t>
   </si>
   <si>
@@ -1568,9 +1556,6 @@
     <t>AE 1998, +01386; Mitchell1973; Whately2016</t>
   </si>
   <si>
-    <t>S22</t>
-  </si>
-  <si>
     <t>Galatia</t>
   </si>
   <si>
@@ -1580,7 +1565,7 @@
     <t>T(itus) Cissonius / Q(uinti) f(ilius) Serg(ia) / veter(anus) l(egionis) VII dum vixi / bibi libenter bibite vos / qui vivitis / P(ublius) Cissonius Q(uinti) f(ilius) Ser(gia) frater / fecit</t>
   </si>
   <si>
-    <t>My own dates</t>
+    <t>My own dates - could be 6-8 ending</t>
   </si>
   <si>
     <t>B85</t>
@@ -1589,9 +1574,6 @@
     <t>03, 06827</t>
   </si>
   <si>
-    <t>miles</t>
-  </si>
-  <si>
     <t>L(ucius) Coelius / L(uci) f(ilius) Ani(ensi) mil(es) / leg(ionis) VII ex / test(amento) Faust(us) l(ibertus)</t>
   </si>
   <si>
@@ -1601,9 +1583,6 @@
     <t>Bean1959p.93; Whately2016</t>
   </si>
   <si>
-    <t>S23</t>
-  </si>
-  <si>
     <t>Cormasa</t>
   </si>
   <si>
@@ -1619,9 +1598,6 @@
     <t>IGRRP-3, 01476; Whately2016</t>
   </si>
   <si>
-    <t>S24</t>
-  </si>
-  <si>
     <t>Iconium</t>
   </si>
   <si>
@@ -1637,6 +1613,9 @@
     <t>Matijević2017</t>
   </si>
   <si>
+    <t>C(aius) Auliu[s] C(ai) f(ilius) / Ani(ensis) Secundus / domo Cremona / vet(eranus) leg(ionis) VII C(laudiae) p(iae) f(idelis) /5 h(ic) s(itus) e(st) Arria / Agat(h)emeris co(n)iugi /caris(s)imo ben[e] / merenti posu[it et(?)] / Q(uinto) Arri(o) Prisc[o(?) p(atri) vel fr(atri) vel p(atrono)] / se viva et / sibi posuit.</t>
+  </si>
+  <si>
     <t>Here lies Gaius Aulius Secundus, son of Gaius, (registered in the voting tribe Aniensis, (from) the city of Cremona, veteran of legio VII Claudia pia fidelis. Arria Agathemeris made this for herself and her well-deserving husband, [and(?)] Quintus Arrius Priscus (?) [father or brother or patron]</t>
   </si>
   <si>
@@ -1647,27 +1626,6 @@
   </si>
   <si>
     <t>B90</t>
-  </si>
-  <si>
-    <t>C(aius) Auliu[s] C(ai) f(ilius) / Ani(ensis) Secundus / domo Cremona / vet(eranus) leg(ionis) VII C(laudiae) p(iae) f(idelis) /5 h(ic) s(itus) e(st) Arria / Agat(h)emeris co(n)iugi /caris(s)imo ben[e] / merenti posu[it et(?)] / Q(uinto) Arri(o) Prisc[o(?) p(atri) vel fr(atri) vel p(atrono)] / se viva et / sibi posuit.</t>
-  </si>
-  <si>
-    <t>L(ucius) Vettius M(arci) [f(ilius)] / Maec(ia) Secun[dus] / Libarn[a] vet(eranus) le[g(ionis)] / VII vivus [f]ecit si[bi] / et Vettiae L(uci) f(iliae) Ver[ae)] / et Vettiae L(uci) l(ibertae) S[---]</t>
-  </si>
-  <si>
-    <t>Hrvace</t>
-  </si>
-  <si>
-    <t>S25</t>
-  </si>
-  <si>
-    <t>03, 09761</t>
-  </si>
-  <si>
-    <t>BD-VAHD_1-1878p.34.no32</t>
-  </si>
-  <si>
-    <t>M(arcus) Varenus / M(arci) f(ilius) Vol(tinia) Valens ve/ter(anus) leg(ionis) VII C(laudiae) P(iae) F(idelis) t(estamento) f(ieri) i(ussit) / arbitratu M(arci) Vare/ni Secundi liberti idem/que heredis</t>
   </si>
 </sst>
 </file>
@@ -2153,7 +2111,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2511,8 +2471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2638,10 +2598,10 @@
         <v>36</v>
       </c>
       <c r="K2">
+        <v>15.2313648</v>
+      </c>
+      <c r="L2">
         <v>44.119371000000001</v>
-      </c>
-      <c r="L2">
-        <v>15.2313648</v>
       </c>
       <c r="P2" t="s">
         <v>37</v>
@@ -2691,10 +2651,10 @@
         <v>45</v>
       </c>
       <c r="K3">
+        <v>16.655704</v>
+      </c>
+      <c r="L3">
         <v>43.739277999999999</v>
-      </c>
-      <c r="L3">
-        <v>16.655704</v>
       </c>
       <c r="P3" t="s">
         <v>46</v>
@@ -2747,10 +2707,10 @@
         <v>56</v>
       </c>
       <c r="K4">
+        <v>16.44032121</v>
+      </c>
+      <c r="L4">
         <v>43.50811796</v>
-      </c>
-      <c r="L4">
-        <v>16.44032121</v>
       </c>
       <c r="P4" t="s">
         <v>57</v>
@@ -2777,80 +2737,80 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:32" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>66</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>4</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>62</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5">
         <v>1965</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" t="s">
         <v>47</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T5" s="1" t="s">
+      <c r="S5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5" t="s">
         <v>39</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>543</v>
+      <c r="V5" t="s">
+        <v>64</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="X5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X5" t="s">
         <v>41</v>
       </c>
-      <c r="Y5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA5" s="1">
+      <c r="Y5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA5">
         <v>6</v>
       </c>
-      <c r="AB5" s="1">
-        <v>42</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AB5">
+        <v>42</v>
+      </c>
+      <c r="AD5" t="s">
         <v>67</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -2859,16 +2819,16 @@
         <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P6" t="s">
         <v>46</v>
       </c>
       <c r="Q6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S6" t="s">
         <v>38</v>
@@ -2877,24 +2837,24 @@
         <v>39</v>
       </c>
       <c r="U6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s">
         <v>41</v>
       </c>
       <c r="AD6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2903,7 +2863,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -2912,19 +2872,19 @@
         <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K7">
+        <v>16.729320999999999</v>
+      </c>
+      <c r="L7">
         <v>43.607337999999999</v>
-      </c>
-      <c r="L7">
-        <v>16.729320999999999</v>
       </c>
       <c r="N7">
         <v>1831</v>
       </c>
       <c r="Q7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s">
         <v>38</v>
@@ -2933,7 +2893,7 @@
         <v>39</v>
       </c>
       <c r="V7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA7">
         <v>6</v>
@@ -2942,18 +2902,18 @@
         <v>42</v>
       </c>
       <c r="AD7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -2962,7 +2922,7 @@
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -2970,9 +2930,6 @@
       <c r="H8" t="s">
         <v>35</v>
       </c>
-      <c r="I8" t="s">
-        <v>85</v>
-      </c>
       <c r="M8" t="s">
         <v>86</v>
       </c>
@@ -2983,7 +2940,7 @@
         <v>46</v>
       </c>
       <c r="Q8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R8" t="s">
         <v>87</v>
@@ -3092,7 +3049,7 @@
         <v>46</v>
       </c>
       <c r="Q10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S10" t="s">
         <v>38</v>
@@ -3101,7 +3058,7 @@
         <v>39</v>
       </c>
       <c r="AD10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
@@ -3121,7 +3078,13 @@
         <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="K11">
+        <v>16.729320999999999</v>
+      </c>
+      <c r="L11">
+        <v>43.607337999999999</v>
       </c>
       <c r="M11" t="s">
         <v>99</v>
@@ -3133,7 +3096,7 @@
         <v>46</v>
       </c>
       <c r="Q11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S11" t="s">
         <v>38</v>
@@ -3151,10 +3114,10 @@
         <v>42</v>
       </c>
       <c r="AD11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
@@ -3204,7 +3167,7 @@
         <v>42</v>
       </c>
       <c r="AD12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s">
         <v>103</v>
@@ -3233,10 +3196,10 @@
         <v>35</v>
       </c>
       <c r="I13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M13" t="s">
         <v>107</v>
@@ -3248,7 +3211,7 @@
         <v>46</v>
       </c>
       <c r="Q13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S13" t="s">
         <v>38</v>
@@ -3278,7 +3241,7 @@
         <v>111</v>
       </c>
       <c r="AE13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
@@ -3331,7 +3294,7 @@
         <v>58</v>
       </c>
       <c r="AE14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
@@ -3384,7 +3347,7 @@
         <v>110</v>
       </c>
       <c r="Y15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AA15">
         <v>42</v>
@@ -3487,7 +3450,7 @@
         <v>35</v>
       </c>
       <c r="I17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J17" t="s">
         <v>133</v>
@@ -3526,10 +3489,10 @@
         <v>42</v>
       </c>
       <c r="AD17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.3">
@@ -3608,10 +3571,10 @@
         <v>35</v>
       </c>
       <c r="I19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M19" t="s">
         <v>142</v>
@@ -3647,10 +3610,10 @@
         <v>58</v>
       </c>
       <c r="AD19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.3">
@@ -3738,10 +3701,10 @@
         <v>153</v>
       </c>
       <c r="K21">
+        <v>17.624645229999999</v>
+      </c>
+      <c r="L21">
         <v>43.081301549999999</v>
-      </c>
-      <c r="L21">
-        <v>17.624645229999999</v>
       </c>
       <c r="P21" t="s">
         <v>46</v>
@@ -3771,7 +3734,7 @@
         <v>42</v>
       </c>
       <c r="AD21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE21" t="s">
         <v>155</v>
@@ -3859,7 +3822,7 @@
         <v>57</v>
       </c>
       <c r="G23">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H23" t="s">
         <v>35</v>
@@ -3905,20 +3868,20 @@
       <c r="F24" t="s">
         <v>168</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
         <v>169</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>170</v>
       </c>
-      <c r="I24" t="s">
-        <v>171</v>
-      </c>
       <c r="K24">
+        <v>26.750810000000001</v>
+      </c>
+      <c r="L24">
         <v>40.548231999999999</v>
-      </c>
-      <c r="L24">
-        <v>26.750810000000001</v>
       </c>
       <c r="P24" t="s">
         <v>46</v>
@@ -3933,7 +3896,7 @@
         <v>38</v>
       </c>
       <c r="V24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AA24">
         <v>-30</v>
@@ -3942,18 +3905,18 @@
         <v>42</v>
       </c>
       <c r="AC24" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF24" t="s">
         <v>173</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C25">
         <v>19</v>
@@ -3965,10 +3928,10 @@
         <v>2105</v>
       </c>
       <c r="F25" t="s">
-        <v>176</v>
-      </c>
-      <c r="G25" t="s">
-        <v>177</v>
+        <v>175</v>
+      </c>
+      <c r="G25">
+        <v>8</v>
       </c>
       <c r="H25" t="s">
         <v>35</v>
@@ -3995,12 +3958,12 @@
         <v>58</v>
       </c>
       <c r="AE25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C26">
         <v>20</v>
@@ -4012,22 +3975,22 @@
         <v>1950</v>
       </c>
       <c r="F26" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" t="s">
-        <v>180</v>
+        <v>177</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
       </c>
       <c r="H26" t="s">
         <v>35</v>
       </c>
       <c r="I26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M26" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N26">
         <v>1908</v>
@@ -4057,33 +4020,33 @@
         <v>111</v>
       </c>
       <c r="AE26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C27">
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>183</v>
-      </c>
-      <c r="G27" t="s">
-        <v>184</v>
+        <v>180</v>
+      </c>
+      <c r="G27">
+        <v>17</v>
       </c>
       <c r="H27" t="s">
         <v>35</v>
       </c>
       <c r="I27" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J27" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M27" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N27">
         <v>1994</v>
@@ -4113,21 +4076,21 @@
         <v>42</v>
       </c>
       <c r="AD27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF27" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B28" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C28">
         <v>22</v>
@@ -4136,19 +4099,19 @@
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>190</v>
-      </c>
-      <c r="G28" t="s">
-        <v>180</v>
+        <v>186</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
       </c>
       <c r="H28" t="s">
         <v>35</v>
       </c>
       <c r="I28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M28" t="s">
         <v>1</v>
@@ -4163,7 +4126,7 @@
         <v>39</v>
       </c>
       <c r="V28" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AA28">
         <v>6</v>
@@ -4177,10 +4140,10 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B29" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C29">
         <v>23</v>
@@ -4188,17 +4151,17 @@
       <c r="D29">
         <v>29</v>
       </c>
-      <c r="G29" t="s">
-        <v>194</v>
+      <c r="G29">
+        <v>18</v>
       </c>
       <c r="H29" t="s">
         <v>35</v>
       </c>
       <c r="I29" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="J29" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P29" t="s">
         <v>46</v>
@@ -4210,7 +4173,7 @@
         <v>48</v>
       </c>
       <c r="V29" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AA29">
         <v>42</v>
@@ -4224,10 +4187,10 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B30" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C30">
         <v>24</v>
@@ -4236,19 +4199,19 @@
         <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>200</v>
-      </c>
-      <c r="G30" t="s">
-        <v>180</v>
+        <v>195</v>
+      </c>
+      <c r="G30">
+        <v>19</v>
       </c>
       <c r="H30" t="s">
         <v>35</v>
       </c>
       <c r="I30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J30" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M30" t="s">
         <v>1</v>
@@ -4263,7 +4226,7 @@
         <v>48</v>
       </c>
       <c r="V30" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AA30">
         <v>42</v>
@@ -4277,10 +4240,10 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B31" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C31">
         <v>25</v>
@@ -4289,22 +4252,22 @@
         <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>205</v>
-      </c>
-      <c r="G31" t="s">
-        <v>180</v>
+        <v>200</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
       </c>
       <c r="H31" t="s">
         <v>35</v>
       </c>
       <c r="I31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M31" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="P31" t="s">
         <v>46</v>
@@ -4316,7 +4279,7 @@
         <v>144</v>
       </c>
       <c r="V31" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="X31" t="s">
         <v>110</v>
@@ -4331,21 +4294,21 @@
         <v>58</v>
       </c>
       <c r="AD31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF31" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B32" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C32">
         <v>26</v>
@@ -4354,25 +4317,25 @@
         <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F32" t="s">
-        <v>212</v>
-      </c>
-      <c r="G32" t="s">
-        <v>180</v>
+        <v>207</v>
+      </c>
+      <c r="G32">
+        <v>13</v>
       </c>
       <c r="H32" t="s">
         <v>35</v>
       </c>
       <c r="I32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J32" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="M32" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="N32">
         <v>1888</v>
@@ -4387,7 +4350,7 @@
         <v>39</v>
       </c>
       <c r="V32" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="X32" t="s">
         <v>41</v>
@@ -4402,18 +4365,18 @@
         <v>42</v>
       </c>
       <c r="AD32" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AE32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B33" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C33">
         <v>27</v>
@@ -4421,8 +4384,8 @@
       <c r="D33">
         <v>49</v>
       </c>
-      <c r="G33" t="s">
-        <v>177</v>
+      <c r="G33">
+        <v>11</v>
       </c>
       <c r="H33" t="s">
         <v>35</v>
@@ -4440,7 +4403,7 @@
         <v>47</v>
       </c>
       <c r="R33" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="S33" t="s">
         <v>38</v>
@@ -4449,7 +4412,7 @@
         <v>48</v>
       </c>
       <c r="V33" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AA33">
         <v>42</v>
@@ -4458,15 +4421,15 @@
         <v>58</v>
       </c>
       <c r="AE33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B34" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C34">
         <v>28</v>
@@ -4474,8 +4437,8 @@
       <c r="D34">
         <v>50</v>
       </c>
-      <c r="G34" t="s">
-        <v>177</v>
+      <c r="G34">
+        <v>11</v>
       </c>
       <c r="H34" t="s">
         <v>35</v>
@@ -4499,7 +4462,7 @@
         <v>48</v>
       </c>
       <c r="V34" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AA34">
         <v>42</v>
@@ -4513,10 +4476,10 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B35" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C35">
         <v>29</v>
@@ -4525,22 +4488,22 @@
         <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>226</v>
-      </c>
-      <c r="G35" t="s">
-        <v>227</v>
+        <v>220</v>
+      </c>
+      <c r="G35">
+        <v>20</v>
       </c>
       <c r="H35" t="s">
         <v>35</v>
       </c>
       <c r="I35" t="s">
-        <v>228</v>
+        <v>71</v>
       </c>
       <c r="J35" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="M35" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="N35">
         <v>1897</v>
@@ -4555,7 +4518,7 @@
         <v>39</v>
       </c>
       <c r="V35" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="X35" t="s">
         <v>41</v>
@@ -4570,18 +4533,18 @@
         <v>42</v>
       </c>
       <c r="AD35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B36" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36">
         <v>30</v>
@@ -4589,8 +4552,8 @@
       <c r="D36">
         <v>19</v>
       </c>
-      <c r="G36" t="s">
-        <v>234</v>
+      <c r="G36">
+        <v>15</v>
       </c>
       <c r="H36" t="s">
         <v>35</v>
@@ -4620,7 +4583,7 @@
         <v>48</v>
       </c>
       <c r="V36" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="X36" t="s">
         <v>41</v>
@@ -4635,42 +4598,42 @@
         <v>58</v>
       </c>
       <c r="AE36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B37" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E37" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F37" t="s">
-        <v>239</v>
-      </c>
-      <c r="G37" t="s">
-        <v>240</v>
+        <v>230</v>
+      </c>
+      <c r="G37">
+        <v>21</v>
       </c>
       <c r="H37" t="s">
         <v>35</v>
       </c>
       <c r="I37" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="M37" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="P37" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="S37" t="s">
         <v>39</v>
       </c>
       <c r="V37" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="AA37">
         <v>79</v>
@@ -4681,40 +4644,40 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B38" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E38" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F38" t="s">
-        <v>248</v>
-      </c>
-      <c r="G38" t="s">
-        <v>249</v>
+        <v>238</v>
+      </c>
+      <c r="G38">
+        <v>22</v>
       </c>
       <c r="H38" t="s">
         <v>35</v>
       </c>
       <c r="I38" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J38" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="M38" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="P38" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="S38" t="s">
         <v>39</v>
       </c>
       <c r="V38" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="AA38">
         <v>253</v>
@@ -4725,31 +4688,31 @@
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B39" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="F39" t="s">
-        <v>255</v>
-      </c>
-      <c r="G39" t="s">
-        <v>180</v>
+        <v>244</v>
+      </c>
+      <c r="G39">
+        <v>23</v>
       </c>
       <c r="H39" t="s">
         <v>35</v>
       </c>
       <c r="I39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J39" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="K39">
+        <v>16.728064</v>
+      </c>
+      <c r="L39">
         <v>43.614617189999997</v>
-      </c>
-      <c r="L39">
-        <v>16.728064</v>
       </c>
       <c r="M39" t="s">
         <v>1</v>
@@ -4764,7 +4727,7 @@
         <v>39</v>
       </c>
       <c r="V39" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="AA39">
         <v>184</v>
@@ -4773,45 +4736,45 @@
         <v>184</v>
       </c>
       <c r="AE39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF39" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="B40" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="F40" t="s">
-        <v>261</v>
-      </c>
-      <c r="G40" t="s">
-        <v>262</v>
+        <v>250</v>
+      </c>
+      <c r="G40">
+        <v>24</v>
       </c>
       <c r="H40" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="I40" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J40" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="P40" t="s">
         <v>46</v>
       </c>
       <c r="R40" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="S40" t="s">
         <v>38</v>
       </c>
       <c r="V40" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="AA40">
         <v>58</v>
@@ -4823,12 +4786,12 @@
         <v>90</v>
       </c>
       <c r="AF40" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C41">
         <v>31</v>
@@ -4837,10 +4800,10 @@
         <v>58</v>
       </c>
       <c r="F41" t="s">
-        <v>270</v>
-      </c>
-      <c r="G41" t="s">
-        <v>271</v>
+        <v>258</v>
+      </c>
+      <c r="G41">
+        <v>25</v>
       </c>
       <c r="H41" t="s">
         <v>35</v>
@@ -4849,7 +4812,7 @@
         <v>125</v>
       </c>
       <c r="J41" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="M41" t="s">
         <v>147</v>
@@ -4858,7 +4821,7 @@
         <v>1927</v>
       </c>
       <c r="O41" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="P41" t="s">
         <v>46</v>
@@ -4873,13 +4836,13 @@
         <v>39</v>
       </c>
       <c r="V41" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="X41" t="s">
         <v>41</v>
       </c>
       <c r="Y41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AA41">
         <v>6</v>
@@ -4888,15 +4851,15 @@
         <v>42</v>
       </c>
       <c r="AD41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE41" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C42">
         <v>32</v>
@@ -4908,10 +4871,10 @@
         <v>1920</v>
       </c>
       <c r="F42" t="s">
-        <v>277</v>
-      </c>
-      <c r="G42" t="s">
-        <v>271</v>
+        <v>264</v>
+      </c>
+      <c r="G42">
+        <v>25</v>
       </c>
       <c r="H42" t="s">
         <v>35</v>
@@ -4920,10 +4883,10 @@
         <v>125</v>
       </c>
       <c r="J42" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="M42" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="N42">
         <v>1908</v>
@@ -4941,7 +4904,7 @@
         <v>39</v>
       </c>
       <c r="V42" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="X42" t="s">
         <v>110</v>
@@ -4956,7 +4919,7 @@
         <v>42</v>
       </c>
       <c r="AD42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE42" t="s">
         <v>161</v>
@@ -4964,16 +4927,16 @@
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C43">
         <v>33</v>
       </c>
       <c r="F43" t="s">
-        <v>281</v>
-      </c>
-      <c r="G43" t="s">
-        <v>177</v>
+        <v>268</v>
+      </c>
+      <c r="G43">
+        <v>11</v>
       </c>
       <c r="H43" t="s">
         <v>35</v>
@@ -4982,7 +4945,7 @@
         <v>55</v>
       </c>
       <c r="M43" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="N43">
         <v>1996</v>
@@ -5000,7 +4963,7 @@
         <v>48</v>
       </c>
       <c r="V43" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="X43" t="s">
         <v>41</v>
@@ -5018,18 +4981,18 @@
         <v>129</v>
       </c>
       <c r="AE43" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="AF43" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="B44" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="C44">
         <v>34</v>
@@ -5038,19 +5001,19 @@
         <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>288</v>
-      </c>
-      <c r="G44" t="s">
-        <v>180</v>
+        <v>275</v>
+      </c>
+      <c r="G44">
+        <v>13</v>
       </c>
       <c r="H44" t="s">
         <v>35</v>
       </c>
       <c r="I44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J44" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="M44" t="s">
         <v>107</v>
@@ -5071,13 +5034,13 @@
         <v>108</v>
       </c>
       <c r="V44" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="X44" t="s">
         <v>110</v>
       </c>
       <c r="Y44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AA44">
         <v>6</v>
@@ -5086,21 +5049,21 @@
         <v>42</v>
       </c>
       <c r="AD44" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="AE44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF44" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="B45" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="C45">
         <v>35</v>
@@ -5109,10 +5072,10 @@
         <v>15</v>
       </c>
       <c r="F45" t="s">
-        <v>294</v>
-      </c>
-      <c r="G45" t="s">
-        <v>177</v>
+        <v>281</v>
+      </c>
+      <c r="G45">
+        <v>11</v>
       </c>
       <c r="H45" t="s">
         <v>35</v>
@@ -5127,7 +5090,7 @@
         <v>46</v>
       </c>
       <c r="R45" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="S45" t="s">
         <v>38</v>
@@ -5136,16 +5099,16 @@
         <v>48</v>
       </c>
       <c r="U45" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="V45" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="X45" t="s">
         <v>41</v>
       </c>
       <c r="Y45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AA45">
         <v>42</v>
@@ -5154,21 +5117,21 @@
         <v>58</v>
       </c>
       <c r="AD45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF45" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="B46" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="C46">
         <v>36</v>
@@ -5177,10 +5140,10 @@
         <v>60</v>
       </c>
       <c r="F46" t="s">
-        <v>301</v>
-      </c>
-      <c r="G46" t="s">
-        <v>177</v>
+        <v>288</v>
+      </c>
+      <c r="G46">
+        <v>11</v>
       </c>
       <c r="H46" t="s">
         <v>35</v>
@@ -5204,7 +5167,7 @@
         <v>48</v>
       </c>
       <c r="V46" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="AA46">
         <v>42</v>
@@ -5216,15 +5179,15 @@
         <v>90</v>
       </c>
       <c r="AF46" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B47" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="C47">
         <v>37</v>
@@ -5233,28 +5196,28 @@
         <v>61</v>
       </c>
       <c r="F47" t="s">
-        <v>306</v>
-      </c>
-      <c r="G47" t="s">
-        <v>307</v>
+        <v>293</v>
+      </c>
+      <c r="G47">
+        <v>26</v>
       </c>
       <c r="H47" t="s">
         <v>35</v>
       </c>
       <c r="I47" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="J47" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="M47" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="N47">
         <v>1890</v>
       </c>
       <c r="O47" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="P47" t="s">
         <v>46</v>
@@ -5269,7 +5232,7 @@
         <v>39</v>
       </c>
       <c r="V47" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="Y47" t="s">
         <v>42</v>
@@ -5281,7 +5244,7 @@
         <v>42</v>
       </c>
       <c r="AD47" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE47" t="s">
         <v>103</v>
@@ -5289,7 +5252,7 @@
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C48">
         <v>38</v>
@@ -5301,10 +5264,10 @@
         <v>2092</v>
       </c>
       <c r="F48" t="s">
-        <v>314</v>
-      </c>
-      <c r="G48" t="s">
-        <v>177</v>
+        <v>300</v>
+      </c>
+      <c r="G48">
+        <v>8</v>
       </c>
       <c r="H48" t="s">
         <v>35</v>
@@ -5331,7 +5294,7 @@
         <v>48</v>
       </c>
       <c r="V48" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="Y48" t="s">
         <v>42</v>
@@ -5343,18 +5306,18 @@
         <v>58</v>
       </c>
       <c r="AD48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="B49" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="C49">
         <v>39</v>
@@ -5363,22 +5326,22 @@
         <v>34</v>
       </c>
       <c r="F49" t="s">
-        <v>318</v>
-      </c>
-      <c r="G49" t="s">
-        <v>180</v>
+        <v>304</v>
+      </c>
+      <c r="G49">
+        <v>13</v>
       </c>
       <c r="H49" t="s">
         <v>35</v>
       </c>
       <c r="I49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J49" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="M49" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="N49">
         <v>1898</v>
@@ -5393,7 +5356,7 @@
         <v>39</v>
       </c>
       <c r="V49" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="X49" t="s">
         <v>41</v>
@@ -5408,24 +5371,24 @@
         <v>42</v>
       </c>
       <c r="AD49" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="AE49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="C50">
         <v>40</v>
       </c>
       <c r="F50" t="s">
-        <v>323</v>
-      </c>
-      <c r="G50" t="s">
-        <v>271</v>
+        <v>309</v>
+      </c>
+      <c r="G50">
+        <v>27</v>
       </c>
       <c r="H50" t="s">
         <v>35</v>
@@ -5434,10 +5397,10 @@
         <v>125</v>
       </c>
       <c r="J50" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="M50" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="N50">
         <v>1893</v>
@@ -5449,10 +5412,10 @@
         <v>38</v>
       </c>
       <c r="T50" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="V50" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="X50" t="s">
         <v>110</v>
@@ -5467,27 +5430,27 @@
         <v>58</v>
       </c>
       <c r="AD50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE50" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="AF50" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="C51">
         <v>41</v>
       </c>
       <c r="F51" t="s">
-        <v>331</v>
-      </c>
-      <c r="G51" t="s">
-        <v>177</v>
+        <v>317</v>
+      </c>
+      <c r="G51">
+        <v>9</v>
       </c>
       <c r="H51" t="s">
         <v>35</v>
@@ -5496,10 +5459,10 @@
         <v>55</v>
       </c>
       <c r="J51" t="s">
-        <v>332</v>
+        <v>97</v>
       </c>
       <c r="M51" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="N51">
         <v>1986</v>
@@ -5514,13 +5477,13 @@
         <v>48</v>
       </c>
       <c r="V51" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="X51" t="s">
         <v>110</v>
       </c>
       <c r="Y51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AA51">
         <v>42</v>
@@ -5532,30 +5495,30 @@
         <v>121</v>
       </c>
       <c r="AE51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="C52">
         <v>42</v>
       </c>
       <c r="F52" t="s">
-        <v>336</v>
-      </c>
-      <c r="G52" t="s">
-        <v>180</v>
+        <v>321</v>
+      </c>
+      <c r="G52">
+        <v>5</v>
       </c>
       <c r="H52" t="s">
         <v>35</v>
       </c>
       <c r="I52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M52" t="s">
         <v>99</v>
@@ -5573,7 +5536,7 @@
         <v>39</v>
       </c>
       <c r="V52" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="X52" t="s">
         <v>41</v>
@@ -5588,18 +5551,18 @@
         <v>42</v>
       </c>
       <c r="AD52" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AE52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="B53" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="C53">
         <v>43</v>
@@ -5611,22 +5574,22 @@
         <v>1941</v>
       </c>
       <c r="F53" t="s">
-        <v>340</v>
-      </c>
-      <c r="G53" t="s">
-        <v>180</v>
+        <v>325</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
       </c>
       <c r="H53" t="s">
         <v>35</v>
       </c>
       <c r="I53" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J53" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M53" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="N53">
         <v>1878</v>
@@ -5641,7 +5604,7 @@
         <v>144</v>
       </c>
       <c r="V53" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="Y53" t="s">
         <v>42</v>
@@ -5653,18 +5616,18 @@
         <v>58</v>
       </c>
       <c r="AE53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF53" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="B54" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="C54">
         <v>44</v>
@@ -5673,22 +5636,22 @@
         <v>62</v>
       </c>
       <c r="F54" t="s">
-        <v>346</v>
-      </c>
-      <c r="G54" t="s">
-        <v>347</v>
+        <v>331</v>
+      </c>
+      <c r="G54">
+        <v>28</v>
       </c>
       <c r="H54" t="s">
         <v>35</v>
       </c>
       <c r="I54" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="J54" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="M54" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="N54">
         <v>1900</v>
@@ -5706,7 +5669,7 @@
         <v>48</v>
       </c>
       <c r="V54" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="X54" t="s">
         <v>41</v>
@@ -5718,18 +5681,18 @@
         <v>58</v>
       </c>
       <c r="AD54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE54" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="AF54" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C55">
         <v>45</v>
@@ -5738,13 +5701,13 @@
         <v>63</v>
       </c>
       <c r="E55" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="F55" t="s">
-        <v>356</v>
-      </c>
-      <c r="G55" t="s">
-        <v>271</v>
+        <v>340</v>
+      </c>
+      <c r="G55">
+        <v>25</v>
       </c>
       <c r="H55" t="s">
         <v>35</v>
@@ -5753,7 +5716,7 @@
         <v>125</v>
       </c>
       <c r="J55" t="s">
-        <v>357</v>
+        <v>259</v>
       </c>
       <c r="M55" t="s">
         <v>147</v>
@@ -5774,7 +5737,7 @@
         <v>39</v>
       </c>
       <c r="V55" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="AA55">
         <v>6</v>
@@ -5786,15 +5749,15 @@
         <v>129</v>
       </c>
       <c r="AE55" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="B56" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="C56">
         <v>46</v>
@@ -5803,25 +5766,25 @@
         <v>16</v>
       </c>
       <c r="F56" t="s">
-        <v>361</v>
-      </c>
-      <c r="G56" t="s">
-        <v>180</v>
+        <v>344</v>
+      </c>
+      <c r="G56">
+        <v>13</v>
       </c>
       <c r="H56" t="s">
         <v>35</v>
       </c>
       <c r="I56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J56" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="P56" t="s">
         <v>46</v>
       </c>
       <c r="R56" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="S56" t="s">
         <v>38</v>
@@ -5830,7 +5793,7 @@
         <v>39</v>
       </c>
       <c r="V56" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="X56" t="s">
         <v>41</v>
@@ -5839,7 +5802,7 @@
         <v>42</v>
       </c>
       <c r="Z56" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="AA56">
         <v>6</v>
@@ -5848,36 +5811,36 @@
         <v>42</v>
       </c>
       <c r="AD56" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE56" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="C57">
         <v>47</v>
       </c>
       <c r="F57" t="s">
-        <v>365</v>
-      </c>
-      <c r="G57" t="s">
-        <v>180</v>
+        <v>348</v>
+      </c>
+      <c r="G57">
+        <v>13</v>
       </c>
       <c r="H57" t="s">
         <v>35</v>
       </c>
       <c r="I57" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J57" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="M57" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="N57">
         <v>1893</v>
@@ -5892,7 +5855,7 @@
         <v>144</v>
       </c>
       <c r="V57" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="Y57" t="s">
         <v>42</v>
@@ -5904,21 +5867,21 @@
         <v>58</v>
       </c>
       <c r="AD57" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF57" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="B58" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="C58">
         <v>48</v>
@@ -5927,19 +5890,19 @@
         <v>82</v>
       </c>
       <c r="F58" t="s">
-        <v>371</v>
-      </c>
-      <c r="G58" t="s">
-        <v>180</v>
+        <v>354</v>
+      </c>
+      <c r="G58">
+        <v>29</v>
       </c>
       <c r="H58" t="s">
         <v>35</v>
       </c>
       <c r="I58" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J58" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="M58" t="s">
         <v>107</v>
@@ -5960,10 +5923,10 @@
         <v>144</v>
       </c>
       <c r="V58" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="Y58" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="AA58">
         <v>6</v>
@@ -5972,18 +5935,18 @@
         <v>58</v>
       </c>
       <c r="AE58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF58" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="B59" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="C59">
         <v>49</v>
@@ -5991,17 +5954,17 @@
       <c r="D59">
         <v>36</v>
       </c>
-      <c r="G59" t="s">
-        <v>378</v>
+      <c r="G59">
+        <v>30</v>
       </c>
       <c r="H59" t="s">
         <v>35</v>
       </c>
       <c r="I59" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="J59" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="M59" t="s">
         <v>1</v>
@@ -6016,7 +5979,7 @@
         <v>48</v>
       </c>
       <c r="V59" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="AA59">
         <v>42</v>
@@ -6028,12 +5991,12 @@
         <v>90</v>
       </c>
       <c r="AF59" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="C60">
         <v>50</v>
@@ -6042,13 +6005,13 @@
         <v>64</v>
       </c>
       <c r="E60" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="F60" t="s">
-        <v>385</v>
-      </c>
-      <c r="G60" t="s">
-        <v>177</v>
+        <v>367</v>
+      </c>
+      <c r="G60">
+        <v>8</v>
       </c>
       <c r="H60" t="s">
         <v>35</v>
@@ -6063,7 +6026,7 @@
         <v>1904</v>
       </c>
       <c r="O60" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="P60" t="s">
         <v>46</v>
@@ -6078,7 +6041,7 @@
         <v>39</v>
       </c>
       <c r="V60" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="AA60">
         <v>6</v>
@@ -6087,15 +6050,15 @@
         <v>42</v>
       </c>
       <c r="AE60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF60" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="C61">
         <v>51</v>
@@ -6104,13 +6067,13 @@
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="F61" t="s">
-        <v>391</v>
-      </c>
-      <c r="G61" t="s">
-        <v>177</v>
+        <v>373</v>
+      </c>
+      <c r="G61">
+        <v>8</v>
       </c>
       <c r="H61" t="s">
         <v>35</v>
@@ -6119,7 +6082,7 @@
         <v>55</v>
       </c>
       <c r="J61" t="s">
-        <v>392</v>
+        <v>93</v>
       </c>
       <c r="P61" t="s">
         <v>46</v>
@@ -6134,7 +6097,7 @@
         <v>48</v>
       </c>
       <c r="V61" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="AA61">
         <v>42</v>
@@ -6143,15 +6106,15 @@
         <v>58</v>
       </c>
       <c r="AE61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="B62" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="C62">
         <v>52</v>
@@ -6160,19 +6123,19 @@
         <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>396</v>
-      </c>
-      <c r="G62" t="s">
-        <v>397</v>
+        <v>377</v>
+      </c>
+      <c r="G62">
+        <v>31</v>
       </c>
       <c r="H62" t="s">
         <v>35</v>
       </c>
       <c r="I62" t="s">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="J62" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="P62" t="s">
         <v>46</v>
@@ -6187,7 +6150,7 @@
         <v>39</v>
       </c>
       <c r="V62" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="AA62">
         <v>6</v>
@@ -6199,15 +6162,15 @@
         <v>90</v>
       </c>
       <c r="AF62" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="B63" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="C63">
         <v>53</v>
@@ -6216,10 +6179,10 @@
         <v>65</v>
       </c>
       <c r="F63" t="s">
-        <v>403</v>
-      </c>
-      <c r="G63" t="s">
-        <v>177</v>
+        <v>383</v>
+      </c>
+      <c r="G63">
+        <v>8</v>
       </c>
       <c r="H63" t="s">
         <v>35</v>
@@ -6231,7 +6194,7 @@
         <v>93</v>
       </c>
       <c r="M63" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="N63">
         <v>1856</v>
@@ -6249,7 +6212,7 @@
         <v>39</v>
       </c>
       <c r="V63" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="AA63">
         <v>6</v>
@@ -6258,12 +6221,12 @@
         <v>42</v>
       </c>
       <c r="AE63" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="C64">
         <v>54</v>
@@ -6272,40 +6235,40 @@
         <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="F64" t="s">
-        <v>408</v>
-      </c>
-      <c r="G64" t="s">
-        <v>409</v>
+        <v>388</v>
+      </c>
+      <c r="G64">
+        <v>32</v>
       </c>
       <c r="H64" t="s">
         <v>35</v>
       </c>
       <c r="I64" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="J64" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="M64" t="s">
         <v>147</v>
       </c>
       <c r="P64" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="R64" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="S64" t="s">
         <v>38</v>
       </c>
       <c r="T64" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="V64" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="X64" t="s">
         <v>41</v>
@@ -6314,7 +6277,7 @@
         <v>42</v>
       </c>
       <c r="Z64" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="AA64">
         <v>171</v>
@@ -6323,21 +6286,21 @@
         <v>230</v>
       </c>
       <c r="AD64" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="AE64" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF64" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="B65" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="C65">
         <v>55</v>
@@ -6346,10 +6309,10 @@
         <v>75</v>
       </c>
       <c r="F65" t="s">
-        <v>420</v>
-      </c>
-      <c r="G65" t="s">
-        <v>271</v>
+        <v>399</v>
+      </c>
+      <c r="G65">
+        <v>33</v>
       </c>
       <c r="H65" t="s">
         <v>35</v>
@@ -6358,10 +6321,10 @@
         <v>125</v>
       </c>
       <c r="J65" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="M65" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="N65">
         <v>1880</v>
@@ -6376,13 +6339,13 @@
         <v>144</v>
       </c>
       <c r="V65" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="Y65" t="s">
         <v>42</v>
       </c>
       <c r="Z65" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="AA65">
         <v>6</v>
@@ -6391,18 +6354,18 @@
         <v>58</v>
       </c>
       <c r="AD65" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE65" t="s">
         <v>161</v>
       </c>
       <c r="AF65" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="C66">
         <v>56</v>
@@ -6411,13 +6374,13 @@
         <v>20</v>
       </c>
       <c r="E66" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="F66" t="s">
-        <v>427</v>
-      </c>
-      <c r="G66" t="s">
-        <v>177</v>
+        <v>406</v>
+      </c>
+      <c r="G66">
+        <v>9</v>
       </c>
       <c r="H66" t="s">
         <v>35</v>
@@ -6429,13 +6392,13 @@
         <v>97</v>
       </c>
       <c r="M66" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="N66">
         <v>1913</v>
       </c>
       <c r="P66" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="R66" t="s">
         <v>87</v>
@@ -6447,7 +6410,7 @@
         <v>39</v>
       </c>
       <c r="V66" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="X66" t="s">
         <v>110</v>
@@ -6456,7 +6419,7 @@
         <v>42</v>
       </c>
       <c r="Z66" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="AA66">
         <v>6</v>
@@ -6465,49 +6428,148 @@
         <v>42</v>
       </c>
       <c r="AD66" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="AE66" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF66" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>431</v>
+        <v>410</v>
+      </c>
+      <c r="B67" t="s">
+        <v>411</v>
       </c>
       <c r="C67">
         <v>57</v>
       </c>
+      <c r="D67">
+        <v>37</v>
+      </c>
+      <c r="G67">
+        <v>11</v>
+      </c>
+      <c r="H67" t="s">
+        <v>35</v>
+      </c>
+      <c r="I67" t="s">
+        <v>55</v>
+      </c>
+      <c r="M67" t="s">
+        <v>1</v>
+      </c>
+      <c r="P67" t="s">
+        <v>46</v>
+      </c>
+      <c r="S67" t="s">
+        <v>38</v>
+      </c>
       <c r="T67" t="s">
         <v>48</v>
       </c>
+      <c r="V67" t="s">
+        <v>412</v>
+      </c>
+      <c r="X67" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>395</v>
+      </c>
+      <c r="AA67">
+        <v>42</v>
+      </c>
+      <c r="AB67">
+        <v>58</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="C68">
         <v>58</v>
       </c>
+      <c r="D68">
+        <v>66</v>
+      </c>
+      <c r="E68" t="s">
+        <v>414</v>
+      </c>
+      <c r="F68" t="s">
+        <v>415</v>
+      </c>
+      <c r="G68">
+        <v>33</v>
+      </c>
+      <c r="H68" t="s">
+        <v>35</v>
+      </c>
+      <c r="I68" t="s">
+        <v>125</v>
+      </c>
+      <c r="J68" t="s">
+        <v>400</v>
+      </c>
+      <c r="M68" t="s">
+        <v>1</v>
+      </c>
+      <c r="P68" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>47</v>
+      </c>
+      <c r="S68" t="s">
+        <v>38</v>
+      </c>
       <c r="T68" t="s">
         <v>39</v>
       </c>
+      <c r="V68" t="s">
+        <v>416</v>
+      </c>
+      <c r="X68" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>395</v>
+      </c>
+      <c r="AA68">
+        <v>6</v>
+      </c>
+      <c r="AB68">
+        <v>42</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="C69">
         <v>59</v>
       </c>
       <c r="F69" t="s">
-        <v>434</v>
-      </c>
-      <c r="G69" t="s">
-        <v>177</v>
+        <v>418</v>
+      </c>
+      <c r="G69">
+        <v>9</v>
       </c>
       <c r="H69" t="s">
         <v>35</v>
@@ -6519,7 +6581,7 @@
         <v>97</v>
       </c>
       <c r="M69" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="N69">
         <v>1986</v>
@@ -6534,7 +6596,7 @@
         <v>39</v>
       </c>
       <c r="V69" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="X69" t="s">
         <v>41</v>
@@ -6543,7 +6605,7 @@
         <v>42</v>
       </c>
       <c r="Z69" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="AA69">
         <v>6</v>
@@ -6552,27 +6614,27 @@
         <v>42</v>
       </c>
       <c r="AD69" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE69" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF69" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="C70">
         <v>60</v>
       </c>
       <c r="F70" t="s">
-        <v>438</v>
-      </c>
-      <c r="G70" t="s">
-        <v>271</v>
+        <v>422</v>
+      </c>
+      <c r="G70">
+        <v>25</v>
       </c>
       <c r="H70" t="s">
         <v>35</v>
@@ -6581,10 +6643,10 @@
         <v>125</v>
       </c>
       <c r="J70" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="M70" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="N70">
         <v>2002</v>
@@ -6602,7 +6664,7 @@
         <v>39</v>
       </c>
       <c r="V70" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="X70" t="s">
         <v>110</v>
@@ -6611,7 +6673,7 @@
         <v>42</v>
       </c>
       <c r="Z70" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="AA70">
         <v>6</v>
@@ -6620,47 +6682,92 @@
         <v>42</v>
       </c>
       <c r="AC70" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="AD70" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE70" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="AF70" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>443</v>
+        <v>427</v>
+      </c>
+      <c r="B71" t="s">
+        <v>428</v>
       </c>
       <c r="C71">
         <v>61</v>
       </c>
+      <c r="D71">
+        <v>38</v>
+      </c>
+      <c r="F71" t="s">
+        <v>429</v>
+      </c>
+      <c r="G71">
+        <v>13</v>
+      </c>
+      <c r="H71" t="s">
+        <v>35</v>
+      </c>
+      <c r="I71" t="s">
+        <v>71</v>
+      </c>
+      <c r="J71" t="s">
+        <v>133</v>
+      </c>
+      <c r="M71" t="s">
+        <v>1</v>
+      </c>
+      <c r="P71" t="s">
+        <v>46</v>
+      </c>
+      <c r="R71" t="s">
+        <v>430</v>
+      </c>
+      <c r="S71" t="s">
+        <v>38</v>
+      </c>
       <c r="T71" t="s">
         <v>39</v>
       </c>
+      <c r="V71" t="s">
+        <v>431</v>
+      </c>
+      <c r="AA71">
+        <v>6</v>
+      </c>
+      <c r="AB71">
+        <v>42</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B72" t="s">
-        <v>546</v>
+        <v>433</v>
       </c>
       <c r="C72">
         <v>62</v>
       </c>
       <c r="D72">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F72" t="s">
-        <v>547</v>
-      </c>
-      <c r="G72" t="s">
-        <v>545</v>
+        <v>434</v>
+      </c>
+      <c r="G72">
+        <v>34</v>
       </c>
       <c r="H72" t="s">
         <v>35</v>
@@ -6669,7 +6776,7 @@
         <v>45</v>
       </c>
       <c r="J72" t="s">
-        <v>544</v>
+        <v>435</v>
       </c>
       <c r="M72" t="s">
         <v>107</v>
@@ -6690,7 +6797,7 @@
         <v>48</v>
       </c>
       <c r="V72" t="s">
-        <v>548</v>
+        <v>436</v>
       </c>
       <c r="AA72">
         <v>42</v>
@@ -6704,7 +6811,7 @@
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C73">
         <v>63</v>
@@ -6713,13 +6820,13 @@
         <v>68</v>
       </c>
       <c r="E73" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="F73" t="s">
-        <v>447</v>
-      </c>
-      <c r="G73" t="s">
-        <v>271</v>
+        <v>439</v>
+      </c>
+      <c r="G73">
+        <v>25</v>
       </c>
       <c r="H73" t="s">
         <v>35</v>
@@ -6728,10 +6835,10 @@
         <v>125</v>
       </c>
       <c r="J73" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="M73" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="N73">
         <v>1908</v>
@@ -6749,7 +6856,7 @@
         <v>39</v>
       </c>
       <c r="V73" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="X73" t="s">
         <v>41</v>
@@ -6758,7 +6865,7 @@
         <v>42</v>
       </c>
       <c r="Z73" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="AA73">
         <v>6</v>
@@ -6767,21 +6874,21 @@
         <v>42</v>
       </c>
       <c r="AD73" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE73" t="s">
         <v>161</v>
       </c>
       <c r="AF73" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B74" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C74">
         <v>64</v>
@@ -6790,10 +6897,10 @@
         <v>69</v>
       </c>
       <c r="F74" t="s">
-        <v>453</v>
-      </c>
-      <c r="G74" t="s">
-        <v>177</v>
+        <v>445</v>
+      </c>
+      <c r="G74">
+        <v>11</v>
       </c>
       <c r="H74" t="s">
         <v>35</v>
@@ -6802,13 +6909,13 @@
         <v>55</v>
       </c>
       <c r="M74" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="N74">
         <v>1881</v>
       </c>
       <c r="P74" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="Q74" t="s">
         <v>47</v>
@@ -6820,7 +6927,7 @@
         <v>48</v>
       </c>
       <c r="V74" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="X74" t="s">
         <v>41</v>
@@ -6829,7 +6936,7 @@
         <v>42</v>
       </c>
       <c r="Z74" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="AA74">
         <v>42</v>
@@ -6838,18 +6945,18 @@
         <v>58</v>
       </c>
       <c r="AD74" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="AE74" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="B75" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="C75">
         <v>65</v>
@@ -6858,22 +6965,22 @@
         <v>70</v>
       </c>
       <c r="F75" t="s">
-        <v>458</v>
-      </c>
-      <c r="G75" t="s">
-        <v>459</v>
+        <v>450</v>
+      </c>
+      <c r="G75">
+        <v>34</v>
       </c>
       <c r="H75" t="s">
         <v>35</v>
       </c>
       <c r="I75" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="J75" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="M75" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="N75">
         <v>1886</v>
@@ -6891,7 +6998,7 @@
         <v>39</v>
       </c>
       <c r="V75" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="X75" t="s">
         <v>41</v>
@@ -6900,7 +7007,7 @@
         <v>42</v>
       </c>
       <c r="Z75" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="AA75">
         <v>6</v>
@@ -6909,21 +7016,21 @@
         <v>42</v>
       </c>
       <c r="AD75" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE75" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF75" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B76" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C76">
         <v>67</v>
@@ -6931,20 +7038,23 @@
       <c r="D76">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>467</v>
+      <c r="G76">
+        <v>35</v>
       </c>
       <c r="H76" t="s">
         <v>35</v>
       </c>
       <c r="I76" t="s">
-        <v>468</v>
+        <v>451</v>
+      </c>
+      <c r="J76" t="s">
+        <v>458</v>
       </c>
       <c r="M76" t="s">
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="R76" t="s">
         <v>138</v>
@@ -6956,13 +7066,13 @@
         <v>48</v>
       </c>
       <c r="V76" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="X76" t="s">
         <v>41</v>
       </c>
       <c r="Z76" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="AA76">
         <v>42</v>
@@ -6971,21 +7081,21 @@
         <v>58</v>
       </c>
       <c r="AD76" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="AE76" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="AF76" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="B77" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="C77">
         <v>68</v>
@@ -6994,19 +7104,19 @@
         <v>39</v>
       </c>
       <c r="F77" t="s">
-        <v>474</v>
-      </c>
-      <c r="G77" t="s">
-        <v>180</v>
+        <v>464</v>
+      </c>
+      <c r="G77">
+        <v>5</v>
       </c>
       <c r="H77" t="s">
         <v>35</v>
       </c>
       <c r="I77" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J77" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M77" t="s">
         <v>1</v>
@@ -7021,7 +7131,7 @@
         <v>39</v>
       </c>
       <c r="V77" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="X77" t="s">
         <v>41</v>
@@ -7030,7 +7140,7 @@
         <v>42</v>
       </c>
       <c r="Z77" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="AA77">
         <v>6</v>
@@ -7039,15 +7149,15 @@
         <v>42</v>
       </c>
       <c r="AD77" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE77" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="C78">
         <v>69</v>
@@ -7056,13 +7166,13 @@
         <v>17</v>
       </c>
       <c r="E78" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="F78" t="s">
-        <v>478</v>
-      </c>
-      <c r="G78" t="s">
-        <v>177</v>
+        <v>468</v>
+      </c>
+      <c r="G78">
+        <v>36</v>
       </c>
       <c r="H78" t="s">
         <v>35</v>
@@ -7071,7 +7181,7 @@
         <v>55</v>
       </c>
       <c r="J78" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="M78" t="s">
         <v>92</v>
@@ -7080,10 +7190,10 @@
         <v>1914</v>
       </c>
       <c r="P78" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="R78" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="S78" t="s">
         <v>38</v>
@@ -7092,7 +7202,7 @@
         <v>48</v>
       </c>
       <c r="V78" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="X78" t="s">
         <v>41</v>
@@ -7101,7 +7211,7 @@
         <v>42</v>
       </c>
       <c r="Z78" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="AA78">
         <v>42</v>
@@ -7110,18 +7220,18 @@
         <v>58</v>
       </c>
       <c r="AD78" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="AE78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF78" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="C79">
         <v>70</v>
@@ -7130,13 +7240,13 @@
         <v>71</v>
       </c>
       <c r="E79" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F79" t="s">
-        <v>484</v>
-      </c>
-      <c r="G79" t="s">
-        <v>177</v>
+        <v>474</v>
+      </c>
+      <c r="G79">
+        <v>37</v>
       </c>
       <c r="H79" t="s">
         <v>35</v>
@@ -7145,10 +7255,10 @@
         <v>55</v>
       </c>
       <c r="J79" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="M79" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="N79">
         <v>1928</v>
@@ -7166,7 +7276,7 @@
         <v>48</v>
       </c>
       <c r="V79" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="X79" t="s">
         <v>41</v>
@@ -7178,49 +7288,136 @@
         <v>58</v>
       </c>
       <c r="AD79" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE79" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF79" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>489</v>
+        <v>479</v>
+      </c>
+      <c r="B80" t="s">
+        <v>480</v>
       </c>
       <c r="C80">
         <v>71</v>
       </c>
+      <c r="D80">
+        <v>40</v>
+      </c>
+      <c r="F80" t="s">
+        <v>481</v>
+      </c>
+      <c r="G80">
+        <v>29</v>
+      </c>
+      <c r="H80" t="s">
+        <v>35</v>
+      </c>
+      <c r="I80" t="s">
+        <v>71</v>
+      </c>
+      <c r="J80" t="s">
+        <v>355</v>
+      </c>
+      <c r="M80" t="s">
+        <v>107</v>
+      </c>
+      <c r="N80">
+        <v>1878</v>
+      </c>
+      <c r="P80" t="s">
+        <v>482</v>
+      </c>
+      <c r="S80" t="s">
+        <v>38</v>
+      </c>
       <c r="T80" t="s">
         <v>39</v>
       </c>
+      <c r="V80" t="s">
+        <v>483</v>
+      </c>
+      <c r="AA80">
+        <v>6</v>
+      </c>
+      <c r="AB80">
+        <v>42</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>490</v>
+        <v>484</v>
+      </c>
+      <c r="B81" t="s">
+        <v>485</v>
       </c>
       <c r="C81">
         <v>72</v>
       </c>
+      <c r="D81">
+        <v>41</v>
+      </c>
+      <c r="F81" t="s">
+        <v>486</v>
+      </c>
+      <c r="G81">
+        <v>11</v>
+      </c>
+      <c r="H81" t="s">
+        <v>35</v>
+      </c>
+      <c r="I81" t="s">
+        <v>55</v>
+      </c>
+      <c r="M81" t="s">
+        <v>1</v>
+      </c>
+      <c r="P81" t="s">
+        <v>482</v>
+      </c>
+      <c r="R81" t="s">
+        <v>430</v>
+      </c>
+      <c r="S81" t="s">
+        <v>38</v>
+      </c>
       <c r="T81" t="s">
         <v>39</v>
       </c>
+      <c r="V81" t="s">
+        <v>487</v>
+      </c>
+      <c r="AA81">
+        <v>6</v>
+      </c>
+      <c r="AB81">
+        <v>42</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C82">
         <v>74</v>
       </c>
       <c r="F82" t="s">
-        <v>492</v>
-      </c>
-      <c r="G82" t="s">
-        <v>271</v>
+        <v>489</v>
+      </c>
+      <c r="G82">
+        <v>38</v>
       </c>
       <c r="H82" t="s">
         <v>35</v>
@@ -7229,10 +7426,10 @@
         <v>125</v>
       </c>
       <c r="J82" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="M82" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="N82">
         <v>1981</v>
@@ -7247,10 +7444,10 @@
         <v>38</v>
       </c>
       <c r="T82" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="V82" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="X82" t="s">
         <v>41</v>
@@ -7262,21 +7459,21 @@
         <v>58</v>
       </c>
       <c r="AD82" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE82" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="AF82" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B83" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C83">
         <v>75</v>
@@ -7285,10 +7482,10 @@
         <v>47</v>
       </c>
       <c r="F83" t="s">
-        <v>499</v>
-      </c>
-      <c r="G83" t="s">
-        <v>177</v>
+        <v>496</v>
+      </c>
+      <c r="G83">
+        <v>11</v>
       </c>
       <c r="H83" t="s">
         <v>35</v>
@@ -7297,7 +7494,7 @@
         <v>55</v>
       </c>
       <c r="M83" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="N83">
         <v>1885</v>
@@ -7315,7 +7512,7 @@
         <v>48</v>
       </c>
       <c r="V83" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AA83">
         <v>42</v>
@@ -7324,18 +7521,18 @@
         <v>58</v>
       </c>
       <c r="AE83" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF83" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B84" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C84">
         <v>97</v>
@@ -7344,28 +7541,28 @@
         <v>7</v>
       </c>
       <c r="F84" t="s">
+        <v>502</v>
+      </c>
+      <c r="G84">
+        <v>39</v>
+      </c>
+      <c r="H84" t="s">
+        <v>35</v>
+      </c>
+      <c r="I84" t="s">
+        <v>503</v>
+      </c>
+      <c r="J84" t="s">
+        <v>504</v>
+      </c>
+      <c r="K84">
+        <v>17.176079999999999</v>
+      </c>
+      <c r="L84">
+        <v>44.15513</v>
+      </c>
+      <c r="M84" t="s">
         <v>505</v>
-      </c>
-      <c r="G84" t="s">
-        <v>506</v>
-      </c>
-      <c r="H84" t="s">
-        <v>35</v>
-      </c>
-      <c r="I84" t="s">
-        <v>507</v>
-      </c>
-      <c r="J84" t="s">
-        <v>508</v>
-      </c>
-      <c r="K84">
-        <v>44.15513</v>
-      </c>
-      <c r="L84">
-        <v>17.176079999999999</v>
-      </c>
-      <c r="M84" t="s">
-        <v>509</v>
       </c>
       <c r="N84">
         <v>1890</v>
@@ -7380,7 +7577,7 @@
         <v>39</v>
       </c>
       <c r="V84" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="AA84">
         <v>40</v>
@@ -7392,27 +7589,27 @@
         <v>90</v>
       </c>
       <c r="AF84" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>508</v>
+      </c>
+      <c r="B85" t="s">
+        <v>509</v>
+      </c>
+      <c r="F85" t="s">
+        <v>510</v>
+      </c>
+      <c r="G85">
+        <v>40</v>
+      </c>
+      <c r="H85" t="s">
+        <v>511</v>
+      </c>
+      <c r="I85" t="s">
         <v>512</v>
-      </c>
-      <c r="B85" t="s">
-        <v>513</v>
-      </c>
-      <c r="F85" t="s">
-        <v>514</v>
-      </c>
-      <c r="G85" t="s">
-        <v>515</v>
-      </c>
-      <c r="H85" t="s">
-        <v>516</v>
-      </c>
-      <c r="I85" t="s">
-        <v>517</v>
       </c>
       <c r="P85" t="s">
         <v>46</v>
@@ -7427,42 +7624,42 @@
         <v>39</v>
       </c>
       <c r="V85" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="AA85">
         <v>-30</v>
       </c>
       <c r="AB85">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC85" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B86" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F86" t="s">
-        <v>514</v>
-      </c>
-      <c r="G86" t="s">
-        <v>515</v>
+        <v>510</v>
+      </c>
+      <c r="G86">
+        <v>40</v>
       </c>
       <c r="H86" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="I86" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="P86" t="s">
         <v>46</v>
       </c>
       <c r="R86" t="s">
-        <v>522</v>
+        <v>430</v>
       </c>
       <c r="S86" t="s">
         <v>38</v>
@@ -7471,36 +7668,36 @@
         <v>39</v>
       </c>
       <c r="V86" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="AA86">
         <v>-30</v>
       </c>
       <c r="AB86">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC86" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="F87" t="s">
-        <v>525</v>
-      </c>
-      <c r="G87" t="s">
-        <v>526</v>
+        <v>519</v>
+      </c>
+      <c r="G87">
+        <v>41</v>
       </c>
       <c r="H87" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="I87" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="J87" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="N87">
         <v>1888</v>
@@ -7518,36 +7715,36 @@
         <v>39</v>
       </c>
       <c r="V87" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="AA87">
         <v>-30</v>
       </c>
       <c r="AB87">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC87" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="F88" t="s">
-        <v>531</v>
-      </c>
-      <c r="G88" t="s">
-        <v>532</v>
+        <v>524</v>
+      </c>
+      <c r="G88">
+        <v>42</v>
       </c>
       <c r="H88" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="I88" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="J88" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="N88">
         <v>1902</v>
@@ -7565,30 +7762,30 @@
         <v>39</v>
       </c>
       <c r="V88" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F89" t="s">
-        <v>536</v>
-      </c>
-      <c r="G89" t="s">
-        <v>459</v>
+        <v>528</v>
+      </c>
+      <c r="G89">
+        <v>34</v>
       </c>
       <c r="H89" t="s">
         <v>35</v>
       </c>
       <c r="I89" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="J89" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="M89" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="N89">
         <v>2013</v>
@@ -7606,19 +7803,19 @@
         <v>48</v>
       </c>
       <c r="U89" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="V89" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="W89" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="Y89" t="s">
         <v>42</v>
       </c>
       <c r="Z89" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="AA89">
         <v>42</v>
@@ -7627,24 +7824,23 @@
         <v>58</v>
       </c>
       <c r="AD89" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF89" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>